--- a/Documents/Planning_2023-2024-2.xlsx
+++ b/Documents/Planning_2023-2024-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pioct\PycharmProjects\SAE_pycharm\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degan\OneDrive\Documents\MATTEO\BUT2\SAE3\SAE3_BDD\SAE_pycharm\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E1FE62-12C8-4CE1-A89C-172DFFE1C320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D3DA01-C5BE-4197-857C-EE9F1B85B823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="1" r:id="rId1"/>
@@ -2056,7 +2056,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="278">
   <si>
     <t>Cours</t>
   </si>
@@ -3576,7 +3576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4320,18 +4320,19 @@
     <xf numFmtId="0" fontId="1" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4339,24 +4340,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4366,6 +4366,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4464,9 +4467,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4504,7 +4507,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4610,7 +4613,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4752,7 +4755,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4765,9 +4768,9 @@
   </sheetPr>
   <dimension ref="B1:BO1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4793,45 +4796,45 @@
   <sheetData>
     <row r="1" spans="2:67" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
-      <c r="C1" s="288" t="s">
+      <c r="C1" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="288" t="s">
+      <c r="H1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
       <c r="N1" s="8"/>
-      <c r="O1" s="288" t="s">
+      <c r="O1" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="288"/>
-      <c r="Q1" s="288"/>
-      <c r="R1" s="288"/>
-      <c r="S1" s="288"/>
-      <c r="T1" s="288"/>
+      <c r="P1" s="285"/>
+      <c r="Q1" s="285"/>
+      <c r="R1" s="285"/>
+      <c r="S1" s="285"/>
+      <c r="T1" s="285"/>
       <c r="U1" s="8"/>
-      <c r="V1" s="288" t="s">
+      <c r="V1" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="288"/>
+      <c r="W1" s="285"/>
       <c r="X1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="290" t="s">
+      <c r="Y1" s="286" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="290"/>
-      <c r="AA1" s="290"/>
-      <c r="AB1" s="290"/>
-      <c r="AC1" s="290"/>
+      <c r="Z1" s="286"/>
+      <c r="AA1" s="286"/>
+      <c r="AB1" s="286"/>
+      <c r="AC1" s="286"/>
       <c r="AD1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4847,35 +4850,35 @@
       <c r="AH1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AI1" s="288" t="s">
+      <c r="AI1" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="AJ1" s="288"/>
-      <c r="AK1" s="288"/>
-      <c r="AL1" s="288"/>
+      <c r="AJ1" s="285"/>
+      <c r="AK1" s="285"/>
+      <c r="AL1" s="285"/>
       <c r="AM1" s="8"/>
-      <c r="AN1" s="288" t="s">
+      <c r="AN1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="AO1" s="288"/>
-      <c r="AP1" s="288"/>
-      <c r="AQ1" s="288"/>
-      <c r="AR1" s="288"/>
-      <c r="AS1" s="288"/>
+      <c r="AO1" s="285"/>
+      <c r="AP1" s="285"/>
+      <c r="AQ1" s="285"/>
+      <c r="AR1" s="285"/>
+      <c r="AS1" s="285"/>
       <c r="AT1" s="8"/>
-      <c r="AU1" s="288" t="s">
+      <c r="AU1" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="AV1" s="288"/>
-      <c r="AW1" s="288"/>
-      <c r="AX1" s="288"/>
-      <c r="AY1" s="288"/>
-      <c r="AZ1" s="288"/>
+      <c r="AV1" s="285"/>
+      <c r="AW1" s="285"/>
+      <c r="AX1" s="285"/>
+      <c r="AY1" s="285"/>
+      <c r="AZ1" s="285"/>
       <c r="BA1" s="8"/>
-      <c r="BB1" s="288" t="s">
+      <c r="BB1" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="288"/>
+      <c r="BC1" s="285"/>
       <c r="BD1" s="7"/>
       <c r="BF1" s="10"/>
       <c r="BG1" s="10"/>
@@ -7776,10 +7779,10 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
-      <c r="AC31" s="289" t="s">
+      <c r="AC31" s="287" t="s">
         <v>37</v>
       </c>
-      <c r="AD31" s="289"/>
+      <c r="AD31" s="287"/>
       <c r="AF31" s="6"/>
       <c r="AG31" s="79"/>
       <c r="AH31" s="99" t="s">
@@ -7855,12 +7858,12 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
-      <c r="AC32" s="287" t="s">
+      <c r="AC32" s="288" t="s">
         <v>41</v>
       </c>
-      <c r="AD32" s="287"/>
-      <c r="AE32" s="287"/>
-      <c r="AF32" s="287"/>
+      <c r="AD32" s="288"/>
+      <c r="AE32" s="288"/>
+      <c r="AF32" s="288"/>
       <c r="AG32" s="79"/>
       <c r="AH32" s="103" t="s">
         <v>13</v>
@@ -7933,12 +7936,12 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
-      <c r="AC33" s="287" t="s">
+      <c r="AC33" s="288" t="s">
         <v>45</v>
       </c>
-      <c r="AD33" s="287"/>
-      <c r="AE33" s="287"/>
-      <c r="AF33" s="287"/>
+      <c r="AD33" s="288"/>
+      <c r="AE33" s="288"/>
+      <c r="AF33" s="288"/>
       <c r="AG33" s="79"/>
       <c r="AH33" s="107" t="s">
         <v>13</v>
@@ -7988,10 +7991,10 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
-      <c r="AC34" s="287"/>
-      <c r="AD34" s="287"/>
-      <c r="AE34" s="287"/>
-      <c r="AF34" s="287"/>
+      <c r="AC34" s="288"/>
+      <c r="AD34" s="288"/>
+      <c r="AE34" s="288"/>
+      <c r="AF34" s="288"/>
       <c r="AG34" s="79"/>
       <c r="AH34" s="110" t="s">
         <v>13</v>
@@ -8039,18 +8042,18 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
-      <c r="AC35" s="287"/>
-      <c r="AD35" s="287"/>
-      <c r="AE35" s="287"/>
-      <c r="AF35" s="287"/>
-      <c r="AG35" s="287"/>
-      <c r="AH35" s="287"/>
-      <c r="AI35" s="287"/>
-      <c r="AJ35" s="287"/>
-      <c r="AK35" s="287"/>
-      <c r="AL35" s="287"/>
-      <c r="AM35" s="287"/>
-      <c r="AN35" s="287"/>
+      <c r="AC35" s="288"/>
+      <c r="AD35" s="288"/>
+      <c r="AE35" s="288"/>
+      <c r="AF35" s="288"/>
+      <c r="AG35" s="288"/>
+      <c r="AH35" s="288"/>
+      <c r="AI35" s="288"/>
+      <c r="AJ35" s="288"/>
+      <c r="AK35" s="288"/>
+      <c r="AL35" s="288"/>
+      <c r="AM35" s="288"/>
+      <c r="AN35" s="288"/>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
       <c r="AQ35" s="5"/>
@@ -8098,10 +8101,10 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
-      <c r="AC36" s="287"/>
-      <c r="AD36" s="287"/>
-      <c r="AE36" s="287"/>
-      <c r="AF36" s="287"/>
+      <c r="AC36" s="288"/>
+      <c r="AD36" s="288"/>
+      <c r="AE36" s="288"/>
+      <c r="AF36" s="288"/>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
@@ -8134,26 +8137,26 @@
     </row>
     <row r="37" spans="2:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
-      <c r="C37" s="285"/>
-      <c r="D37" s="285"/>
-      <c r="E37" s="285"/>
-      <c r="F37" s="285"/>
-      <c r="G37" s="285"/>
-      <c r="H37" s="286"/>
-      <c r="I37" s="286"/>
-      <c r="J37" s="286"/>
-      <c r="K37" s="286"/>
-      <c r="L37" s="286"/>
-      <c r="M37" s="286"/>
-      <c r="N37" s="286"/>
-      <c r="O37" s="286"/>
-      <c r="P37" s="286"/>
-      <c r="Q37" s="286"/>
-      <c r="R37" s="286"/>
-      <c r="S37" s="286"/>
-      <c r="T37" s="286"/>
-      <c r="U37" s="286"/>
-      <c r="V37" s="286"/>
+      <c r="C37" s="289"/>
+      <c r="D37" s="289"/>
+      <c r="E37" s="289"/>
+      <c r="F37" s="289"/>
+      <c r="G37" s="289"/>
+      <c r="H37" s="290"/>
+      <c r="I37" s="290"/>
+      <c r="J37" s="290"/>
+      <c r="K37" s="290"/>
+      <c r="L37" s="290"/>
+      <c r="M37" s="290"/>
+      <c r="N37" s="290"/>
+      <c r="O37" s="290"/>
+      <c r="P37" s="290"/>
+      <c r="Q37" s="290"/>
+      <c r="R37" s="290"/>
+      <c r="S37" s="290"/>
+      <c r="T37" s="290"/>
+      <c r="U37" s="290"/>
+      <c r="V37" s="290"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
@@ -8166,30 +8169,30 @@
       <c r="AF37" s="6"/>
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
-      <c r="AI37" s="285" t="s">
+      <c r="AI37" s="289" t="s">
         <v>49</v>
       </c>
-      <c r="AJ37" s="285"/>
-      <c r="AK37" s="285"/>
-      <c r="AL37" s="285"/>
-      <c r="AM37" s="285"/>
-      <c r="AN37" s="286" t="s">
+      <c r="AJ37" s="289"/>
+      <c r="AK37" s="289"/>
+      <c r="AL37" s="289"/>
+      <c r="AM37" s="289"/>
+      <c r="AN37" s="290" t="s">
         <v>50</v>
       </c>
-      <c r="AO37" s="286"/>
-      <c r="AP37" s="286"/>
-      <c r="AQ37" s="286"/>
-      <c r="AR37" s="286"/>
-      <c r="AS37" s="286"/>
-      <c r="AT37" s="286"/>
-      <c r="AU37" s="286"/>
-      <c r="AV37" s="286"/>
-      <c r="AW37" s="286"/>
-      <c r="AX37" s="286"/>
-      <c r="AY37" s="286"/>
-      <c r="AZ37" s="286"/>
-      <c r="BA37" s="286"/>
-      <c r="BB37" s="286"/>
+      <c r="AO37" s="290"/>
+      <c r="AP37" s="290"/>
+      <c r="AQ37" s="290"/>
+      <c r="AR37" s="290"/>
+      <c r="AS37" s="290"/>
+      <c r="AT37" s="290"/>
+      <c r="AU37" s="290"/>
+      <c r="AV37" s="290"/>
+      <c r="AW37" s="290"/>
+      <c r="AX37" s="290"/>
+      <c r="AY37" s="290"/>
+      <c r="AZ37" s="290"/>
+      <c r="BA37" s="290"/>
+      <c r="BB37" s="290"/>
       <c r="BC37" s="5"/>
       <c r="BD37" s="10"/>
       <c r="BK37" s="5"/>
@@ -8199,34 +8202,32 @@
       <c r="BO37" s="10"/>
     </row>
     <row r="38" spans="2:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="285" t="s">
+      <c r="B38" s="304"/>
+      <c r="C38" s="289" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="285"/>
-      <c r="E38" s="285"/>
-      <c r="F38" s="285"/>
-      <c r="G38" s="285"/>
-      <c r="H38" s="286" t="s">
+      <c r="D38" s="289"/>
+      <c r="E38" s="289"/>
+      <c r="F38" s="289"/>
+      <c r="G38" s="289"/>
+      <c r="H38" s="290" t="s">
         <v>51</v>
       </c>
-      <c r="I38" s="286"/>
-      <c r="J38" s="286"/>
-      <c r="K38" s="286"/>
-      <c r="L38" s="286"/>
-      <c r="M38" s="286"/>
-      <c r="N38" s="286"/>
-      <c r="O38" s="286"/>
-      <c r="P38" s="286"/>
-      <c r="Q38" s="286"/>
-      <c r="R38" s="286"/>
-      <c r="S38" s="286"/>
-      <c r="T38" s="286"/>
-      <c r="U38" s="286"/>
-      <c r="V38" s="286"/>
-      <c r="W38" s="286"/>
+      <c r="I38" s="290"/>
+      <c r="J38" s="290"/>
+      <c r="K38" s="290"/>
+      <c r="L38" s="290"/>
+      <c r="M38" s="290"/>
+      <c r="N38" s="290"/>
+      <c r="O38" s="290"/>
+      <c r="P38" s="290"/>
+      <c r="Q38" s="290"/>
+      <c r="R38" s="290"/>
+      <c r="S38" s="290"/>
+      <c r="T38" s="290"/>
+      <c r="U38" s="290"/>
+      <c r="V38" s="290"/>
+      <c r="W38" s="290"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
@@ -8238,30 +8239,30 @@
       <c r="AF38" s="6"/>
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
-      <c r="AI38" s="285" t="s">
+      <c r="AI38" s="289" t="s">
         <v>31</v>
       </c>
-      <c r="AJ38" s="285"/>
-      <c r="AK38" s="285"/>
-      <c r="AL38" s="285"/>
-      <c r="AM38" s="285"/>
-      <c r="AN38" s="286" t="s">
+      <c r="AJ38" s="289"/>
+      <c r="AK38" s="289"/>
+      <c r="AL38" s="289"/>
+      <c r="AM38" s="289"/>
+      <c r="AN38" s="290" t="s">
         <v>52</v>
       </c>
-      <c r="AO38" s="286"/>
-      <c r="AP38" s="286"/>
-      <c r="AQ38" s="286"/>
-      <c r="AR38" s="286"/>
-      <c r="AS38" s="286"/>
-      <c r="AT38" s="286"/>
-      <c r="AU38" s="286"/>
-      <c r="AV38" s="286"/>
-      <c r="AW38" s="286"/>
-      <c r="AX38" s="286"/>
-      <c r="AY38" s="286"/>
-      <c r="AZ38" s="286"/>
-      <c r="BA38" s="286"/>
-      <c r="BB38" s="286"/>
+      <c r="AO38" s="290"/>
+      <c r="AP38" s="290"/>
+      <c r="AQ38" s="290"/>
+      <c r="AR38" s="290"/>
+      <c r="AS38" s="290"/>
+      <c r="AT38" s="290"/>
+      <c r="AU38" s="290"/>
+      <c r="AV38" s="290"/>
+      <c r="AW38" s="290"/>
+      <c r="AX38" s="290"/>
+      <c r="AY38" s="290"/>
+      <c r="AZ38" s="290"/>
+      <c r="BA38" s="290"/>
+      <c r="BB38" s="290"/>
       <c r="BC38" s="5"/>
       <c r="BD38" s="10"/>
       <c r="BE38" s="10"/>
@@ -8277,34 +8278,32 @@
       <c r="BO38" s="10"/>
     </row>
     <row r="39" spans="2:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="285" t="s">
+      <c r="B39" s="304"/>
+      <c r="C39" s="289" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="285"/>
-      <c r="E39" s="285"/>
-      <c r="F39" s="285"/>
-      <c r="G39" s="285"/>
-      <c r="H39" s="286" t="s">
+      <c r="D39" s="289"/>
+      <c r="E39" s="289"/>
+      <c r="F39" s="289"/>
+      <c r="G39" s="289"/>
+      <c r="H39" s="290" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="286"/>
-      <c r="J39" s="286"/>
-      <c r="K39" s="286"/>
-      <c r="L39" s="286"/>
-      <c r="M39" s="286"/>
-      <c r="N39" s="286"/>
-      <c r="O39" s="286"/>
-      <c r="P39" s="286"/>
-      <c r="Q39" s="286"/>
-      <c r="R39" s="286"/>
-      <c r="S39" s="286"/>
-      <c r="T39" s="286"/>
-      <c r="U39" s="286"/>
-      <c r="V39" s="286"/>
-      <c r="W39" s="286"/>
+      <c r="I39" s="290"/>
+      <c r="J39" s="290"/>
+      <c r="K39" s="290"/>
+      <c r="L39" s="290"/>
+      <c r="M39" s="290"/>
+      <c r="N39" s="290"/>
+      <c r="O39" s="290"/>
+      <c r="P39" s="290"/>
+      <c r="Q39" s="290"/>
+      <c r="R39" s="290"/>
+      <c r="S39" s="290"/>
+      <c r="T39" s="290"/>
+      <c r="U39" s="290"/>
+      <c r="V39" s="290"/>
+      <c r="W39" s="290"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
@@ -8316,30 +8315,30 @@
       <c r="AF39" s="6"/>
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
-      <c r="AI39" s="285" t="s">
+      <c r="AI39" s="289" t="s">
         <v>34</v>
       </c>
-      <c r="AJ39" s="285"/>
-      <c r="AK39" s="285"/>
-      <c r="AL39" s="285"/>
-      <c r="AM39" s="285"/>
-      <c r="AN39" s="286" t="s">
+      <c r="AJ39" s="289"/>
+      <c r="AK39" s="289"/>
+      <c r="AL39" s="289"/>
+      <c r="AM39" s="289"/>
+      <c r="AN39" s="290" t="s">
         <v>54</v>
       </c>
-      <c r="AO39" s="286"/>
-      <c r="AP39" s="286"/>
-      <c r="AQ39" s="286"/>
-      <c r="AR39" s="286"/>
-      <c r="AS39" s="286"/>
-      <c r="AT39" s="286"/>
-      <c r="AU39" s="286"/>
-      <c r="AV39" s="286"/>
-      <c r="AW39" s="286"/>
-      <c r="AX39" s="286"/>
-      <c r="AY39" s="286"/>
-      <c r="AZ39" s="286"/>
-      <c r="BA39" s="286"/>
-      <c r="BB39" s="286"/>
+      <c r="AO39" s="290"/>
+      <c r="AP39" s="290"/>
+      <c r="AQ39" s="290"/>
+      <c r="AR39" s="290"/>
+      <c r="AS39" s="290"/>
+      <c r="AT39" s="290"/>
+      <c r="AU39" s="290"/>
+      <c r="AV39" s="290"/>
+      <c r="AW39" s="290"/>
+      <c r="AX39" s="290"/>
+      <c r="AY39" s="290"/>
+      <c r="AZ39" s="290"/>
+      <c r="BA39" s="290"/>
+      <c r="BB39" s="290"/>
       <c r="BC39" s="5"/>
       <c r="BD39" s="10"/>
       <c r="BE39" s="10"/>
@@ -8356,13 +8355,13 @@
     </row>
     <row r="40" spans="2:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
-      <c r="C40" s="285" t="s">
+      <c r="C40" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="285"/>
-      <c r="E40" s="285"/>
-      <c r="F40" s="285"/>
-      <c r="G40" s="285"/>
+      <c r="D40" s="289"/>
+      <c r="E40" s="289"/>
+      <c r="F40" s="289"/>
+      <c r="G40" s="289"/>
       <c r="H40" s="10" t="s">
         <v>55</v>
       </c>
@@ -8377,30 +8376,30 @@
       <c r="AF40" s="6"/>
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
-      <c r="AI40" s="285" t="s">
+      <c r="AI40" s="289" t="s">
         <v>38</v>
       </c>
-      <c r="AJ40" s="285"/>
-      <c r="AK40" s="285"/>
-      <c r="AL40" s="285"/>
-      <c r="AM40" s="285"/>
-      <c r="AN40" s="286" t="s">
+      <c r="AJ40" s="289"/>
+      <c r="AK40" s="289"/>
+      <c r="AL40" s="289"/>
+      <c r="AM40" s="289"/>
+      <c r="AN40" s="290" t="s">
         <v>56</v>
       </c>
-      <c r="AO40" s="286"/>
-      <c r="AP40" s="286"/>
-      <c r="AQ40" s="286"/>
-      <c r="AR40" s="286"/>
-      <c r="AS40" s="286"/>
-      <c r="AT40" s="286"/>
-      <c r="AU40" s="286"/>
-      <c r="AV40" s="286"/>
-      <c r="AW40" s="286"/>
-      <c r="AX40" s="286"/>
-      <c r="AY40" s="286"/>
-      <c r="AZ40" s="286"/>
-      <c r="BA40" s="286"/>
-      <c r="BB40" s="286"/>
+      <c r="AO40" s="290"/>
+      <c r="AP40" s="290"/>
+      <c r="AQ40" s="290"/>
+      <c r="AR40" s="290"/>
+      <c r="AS40" s="290"/>
+      <c r="AT40" s="290"/>
+      <c r="AU40" s="290"/>
+      <c r="AV40" s="290"/>
+      <c r="AW40" s="290"/>
+      <c r="AX40" s="290"/>
+      <c r="AY40" s="290"/>
+      <c r="AZ40" s="290"/>
+      <c r="BA40" s="290"/>
+      <c r="BB40" s="290"/>
       <c r="BC40" s="5"/>
       <c r="BD40" s="10"/>
       <c r="BE40" s="10"/>
@@ -8417,13 +8416,13 @@
     </row>
     <row r="41" spans="2:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
-      <c r="C41" s="285" t="s">
+      <c r="C41" s="289" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="285"/>
-      <c r="E41" s="285"/>
-      <c r="F41" s="285"/>
-      <c r="G41" s="285"/>
+      <c r="D41" s="289"/>
+      <c r="E41" s="289"/>
+      <c r="F41" s="289"/>
+      <c r="G41" s="289"/>
       <c r="H41" s="10" t="s">
         <v>57</v>
       </c>
@@ -8438,30 +8437,30 @@
       <c r="AF41" s="6"/>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
-      <c r="AI41" s="285" t="s">
+      <c r="AI41" s="289" t="s">
         <v>42</v>
       </c>
-      <c r="AJ41" s="285"/>
-      <c r="AK41" s="285"/>
-      <c r="AL41" s="285"/>
-      <c r="AM41" s="285"/>
-      <c r="AN41" s="286" t="s">
+      <c r="AJ41" s="289"/>
+      <c r="AK41" s="289"/>
+      <c r="AL41" s="289"/>
+      <c r="AM41" s="289"/>
+      <c r="AN41" s="290" t="s">
         <v>58</v>
       </c>
-      <c r="AO41" s="286"/>
-      <c r="AP41" s="286"/>
-      <c r="AQ41" s="286"/>
-      <c r="AR41" s="286"/>
-      <c r="AS41" s="286"/>
-      <c r="AT41" s="286"/>
-      <c r="AU41" s="286"/>
-      <c r="AV41" s="286"/>
-      <c r="AW41" s="286"/>
-      <c r="AX41" s="286"/>
-      <c r="AY41" s="286"/>
-      <c r="AZ41" s="286"/>
-      <c r="BA41" s="286"/>
-      <c r="BB41" s="286"/>
+      <c r="AO41" s="290"/>
+      <c r="AP41" s="290"/>
+      <c r="AQ41" s="290"/>
+      <c r="AR41" s="290"/>
+      <c r="AS41" s="290"/>
+      <c r="AT41" s="290"/>
+      <c r="AU41" s="290"/>
+      <c r="AV41" s="290"/>
+      <c r="AW41" s="290"/>
+      <c r="AX41" s="290"/>
+      <c r="AY41" s="290"/>
+      <c r="AZ41" s="290"/>
+      <c r="BA41" s="290"/>
+      <c r="BB41" s="290"/>
       <c r="BC41" s="5"/>
       <c r="BD41" s="10"/>
       <c r="BE41" s="10"/>
@@ -8478,13 +8477,13 @@
     </row>
     <row r="42" spans="2:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
-      <c r="C42" s="285" t="s">
+      <c r="C42" s="289" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="285"/>
-      <c r="E42" s="285"/>
-      <c r="F42" s="285"/>
-      <c r="G42" s="285"/>
+      <c r="D42" s="289"/>
+      <c r="E42" s="289"/>
+      <c r="F42" s="289"/>
+      <c r="G42" s="289"/>
       <c r="H42" s="10" t="s">
         <v>59</v>
       </c>
@@ -8499,30 +8498,30 @@
       <c r="AF42" s="6"/>
       <c r="AG42" s="5"/>
       <c r="AH42" s="5"/>
-      <c r="AI42" s="285" t="s">
+      <c r="AI42" s="289" t="s">
         <v>46</v>
       </c>
-      <c r="AJ42" s="285"/>
-      <c r="AK42" s="285"/>
-      <c r="AL42" s="285"/>
-      <c r="AM42" s="285"/>
-      <c r="AN42" s="286" t="s">
+      <c r="AJ42" s="289"/>
+      <c r="AK42" s="289"/>
+      <c r="AL42" s="289"/>
+      <c r="AM42" s="289"/>
+      <c r="AN42" s="290" t="s">
         <v>60</v>
       </c>
-      <c r="AO42" s="286"/>
-      <c r="AP42" s="286"/>
-      <c r="AQ42" s="286"/>
-      <c r="AR42" s="286"/>
-      <c r="AS42" s="286"/>
-      <c r="AT42" s="286"/>
-      <c r="AU42" s="286"/>
-      <c r="AV42" s="286"/>
-      <c r="AW42" s="286"/>
-      <c r="AX42" s="286"/>
-      <c r="AY42" s="286"/>
-      <c r="AZ42" s="286"/>
-      <c r="BA42" s="286"/>
-      <c r="BB42" s="286"/>
+      <c r="AO42" s="290"/>
+      <c r="AP42" s="290"/>
+      <c r="AQ42" s="290"/>
+      <c r="AR42" s="290"/>
+      <c r="AS42" s="290"/>
+      <c r="AT42" s="290"/>
+      <c r="AU42" s="290"/>
+      <c r="AV42" s="290"/>
+      <c r="AW42" s="290"/>
+      <c r="AX42" s="290"/>
+      <c r="AY42" s="290"/>
+      <c r="AZ42" s="290"/>
+      <c r="BA42" s="290"/>
+      <c r="BB42" s="290"/>
       <c r="BC42" s="5"/>
       <c r="BD42" s="10"/>
       <c r="BE42" s="10"/>
@@ -8571,30 +8570,30 @@
       <c r="AF43" s="6"/>
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
-      <c r="AI43" s="285" t="s">
+      <c r="AI43" s="289" t="s">
         <v>48</v>
       </c>
-      <c r="AJ43" s="285"/>
-      <c r="AK43" s="285"/>
-      <c r="AL43" s="285"/>
-      <c r="AM43" s="285"/>
-      <c r="AN43" s="286" t="s">
+      <c r="AJ43" s="289"/>
+      <c r="AK43" s="289"/>
+      <c r="AL43" s="289"/>
+      <c r="AM43" s="289"/>
+      <c r="AN43" s="290" t="s">
         <v>61</v>
       </c>
-      <c r="AO43" s="286"/>
-      <c r="AP43" s="286"/>
-      <c r="AQ43" s="286"/>
-      <c r="AR43" s="286"/>
-      <c r="AS43" s="286"/>
-      <c r="AT43" s="286"/>
-      <c r="AU43" s="286"/>
-      <c r="AV43" s="286"/>
-      <c r="AW43" s="286"/>
-      <c r="AX43" s="286"/>
-      <c r="AY43" s="286"/>
-      <c r="AZ43" s="286"/>
-      <c r="BA43" s="286"/>
-      <c r="BB43" s="286"/>
+      <c r="AO43" s="290"/>
+      <c r="AP43" s="290"/>
+      <c r="AQ43" s="290"/>
+      <c r="AR43" s="290"/>
+      <c r="AS43" s="290"/>
+      <c r="AT43" s="290"/>
+      <c r="AU43" s="290"/>
+      <c r="AV43" s="290"/>
+      <c r="AW43" s="290"/>
+      <c r="AX43" s="290"/>
+      <c r="AY43" s="290"/>
+      <c r="AZ43" s="290"/>
+      <c r="BA43" s="290"/>
+      <c r="BB43" s="290"/>
       <c r="BC43" s="10"/>
       <c r="BD43" s="10"/>
       <c r="BE43" s="10"/>
@@ -11615,21 +11614,21 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:AC1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AN1:AS1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AC32:AF32"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="AC35:AN35"/>
-    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AI43:AM43"/>
+    <mergeCell ref="AN43:BB43"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="AI41:AM41"/>
+    <mergeCell ref="AN41:BB41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="AI42:AM42"/>
+    <mergeCell ref="AN42:BB42"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:W39"/>
+    <mergeCell ref="AI39:AM39"/>
+    <mergeCell ref="AN39:BB39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="AI40:AM40"/>
+    <mergeCell ref="AN40:BB40"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="H37:V37"/>
     <mergeCell ref="AI37:AM37"/>
@@ -11638,21 +11637,21 @@
     <mergeCell ref="H38:W38"/>
     <mergeCell ref="AI38:AM38"/>
     <mergeCell ref="AN38:BB38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:W39"/>
-    <mergeCell ref="AI39:AM39"/>
-    <mergeCell ref="AN39:BB39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="AI40:AM40"/>
-    <mergeCell ref="AN40:BB40"/>
-    <mergeCell ref="AI43:AM43"/>
-    <mergeCell ref="AN43:BB43"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="AI41:AM41"/>
-    <mergeCell ref="AN41:BB41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="AI42:AM42"/>
-    <mergeCell ref="AN42:BB42"/>
+    <mergeCell ref="AC32:AF32"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="AC35:AN35"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AN1:AS1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -12644,7 +12643,7 @@
   </sheetPr>
   <dimension ref="B1:BP1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AT28" sqref="AT28"/>
     </sheetView>
   </sheetViews>
@@ -12671,46 +12670,46 @@
   <sheetData>
     <row r="1" spans="2:68" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
-      <c r="C1" s="288" t="s">
+      <c r="C1" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="288" t="s">
+      <c r="H1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
       <c r="N1" s="8"/>
-      <c r="O1" s="288" t="s">
+      <c r="O1" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="288"/>
-      <c r="Q1" s="288"/>
-      <c r="R1" s="288"/>
-      <c r="S1" s="288"/>
-      <c r="T1" s="288"/>
+      <c r="P1" s="285"/>
+      <c r="Q1" s="285"/>
+      <c r="R1" s="285"/>
+      <c r="S1" s="285"/>
+      <c r="T1" s="285"/>
       <c r="U1" s="8"/>
-      <c r="V1" s="288" t="s">
+      <c r="V1" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="288"/>
+      <c r="W1" s="285"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="290" t="s">
+      <c r="Z1" s="286" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="290"/>
-      <c r="AB1" s="290"/>
-      <c r="AC1" s="290"/>
-      <c r="AD1" s="290"/>
+      <c r="AA1" s="286"/>
+      <c r="AB1" s="286"/>
+      <c r="AC1" s="286"/>
+      <c r="AD1" s="286"/>
       <c r="AE1" s="9" t="s">
         <v>6</v>
       </c>
@@ -12726,35 +12725,35 @@
       <c r="AI1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AJ1" s="288" t="s">
+      <c r="AJ1" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="288"/>
-      <c r="AL1" s="288"/>
-      <c r="AM1" s="288"/>
+      <c r="AK1" s="285"/>
+      <c r="AL1" s="285"/>
+      <c r="AM1" s="285"/>
       <c r="AN1" s="8"/>
-      <c r="AO1" s="288" t="s">
+      <c r="AO1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="AP1" s="288"/>
-      <c r="AQ1" s="288"/>
-      <c r="AR1" s="288"/>
-      <c r="AS1" s="288"/>
-      <c r="AT1" s="288"/>
+      <c r="AP1" s="285"/>
+      <c r="AQ1" s="285"/>
+      <c r="AR1" s="285"/>
+      <c r="AS1" s="285"/>
+      <c r="AT1" s="285"/>
       <c r="AU1" s="8"/>
-      <c r="AV1" s="288" t="s">
+      <c r="AV1" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="AW1" s="288"/>
-      <c r="AX1" s="288"/>
-      <c r="AY1" s="288"/>
-      <c r="AZ1" s="288"/>
-      <c r="BA1" s="288"/>
+      <c r="AW1" s="285"/>
+      <c r="AX1" s="285"/>
+      <c r="AY1" s="285"/>
+      <c r="AZ1" s="285"/>
+      <c r="BA1" s="285"/>
       <c r="BB1" s="8"/>
-      <c r="BC1" s="288" t="s">
+      <c r="BC1" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BD1" s="288"/>
+      <c r="BD1" s="285"/>
       <c r="BE1" s="7"/>
       <c r="BG1" s="10"/>
       <c r="BH1" s="10"/>
@@ -15570,10 +15569,10 @@
       <c r="X31" s="149"/>
       <c r="Y31" s="229"/>
       <c r="Z31" s="229"/>
-      <c r="AD31" s="294" t="s">
+      <c r="AD31" s="291" t="s">
         <v>37</v>
       </c>
-      <c r="AE31" s="294"/>
+      <c r="AE31" s="291"/>
       <c r="AG31" s="4"/>
       <c r="AH31" s="79"/>
       <c r="AI31" s="281" t="s">
@@ -15649,12 +15648,12 @@
       <c r="X32" s="149"/>
       <c r="Y32" s="229"/>
       <c r="Z32" s="229"/>
-      <c r="AD32" s="286" t="s">
+      <c r="AD32" s="290" t="s">
         <v>41</v>
       </c>
-      <c r="AE32" s="286"/>
-      <c r="AF32" s="286"/>
-      <c r="AG32" s="286"/>
+      <c r="AE32" s="290"/>
+      <c r="AF32" s="290"/>
+      <c r="AG32" s="290"/>
       <c r="AH32" s="79"/>
       <c r="AI32" s="282" t="s">
         <v>13</v>
@@ -15727,12 +15726,12 @@
       <c r="X33" s="149"/>
       <c r="Y33" s="229"/>
       <c r="Z33" s="229"/>
-      <c r="AD33" s="286" t="s">
+      <c r="AD33" s="290" t="s">
         <v>45</v>
       </c>
-      <c r="AE33" s="286"/>
-      <c r="AF33" s="286"/>
-      <c r="AG33" s="286"/>
+      <c r="AE33" s="290"/>
+      <c r="AF33" s="290"/>
+      <c r="AG33" s="290"/>
       <c r="AH33" s="79"/>
       <c r="AI33" s="283" t="s">
         <v>13</v>
@@ -15788,10 +15787,10 @@
       <c r="V34" s="149"/>
       <c r="Y34" s="149"/>
       <c r="Z34" s="149"/>
-      <c r="AD34" s="286"/>
-      <c r="AE34" s="286"/>
-      <c r="AF34" s="286"/>
-      <c r="AG34" s="286"/>
+      <c r="AD34" s="290"/>
+      <c r="AE34" s="290"/>
+      <c r="AF34" s="290"/>
+      <c r="AG34" s="290"/>
       <c r="AH34" s="79"/>
       <c r="AI34" s="284" t="s">
         <v>13</v>
@@ -15880,10 +15879,10 @@
       <c r="BP35" s="10"/>
     </row>
     <row r="36" spans="2:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AD36" s="286"/>
-      <c r="AE36" s="286"/>
-      <c r="AF36" s="286"/>
-      <c r="AG36" s="286"/>
+      <c r="AD36" s="290"/>
+      <c r="AE36" s="290"/>
+      <c r="AF36" s="290"/>
+      <c r="AG36" s="290"/>
       <c r="AH36" s="5"/>
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4"/>
@@ -15906,49 +15905,49 @@
       <c r="BP36" s="10"/>
     </row>
     <row r="37" spans="2:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="291" t="s">
+      <c r="B37" s="292" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="291"/>
-      <c r="D37" s="292" t="s">
+      <c r="C37" s="292"/>
+      <c r="D37" s="293" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="292"/>
-      <c r="F37" s="292"/>
-      <c r="G37" s="292"/>
-      <c r="H37" s="292"/>
-      <c r="I37" s="292"/>
-      <c r="J37" s="292"/>
-      <c r="K37" s="292"/>
-      <c r="L37" s="292"/>
-      <c r="M37" s="292"/>
-      <c r="N37" s="292"/>
-      <c r="O37" s="292"/>
-      <c r="P37" s="292"/>
+      <c r="E37" s="293"/>
+      <c r="F37" s="293"/>
+      <c r="G37" s="293"/>
+      <c r="H37" s="293"/>
+      <c r="I37" s="293"/>
+      <c r="J37" s="293"/>
+      <c r="K37" s="293"/>
+      <c r="L37" s="293"/>
+      <c r="M37" s="293"/>
+      <c r="N37" s="293"/>
+      <c r="O37" s="293"/>
+      <c r="P37" s="293"/>
       <c r="AG37" s="4"/>
       <c r="AH37" s="5"/>
-      <c r="AI37" s="291" t="s">
+      <c r="AI37" s="292" t="s">
         <v>81</v>
       </c>
-      <c r="AJ37" s="291"/>
-      <c r="AK37" s="293" t="s">
+      <c r="AJ37" s="292"/>
+      <c r="AK37" s="294" t="s">
         <v>102</v>
       </c>
-      <c r="AL37" s="293"/>
-      <c r="AM37" s="293"/>
-      <c r="AN37" s="293"/>
-      <c r="AO37" s="293"/>
-      <c r="AP37" s="293"/>
-      <c r="AQ37" s="293"/>
-      <c r="AR37" s="293"/>
-      <c r="AS37" s="293"/>
-      <c r="AT37" s="293"/>
-      <c r="AU37" s="293"/>
-      <c r="AV37" s="293"/>
-      <c r="AW37" s="293"/>
-      <c r="AX37" s="293"/>
-      <c r="AY37" s="293"/>
-      <c r="AZ37" s="293"/>
+      <c r="AL37" s="294"/>
+      <c r="AM37" s="294"/>
+      <c r="AN37" s="294"/>
+      <c r="AO37" s="294"/>
+      <c r="AP37" s="294"/>
+      <c r="AQ37" s="294"/>
+      <c r="AR37" s="294"/>
+      <c r="AS37" s="294"/>
+      <c r="AT37" s="294"/>
+      <c r="AU37" s="294"/>
+      <c r="AV37" s="294"/>
+      <c r="AW37" s="294"/>
+      <c r="AX37" s="294"/>
+      <c r="AY37" s="294"/>
+      <c r="AZ37" s="294"/>
       <c r="BD37" s="5"/>
       <c r="BE37" s="10"/>
       <c r="BL37" s="5"/>
@@ -15958,53 +15957,53 @@
       <c r="BP37" s="10"/>
     </row>
     <row r="38" spans="2:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="291" t="s">
+      <c r="B38" s="292" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="291"/>
-      <c r="D38" s="292" t="s">
+      <c r="C38" s="292"/>
+      <c r="D38" s="293" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="292"/>
-      <c r="F38" s="292"/>
-      <c r="G38" s="292"/>
-      <c r="H38" s="292"/>
-      <c r="I38" s="292"/>
-      <c r="J38" s="292"/>
-      <c r="K38" s="292"/>
-      <c r="L38" s="292"/>
-      <c r="M38" s="292"/>
-      <c r="N38" s="292"/>
-      <c r="O38" s="292"/>
-      <c r="P38" s="292"/>
+      <c r="E38" s="293"/>
+      <c r="F38" s="293"/>
+      <c r="G38" s="293"/>
+      <c r="H38" s="293"/>
+      <c r="I38" s="293"/>
+      <c r="J38" s="293"/>
+      <c r="K38" s="293"/>
+      <c r="L38" s="293"/>
+      <c r="M38" s="293"/>
+      <c r="N38" s="293"/>
+      <c r="O38" s="293"/>
+      <c r="P38" s="293"/>
       <c r="W38" s="149"/>
       <c r="X38" s="149"/>
       <c r="Y38" s="149"/>
       <c r="Z38" s="149"/>
       <c r="AG38" s="4"/>
       <c r="AH38" s="5"/>
-      <c r="AI38" s="291" t="s">
+      <c r="AI38" s="292" t="s">
         <v>84</v>
       </c>
-      <c r="AJ38" s="291"/>
-      <c r="AK38" s="293" t="s">
+      <c r="AJ38" s="292"/>
+      <c r="AK38" s="294" t="s">
         <v>104</v>
       </c>
-      <c r="AL38" s="293"/>
-      <c r="AM38" s="293"/>
-      <c r="AN38" s="293"/>
-      <c r="AO38" s="293"/>
-      <c r="AP38" s="293"/>
-      <c r="AQ38" s="293"/>
-      <c r="AR38" s="293"/>
-      <c r="AS38" s="293"/>
-      <c r="AT38" s="293"/>
-      <c r="AU38" s="293"/>
-      <c r="AV38" s="293"/>
-      <c r="AW38" s="293"/>
-      <c r="AX38" s="293"/>
-      <c r="AY38" s="293"/>
-      <c r="AZ38" s="293"/>
+      <c r="AL38" s="294"/>
+      <c r="AM38" s="294"/>
+      <c r="AN38" s="294"/>
+      <c r="AO38" s="294"/>
+      <c r="AP38" s="294"/>
+      <c r="AQ38" s="294"/>
+      <c r="AR38" s="294"/>
+      <c r="AS38" s="294"/>
+      <c r="AT38" s="294"/>
+      <c r="AU38" s="294"/>
+      <c r="AV38" s="294"/>
+      <c r="AW38" s="294"/>
+      <c r="AX38" s="294"/>
+      <c r="AY38" s="294"/>
+      <c r="AZ38" s="294"/>
       <c r="BD38" s="5"/>
       <c r="BE38" s="10"/>
       <c r="BF38" s="10"/>
@@ -16020,25 +16019,25 @@
       <c r="BP38" s="10"/>
     </row>
     <row r="39" spans="2:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="291" t="s">
+      <c r="B39" s="292" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="291"/>
-      <c r="D39" s="292" t="s">
+      <c r="C39" s="292"/>
+      <c r="D39" s="293" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="292"/>
-      <c r="F39" s="292"/>
-      <c r="G39" s="292"/>
-      <c r="H39" s="292"/>
-      <c r="I39" s="292"/>
-      <c r="J39" s="292"/>
-      <c r="K39" s="292"/>
-      <c r="L39" s="292"/>
-      <c r="M39" s="292"/>
-      <c r="N39" s="292"/>
-      <c r="O39" s="292"/>
-      <c r="P39" s="292"/>
+      <c r="E39" s="293"/>
+      <c r="F39" s="293"/>
+      <c r="G39" s="293"/>
+      <c r="H39" s="293"/>
+      <c r="I39" s="293"/>
+      <c r="J39" s="293"/>
+      <c r="K39" s="293"/>
+      <c r="L39" s="293"/>
+      <c r="M39" s="293"/>
+      <c r="N39" s="293"/>
+      <c r="O39" s="293"/>
+      <c r="P39" s="293"/>
       <c r="Q39" s="149"/>
       <c r="R39" s="149"/>
       <c r="S39" s="149"/>
@@ -16051,28 +16050,28 @@
       <c r="Z39" s="149"/>
       <c r="AG39" s="4"/>
       <c r="AH39" s="5"/>
-      <c r="AI39" s="291" t="s">
+      <c r="AI39" s="292" t="s">
         <v>88</v>
       </c>
-      <c r="AJ39" s="291"/>
-      <c r="AK39" s="293" t="s">
+      <c r="AJ39" s="292"/>
+      <c r="AK39" s="294" t="s">
         <v>106</v>
       </c>
-      <c r="AL39" s="293"/>
-      <c r="AM39" s="293"/>
-      <c r="AN39" s="293"/>
-      <c r="AO39" s="293"/>
-      <c r="AP39" s="293"/>
-      <c r="AQ39" s="293"/>
-      <c r="AR39" s="293"/>
-      <c r="AS39" s="293"/>
-      <c r="AT39" s="293"/>
-      <c r="AU39" s="293"/>
-      <c r="AV39" s="293"/>
-      <c r="AW39" s="293"/>
-      <c r="AX39" s="293"/>
-      <c r="AY39" s="293"/>
-      <c r="AZ39" s="293"/>
+      <c r="AL39" s="294"/>
+      <c r="AM39" s="294"/>
+      <c r="AN39" s="294"/>
+      <c r="AO39" s="294"/>
+      <c r="AP39" s="294"/>
+      <c r="AQ39" s="294"/>
+      <c r="AR39" s="294"/>
+      <c r="AS39" s="294"/>
+      <c r="AT39" s="294"/>
+      <c r="AU39" s="294"/>
+      <c r="AV39" s="294"/>
+      <c r="AW39" s="294"/>
+      <c r="AX39" s="294"/>
+      <c r="AY39" s="294"/>
+      <c r="AZ39" s="294"/>
       <c r="BD39" s="5"/>
       <c r="BE39" s="10"/>
       <c r="BF39" s="10"/>
@@ -16088,53 +16087,53 @@
       <c r="BP39" s="10"/>
     </row>
     <row r="40" spans="2:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="291" t="s">
+      <c r="B40" s="292" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="291"/>
-      <c r="D40" s="292" t="s">
+      <c r="C40" s="292"/>
+      <c r="D40" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="292"/>
-      <c r="F40" s="292"/>
-      <c r="G40" s="292"/>
-      <c r="H40" s="292"/>
-      <c r="I40" s="292"/>
-      <c r="J40" s="292"/>
-      <c r="K40" s="292"/>
-      <c r="L40" s="292"/>
-      <c r="M40" s="292"/>
-      <c r="N40" s="292"/>
-      <c r="O40" s="292"/>
-      <c r="P40" s="292"/>
+      <c r="E40" s="293"/>
+      <c r="F40" s="293"/>
+      <c r="G40" s="293"/>
+      <c r="H40" s="293"/>
+      <c r="I40" s="293"/>
+      <c r="J40" s="293"/>
+      <c r="K40" s="293"/>
+      <c r="L40" s="293"/>
+      <c r="M40" s="293"/>
+      <c r="N40" s="293"/>
+      <c r="O40" s="293"/>
+      <c r="P40" s="293"/>
       <c r="W40" s="149"/>
       <c r="X40" s="149"/>
       <c r="Y40" s="149"/>
       <c r="Z40" s="149"/>
       <c r="AG40" s="4"/>
       <c r="AH40" s="5"/>
-      <c r="AI40" s="291" t="s">
+      <c r="AI40" s="292" t="s">
         <v>91</v>
       </c>
-      <c r="AJ40" s="291"/>
-      <c r="AK40" s="293" t="s">
+      <c r="AJ40" s="292"/>
+      <c r="AK40" s="294" t="s">
         <v>54</v>
       </c>
-      <c r="AL40" s="293"/>
-      <c r="AM40" s="293"/>
-      <c r="AN40" s="293"/>
-      <c r="AO40" s="293"/>
-      <c r="AP40" s="293"/>
-      <c r="AQ40" s="293"/>
-      <c r="AR40" s="293"/>
-      <c r="AS40" s="293"/>
-      <c r="AT40" s="293"/>
-      <c r="AU40" s="293"/>
-      <c r="AV40" s="293"/>
-      <c r="AW40" s="293"/>
-      <c r="AX40" s="293"/>
-      <c r="AY40" s="293"/>
-      <c r="AZ40" s="293"/>
+      <c r="AL40" s="294"/>
+      <c r="AM40" s="294"/>
+      <c r="AN40" s="294"/>
+      <c r="AO40" s="294"/>
+      <c r="AP40" s="294"/>
+      <c r="AQ40" s="294"/>
+      <c r="AR40" s="294"/>
+      <c r="AS40" s="294"/>
+      <c r="AT40" s="294"/>
+      <c r="AU40" s="294"/>
+      <c r="AV40" s="294"/>
+      <c r="AW40" s="294"/>
+      <c r="AX40" s="294"/>
+      <c r="AY40" s="294"/>
+      <c r="AZ40" s="294"/>
       <c r="BD40" s="5"/>
       <c r="BE40" s="10"/>
       <c r="BF40" s="10"/>
@@ -16150,25 +16149,25 @@
       <c r="BP40" s="10"/>
     </row>
     <row r="41" spans="2:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="291" t="s">
+      <c r="B41" s="292" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="291"/>
-      <c r="D41" s="292" t="s">
+      <c r="C41" s="292"/>
+      <c r="D41" s="293" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="292"/>
-      <c r="F41" s="292"/>
-      <c r="G41" s="292"/>
-      <c r="H41" s="292"/>
-      <c r="I41" s="292"/>
-      <c r="J41" s="292"/>
-      <c r="K41" s="292"/>
-      <c r="L41" s="292"/>
-      <c r="M41" s="292"/>
-      <c r="N41" s="292"/>
-      <c r="O41" s="292"/>
-      <c r="P41" s="292"/>
+      <c r="E41" s="293"/>
+      <c r="F41" s="293"/>
+      <c r="G41" s="293"/>
+      <c r="H41" s="293"/>
+      <c r="I41" s="293"/>
+      <c r="J41" s="293"/>
+      <c r="K41" s="293"/>
+      <c r="L41" s="293"/>
+      <c r="M41" s="293"/>
+      <c r="N41" s="293"/>
+      <c r="O41" s="293"/>
+      <c r="P41" s="293"/>
       <c r="Q41" s="149"/>
       <c r="R41" s="149"/>
       <c r="S41" s="149"/>
@@ -16181,28 +16180,28 @@
       <c r="Z41" s="149"/>
       <c r="AG41" s="4"/>
       <c r="AH41" s="5"/>
-      <c r="AI41" s="291" t="s">
+      <c r="AI41" s="292" t="s">
         <v>95</v>
       </c>
-      <c r="AJ41" s="291"/>
-      <c r="AK41" s="293" t="s">
+      <c r="AJ41" s="292"/>
+      <c r="AK41" s="294" t="s">
         <v>109</v>
       </c>
-      <c r="AL41" s="293"/>
-      <c r="AM41" s="293"/>
-      <c r="AN41" s="293"/>
-      <c r="AO41" s="293"/>
-      <c r="AP41" s="293"/>
-      <c r="AQ41" s="293"/>
-      <c r="AR41" s="293"/>
-      <c r="AS41" s="293"/>
-      <c r="AT41" s="293"/>
-      <c r="AU41" s="293"/>
-      <c r="AV41" s="293"/>
-      <c r="AW41" s="293"/>
-      <c r="AX41" s="293"/>
-      <c r="AY41" s="293"/>
-      <c r="AZ41" s="293"/>
+      <c r="AL41" s="294"/>
+      <c r="AM41" s="294"/>
+      <c r="AN41" s="294"/>
+      <c r="AO41" s="294"/>
+      <c r="AP41" s="294"/>
+      <c r="AQ41" s="294"/>
+      <c r="AR41" s="294"/>
+      <c r="AS41" s="294"/>
+      <c r="AT41" s="294"/>
+      <c r="AU41" s="294"/>
+      <c r="AV41" s="294"/>
+      <c r="AW41" s="294"/>
+      <c r="AX41" s="294"/>
+      <c r="AY41" s="294"/>
+      <c r="AZ41" s="294"/>
       <c r="BD41" s="5"/>
       <c r="BE41" s="10"/>
       <c r="BF41" s="10"/>
@@ -16218,25 +16217,25 @@
       <c r="BP41" s="10"/>
     </row>
     <row r="42" spans="2:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="291" t="s">
+      <c r="B42" s="292" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="291"/>
-      <c r="D42" s="292" t="s">
+      <c r="C42" s="292"/>
+      <c r="D42" s="293" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="292"/>
-      <c r="F42" s="292"/>
-      <c r="G42" s="292"/>
-      <c r="H42" s="292"/>
-      <c r="I42" s="292"/>
-      <c r="J42" s="292"/>
-      <c r="K42" s="292"/>
-      <c r="L42" s="292"/>
-      <c r="M42" s="292"/>
-      <c r="N42" s="292"/>
-      <c r="O42" s="292"/>
-      <c r="P42" s="292"/>
+      <c r="E42" s="293"/>
+      <c r="F42" s="293"/>
+      <c r="G42" s="293"/>
+      <c r="H42" s="293"/>
+      <c r="I42" s="293"/>
+      <c r="J42" s="293"/>
+      <c r="K42" s="293"/>
+      <c r="L42" s="293"/>
+      <c r="M42" s="293"/>
+      <c r="N42" s="293"/>
+      <c r="O42" s="293"/>
+      <c r="P42" s="293"/>
       <c r="Q42" s="149"/>
       <c r="R42" s="149"/>
       <c r="S42" s="149"/>
@@ -16249,28 +16248,28 @@
       <c r="Z42" s="149"/>
       <c r="AG42" s="4"/>
       <c r="AH42" s="5"/>
-      <c r="AI42" s="291" t="s">
+      <c r="AI42" s="292" t="s">
         <v>97</v>
       </c>
-      <c r="AJ42" s="291"/>
-      <c r="AK42" s="293" t="s">
+      <c r="AJ42" s="292"/>
+      <c r="AK42" s="294" t="s">
         <v>111</v>
       </c>
-      <c r="AL42" s="293"/>
-      <c r="AM42" s="293"/>
-      <c r="AN42" s="293"/>
-      <c r="AO42" s="293"/>
-      <c r="AP42" s="293"/>
-      <c r="AQ42" s="293"/>
-      <c r="AR42" s="293"/>
-      <c r="AS42" s="293"/>
-      <c r="AT42" s="293"/>
-      <c r="AU42" s="293"/>
-      <c r="AV42" s="293"/>
-      <c r="AW42" s="293"/>
-      <c r="AX42" s="293"/>
-      <c r="AY42" s="293"/>
-      <c r="AZ42" s="293"/>
+      <c r="AL42" s="294"/>
+      <c r="AM42" s="294"/>
+      <c r="AN42" s="294"/>
+      <c r="AO42" s="294"/>
+      <c r="AP42" s="294"/>
+      <c r="AQ42" s="294"/>
+      <c r="AR42" s="294"/>
+      <c r="AS42" s="294"/>
+      <c r="AT42" s="294"/>
+      <c r="AU42" s="294"/>
+      <c r="AV42" s="294"/>
+      <c r="AW42" s="294"/>
+      <c r="AX42" s="294"/>
+      <c r="AY42" s="294"/>
+      <c r="AZ42" s="294"/>
       <c r="BD42" s="5"/>
       <c r="BE42" s="10"/>
       <c r="BF42" s="10"/>
@@ -16311,28 +16310,28 @@
       <c r="Z43" s="149"/>
       <c r="AG43" s="4"/>
       <c r="AH43" s="5"/>
-      <c r="AI43" s="291" t="s">
+      <c r="AI43" s="292" t="s">
         <v>98</v>
       </c>
-      <c r="AJ43" s="291"/>
-      <c r="AK43" s="293" t="s">
+      <c r="AJ43" s="292"/>
+      <c r="AK43" s="294" t="s">
         <v>112</v>
       </c>
-      <c r="AL43" s="293"/>
-      <c r="AM43" s="293"/>
-      <c r="AN43" s="293"/>
-      <c r="AO43" s="293"/>
-      <c r="AP43" s="293"/>
-      <c r="AQ43" s="293"/>
-      <c r="AR43" s="293"/>
-      <c r="AS43" s="293"/>
-      <c r="AT43" s="293"/>
-      <c r="AU43" s="293"/>
-      <c r="AV43" s="293"/>
-      <c r="AW43" s="293"/>
-      <c r="AX43" s="293"/>
-      <c r="AY43" s="293"/>
-      <c r="AZ43" s="293"/>
+      <c r="AL43" s="294"/>
+      <c r="AM43" s="294"/>
+      <c r="AN43" s="294"/>
+      <c r="AO43" s="294"/>
+      <c r="AP43" s="294"/>
+      <c r="AQ43" s="294"/>
+      <c r="AR43" s="294"/>
+      <c r="AS43" s="294"/>
+      <c r="AT43" s="294"/>
+      <c r="AU43" s="294"/>
+      <c r="AV43" s="294"/>
+      <c r="AW43" s="294"/>
+      <c r="AX43" s="294"/>
+      <c r="AY43" s="294"/>
+      <c r="AZ43" s="294"/>
       <c r="BD43" s="10"/>
       <c r="BE43" s="10"/>
       <c r="BF43" s="10"/>
@@ -16350,28 +16349,28 @@
     <row r="44" spans="2:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E44" s="226"/>
       <c r="AG44" s="4"/>
-      <c r="AI44" s="291" t="s">
+      <c r="AI44" s="292" t="s">
         <v>100</v>
       </c>
-      <c r="AJ44" s="291"/>
-      <c r="AK44" s="293" t="s">
+      <c r="AJ44" s="292"/>
+      <c r="AK44" s="294" t="s">
         <v>113</v>
       </c>
-      <c r="AL44" s="293"/>
-      <c r="AM44" s="293"/>
-      <c r="AN44" s="293"/>
-      <c r="AO44" s="293"/>
-      <c r="AP44" s="293"/>
-      <c r="AQ44" s="293"/>
-      <c r="AR44" s="293"/>
-      <c r="AS44" s="293"/>
-      <c r="AT44" s="293"/>
-      <c r="AU44" s="293"/>
-      <c r="AV44" s="293"/>
-      <c r="AW44" s="293"/>
-      <c r="AX44" s="293"/>
-      <c r="AY44" s="293"/>
-      <c r="AZ44" s="293"/>
+      <c r="AL44" s="294"/>
+      <c r="AM44" s="294"/>
+      <c r="AN44" s="294"/>
+      <c r="AO44" s="294"/>
+      <c r="AP44" s="294"/>
+      <c r="AQ44" s="294"/>
+      <c r="AR44" s="294"/>
+      <c r="AS44" s="294"/>
+      <c r="AT44" s="294"/>
+      <c r="AU44" s="294"/>
+      <c r="AV44" s="294"/>
+      <c r="AW44" s="294"/>
+      <c r="AX44" s="294"/>
+      <c r="AY44" s="294"/>
+      <c r="AZ44" s="294"/>
     </row>
     <row r="45" spans="2:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="243"/>
@@ -16379,171 +16378,171 @@
         <v>39</v>
       </c>
       <c r="F45" s="245"/>
-      <c r="G45" s="291" t="s">
+      <c r="G45" s="292" t="s">
         <v>114</v>
       </c>
-      <c r="H45" s="291"/>
-      <c r="I45" s="292" t="s">
+      <c r="H45" s="292"/>
+      <c r="I45" s="293" t="s">
         <v>115</v>
       </c>
-      <c r="J45" s="292"/>
-      <c r="K45" s="292"/>
-      <c r="L45" s="292"/>
-      <c r="M45" s="292"/>
-      <c r="N45" s="292"/>
-      <c r="O45" s="292"/>
-      <c r="P45" s="292"/>
-      <c r="Q45" s="292"/>
-      <c r="R45" s="292"/>
-      <c r="S45" s="292"/>
-      <c r="T45" s="292"/>
-      <c r="U45" s="292"/>
-      <c r="V45" s="292"/>
-      <c r="W45" s="292"/>
-      <c r="X45" s="292"/>
-      <c r="Y45" s="292"/>
-      <c r="Z45" s="292"/>
+      <c r="J45" s="293"/>
+      <c r="K45" s="293"/>
+      <c r="L45" s="293"/>
+      <c r="M45" s="293"/>
+      <c r="N45" s="293"/>
+      <c r="O45" s="293"/>
+      <c r="P45" s="293"/>
+      <c r="Q45" s="293"/>
+      <c r="R45" s="293"/>
+      <c r="S45" s="293"/>
+      <c r="T45" s="293"/>
+      <c r="U45" s="293"/>
+      <c r="V45" s="293"/>
+      <c r="W45" s="293"/>
+      <c r="X45" s="293"/>
+      <c r="Y45" s="293"/>
+      <c r="Z45" s="293"/>
       <c r="AG45" s="4"/>
     </row>
     <row r="46" spans="2:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E46" s="226"/>
-      <c r="G46" s="291" t="s">
+      <c r="G46" s="292" t="s">
         <v>116</v>
       </c>
-      <c r="H46" s="291"/>
-      <c r="I46" s="292" t="s">
+      <c r="H46" s="292"/>
+      <c r="I46" s="293" t="s">
         <v>117</v>
       </c>
-      <c r="J46" s="292"/>
-      <c r="K46" s="292"/>
-      <c r="L46" s="292"/>
-      <c r="M46" s="292"/>
-      <c r="N46" s="292"/>
-      <c r="O46" s="292"/>
-      <c r="P46" s="292"/>
-      <c r="Q46" s="292"/>
-      <c r="R46" s="292"/>
-      <c r="S46" s="292"/>
-      <c r="T46" s="292"/>
-      <c r="U46" s="292"/>
-      <c r="V46" s="292"/>
-      <c r="W46" s="292"/>
-      <c r="X46" s="292"/>
-      <c r="Y46" s="292"/>
-      <c r="Z46" s="292"/>
+      <c r="J46" s="293"/>
+      <c r="K46" s="293"/>
+      <c r="L46" s="293"/>
+      <c r="M46" s="293"/>
+      <c r="N46" s="293"/>
+      <c r="O46" s="293"/>
+      <c r="P46" s="293"/>
+      <c r="Q46" s="293"/>
+      <c r="R46" s="293"/>
+      <c r="S46" s="293"/>
+      <c r="T46" s="293"/>
+      <c r="U46" s="293"/>
+      <c r="V46" s="293"/>
+      <c r="W46" s="293"/>
+      <c r="X46" s="293"/>
+      <c r="Y46" s="293"/>
+      <c r="Z46" s="293"/>
       <c r="AG46" s="4"/>
       <c r="AI46" s="4"/>
     </row>
     <row r="47" spans="2:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" s="226"/>
-      <c r="G47" s="291" t="s">
+      <c r="G47" s="292" t="s">
         <v>118</v>
       </c>
-      <c r="H47" s="291"/>
-      <c r="I47" s="292" t="s">
+      <c r="H47" s="292"/>
+      <c r="I47" s="293" t="s">
         <v>119</v>
       </c>
-      <c r="J47" s="292"/>
-      <c r="K47" s="292"/>
-      <c r="L47" s="292"/>
-      <c r="M47" s="292"/>
-      <c r="N47" s="292"/>
-      <c r="O47" s="292"/>
-      <c r="P47" s="292"/>
-      <c r="Q47" s="292"/>
-      <c r="R47" s="292"/>
-      <c r="S47" s="292"/>
-      <c r="T47" s="292"/>
-      <c r="U47" s="292"/>
-      <c r="V47" s="292"/>
-      <c r="W47" s="292"/>
-      <c r="X47" s="292"/>
-      <c r="Y47" s="292"/>
-      <c r="Z47" s="292"/>
+      <c r="J47" s="293"/>
+      <c r="K47" s="293"/>
+      <c r="L47" s="293"/>
+      <c r="M47" s="293"/>
+      <c r="N47" s="293"/>
+      <c r="O47" s="293"/>
+      <c r="P47" s="293"/>
+      <c r="Q47" s="293"/>
+      <c r="R47" s="293"/>
+      <c r="S47" s="293"/>
+      <c r="T47" s="293"/>
+      <c r="U47" s="293"/>
+      <c r="V47" s="293"/>
+      <c r="W47" s="293"/>
+      <c r="X47" s="293"/>
+      <c r="Y47" s="293"/>
+      <c r="Z47" s="293"/>
       <c r="AG47" s="4"/>
     </row>
     <row r="48" spans="2:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E48" s="226"/>
-      <c r="G48" s="291" t="s">
+      <c r="G48" s="292" t="s">
         <v>120</v>
       </c>
-      <c r="H48" s="291"/>
-      <c r="I48" s="292" t="s">
+      <c r="H48" s="292"/>
+      <c r="I48" s="293" t="s">
         <v>121</v>
       </c>
-      <c r="J48" s="292"/>
-      <c r="K48" s="292"/>
-      <c r="L48" s="292"/>
-      <c r="M48" s="292"/>
-      <c r="N48" s="292"/>
-      <c r="O48" s="292"/>
-      <c r="P48" s="292"/>
-      <c r="Q48" s="292"/>
-      <c r="R48" s="292"/>
-      <c r="S48" s="292"/>
-      <c r="T48" s="292"/>
-      <c r="U48" s="292"/>
-      <c r="V48" s="292"/>
-      <c r="W48" s="292"/>
-      <c r="X48" s="292"/>
-      <c r="Y48" s="292"/>
-      <c r="Z48" s="292"/>
+      <c r="J48" s="293"/>
+      <c r="K48" s="293"/>
+      <c r="L48" s="293"/>
+      <c r="M48" s="293"/>
+      <c r="N48" s="293"/>
+      <c r="O48" s="293"/>
+      <c r="P48" s="293"/>
+      <c r="Q48" s="293"/>
+      <c r="R48" s="293"/>
+      <c r="S48" s="293"/>
+      <c r="T48" s="293"/>
+      <c r="U48" s="293"/>
+      <c r="V48" s="293"/>
+      <c r="W48" s="293"/>
+      <c r="X48" s="293"/>
+      <c r="Y48" s="293"/>
+      <c r="Z48" s="293"/>
       <c r="AG48" s="4"/>
     </row>
     <row r="49" spans="5:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E49" s="226"/>
-      <c r="G49" s="291" t="s">
+      <c r="G49" s="292" t="s">
         <v>122</v>
       </c>
-      <c r="H49" s="291"/>
-      <c r="I49" s="292" t="s">
+      <c r="H49" s="292"/>
+      <c r="I49" s="293" t="s">
         <v>123</v>
       </c>
-      <c r="J49" s="292"/>
-      <c r="K49" s="292"/>
-      <c r="L49" s="292"/>
-      <c r="M49" s="292"/>
-      <c r="N49" s="292"/>
-      <c r="O49" s="292"/>
-      <c r="P49" s="292"/>
-      <c r="Q49" s="292"/>
-      <c r="R49" s="292"/>
-      <c r="S49" s="292"/>
-      <c r="T49" s="292"/>
-      <c r="U49" s="292"/>
-      <c r="V49" s="292"/>
-      <c r="W49" s="292"/>
-      <c r="X49" s="292"/>
-      <c r="Y49" s="292"/>
-      <c r="Z49" s="292"/>
+      <c r="J49" s="293"/>
+      <c r="K49" s="293"/>
+      <c r="L49" s="293"/>
+      <c r="M49" s="293"/>
+      <c r="N49" s="293"/>
+      <c r="O49" s="293"/>
+      <c r="P49" s="293"/>
+      <c r="Q49" s="293"/>
+      <c r="R49" s="293"/>
+      <c r="S49" s="293"/>
+      <c r="T49" s="293"/>
+      <c r="U49" s="293"/>
+      <c r="V49" s="293"/>
+      <c r="W49" s="293"/>
+      <c r="X49" s="293"/>
+      <c r="Y49" s="293"/>
+      <c r="Z49" s="293"/>
       <c r="AG49" s="4"/>
     </row>
     <row r="50" spans="5:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E50" s="226"/>
-      <c r="G50" s="291" t="s">
+      <c r="G50" s="292" t="s">
         <v>124</v>
       </c>
-      <c r="H50" s="291"/>
-      <c r="I50" s="292" t="s">
+      <c r="H50" s="292"/>
+      <c r="I50" s="293" t="s">
         <v>125</v>
       </c>
-      <c r="J50" s="292"/>
-      <c r="K50" s="292"/>
-      <c r="L50" s="292"/>
-      <c r="M50" s="292"/>
-      <c r="N50" s="292"/>
-      <c r="O50" s="292"/>
-      <c r="P50" s="292"/>
-      <c r="Q50" s="292"/>
-      <c r="R50" s="292"/>
-      <c r="S50" s="292"/>
-      <c r="T50" s="292"/>
-      <c r="U50" s="292"/>
-      <c r="V50" s="292"/>
-      <c r="W50" s="292"/>
-      <c r="X50" s="292"/>
-      <c r="Y50" s="292"/>
-      <c r="Z50" s="292"/>
+      <c r="J50" s="293"/>
+      <c r="K50" s="293"/>
+      <c r="L50" s="293"/>
+      <c r="M50" s="293"/>
+      <c r="N50" s="293"/>
+      <c r="O50" s="293"/>
+      <c r="P50" s="293"/>
+      <c r="Q50" s="293"/>
+      <c r="R50" s="293"/>
+      <c r="S50" s="293"/>
+      <c r="T50" s="293"/>
+      <c r="U50" s="293"/>
+      <c r="V50" s="293"/>
+      <c r="W50" s="293"/>
+      <c r="X50" s="293"/>
+      <c r="Y50" s="293"/>
+      <c r="Z50" s="293"/>
       <c r="AG50" s="4"/>
     </row>
     <row r="51" spans="5:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19398,50 +19397,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AO1:AT1"/>
-    <mergeCell ref="AV1:BA1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AD32:AG32"/>
-    <mergeCell ref="AD33:AG33"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AD36:AG36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:P37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AK37:AZ37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:P38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AZ38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:P39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AK39:AZ39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:P40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="AK40:AZ40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:P41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="AK41:AZ41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:P42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AZ42"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AZ43"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AZ44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:Z45"/>
     <mergeCell ref="G49:H49"/>
     <mergeCell ref="I49:Z49"/>
     <mergeCell ref="G50:H50"/>
@@ -19452,6 +19407,50 @@
     <mergeCell ref="I47:Z47"/>
     <mergeCell ref="G48:H48"/>
     <mergeCell ref="I48:Z48"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AZ43"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AZ44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:Z45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:P41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK41:AZ41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:P42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AZ42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:P39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AK39:AZ39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:P40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AK40:AZ40"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AK37:AZ37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:P38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AZ38"/>
+    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="AD33:AG33"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:P37"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AO1:AT1"/>
+    <mergeCell ref="AV1:BA1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Z1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -19467,7 +19466,7 @@
   <dimension ref="A1:BR1000"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AF39" sqref="AF39:AP39"/>
     </sheetView>
   </sheetViews>
@@ -19494,48 +19493,48 @@
   <sheetData>
     <row r="1" spans="1:67" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
-      <c r="C1" s="288" t="s">
+      <c r="C1" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="288" t="s">
+      <c r="H1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
       <c r="N1" s="79"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="288" t="s">
+      <c r="P1" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="288"/>
-      <c r="R1" s="288"/>
-      <c r="S1" s="288"/>
-      <c r="T1" s="288"/>
-      <c r="U1" s="288"/>
+      <c r="Q1" s="285"/>
+      <c r="R1" s="285"/>
+      <c r="S1" s="285"/>
+      <c r="T1" s="285"/>
+      <c r="U1" s="285"/>
       <c r="V1" s="8"/>
-      <c r="W1" s="288" t="s">
+      <c r="W1" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="288"/>
+      <c r="X1" s="285"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
       <c r="AA1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="290" t="s">
+      <c r="AB1" s="286" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="290"/>
-      <c r="AD1" s="290"/>
-      <c r="AE1" s="290"/>
-      <c r="AF1" s="290"/>
+      <c r="AC1" s="286"/>
+      <c r="AD1" s="286"/>
+      <c r="AE1" s="286"/>
+      <c r="AF1" s="286"/>
       <c r="AG1" s="9" t="s">
         <v>6</v>
       </c>
@@ -19551,33 +19550,33 @@
       <c r="AK1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AL1" s="288" t="s">
+      <c r="AL1" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="AM1" s="288"/>
-      <c r="AN1" s="288"/>
+      <c r="AM1" s="285"/>
+      <c r="AN1" s="285"/>
       <c r="AO1" s="8"/>
-      <c r="AP1" s="288" t="s">
+      <c r="AP1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="AQ1" s="288"/>
-      <c r="AR1" s="288"/>
-      <c r="AS1" s="288"/>
-      <c r="AT1" s="288"/>
+      <c r="AQ1" s="285"/>
+      <c r="AR1" s="285"/>
+      <c r="AS1" s="285"/>
+      <c r="AT1" s="285"/>
       <c r="AU1" s="6"/>
       <c r="AV1" s="8"/>
       <c r="AW1" s="6"/>
-      <c r="AX1" s="288" t="s">
+      <c r="AX1" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="AY1" s="288"/>
-      <c r="AZ1" s="288"/>
+      <c r="AY1" s="285"/>
+      <c r="AZ1" s="285"/>
       <c r="BA1" s="6"/>
       <c r="BB1" s="8"/>
-      <c r="BC1" s="288" t="s">
+      <c r="BC1" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BD1" s="288"/>
+      <c r="BD1" s="285"/>
       <c r="BE1" s="7"/>
       <c r="BG1" s="10"/>
       <c r="BH1" s="10"/>
@@ -19739,7 +19738,7 @@
       <c r="BO3" s="10"/>
     </row>
     <row r="4" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="297" t="s">
+      <c r="A4" s="295" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="7"/>
@@ -19852,7 +19851,7 @@
       <c r="BO4" s="10"/>
     </row>
     <row r="5" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="297"/>
+      <c r="A5" s="295"/>
       <c r="B5" s="7"/>
       <c r="C5" s="121" t="s">
         <v>13</v>
@@ -19977,7 +19976,7 @@
       <c r="BO5" s="10"/>
     </row>
     <row r="6" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="297"/>
+      <c r="A6" s="295"/>
       <c r="B6" s="7"/>
       <c r="D6" s="130" t="s">
         <v>13</v>
@@ -20094,7 +20093,7 @@
       <c r="BL6" s="10"/>
     </row>
     <row r="7" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="297"/>
+      <c r="A7" s="295"/>
       <c r="B7" s="7"/>
       <c r="C7" s="41" t="s">
         <v>13</v>
@@ -20212,7 +20211,7 @@
       <c r="BL7" s="10"/>
     </row>
     <row r="8" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="297"/>
+      <c r="A8" s="295"/>
       <c r="B8" s="7"/>
       <c r="C8" s="41" t="s">
         <v>13</v>
@@ -20897,7 +20896,7 @@
       <c r="BL14" s="10"/>
     </row>
     <row r="15" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="297" t="s">
+      <c r="A15" s="295" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="7"/>
@@ -21019,7 +21018,7 @@
       <c r="BK15" s="10"/>
     </row>
     <row r="16" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="297"/>
+      <c r="A16" s="295"/>
       <c r="B16" s="7"/>
       <c r="C16" s="20"/>
       <c r="D16" s="122" t="s">
@@ -21135,7 +21134,7 @@
       <c r="BK16" s="10"/>
     </row>
     <row r="17" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="297"/>
+      <c r="A17" s="295"/>
       <c r="B17" s="7"/>
       <c r="C17" s="20"/>
       <c r="D17" s="122" t="s">
@@ -21254,7 +21253,7 @@
       <c r="BK17" s="10"/>
     </row>
     <row r="18" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="297"/>
+      <c r="A18" s="295"/>
       <c r="B18" s="7"/>
       <c r="C18" s="20"/>
       <c r="D18" s="122" t="s">
@@ -21373,7 +21372,7 @@
       <c r="BK18" s="10"/>
     </row>
     <row r="19" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="297"/>
+      <c r="A19" s="295"/>
       <c r="B19" s="7"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -22550,10 +22549,10 @@
         <v>80</v>
       </c>
       <c r="O32" s="54"/>
-      <c r="AA32" s="298" t="s">
+      <c r="AA32" s="297" t="s">
         <v>37</v>
       </c>
-      <c r="AB32" s="298"/>
+      <c r="AB32" s="297"/>
       <c r="AC32" s="11"/>
       <c r="AD32" s="12"/>
       <c r="AE32" s="79"/>
@@ -22630,12 +22629,12 @@
         <v>80</v>
       </c>
       <c r="O33" s="54"/>
-      <c r="AA33" s="295" t="s">
+      <c r="AA33" s="298" t="s">
         <v>41</v>
       </c>
-      <c r="AB33" s="295"/>
-      <c r="AC33" s="295"/>
-      <c r="AD33" s="295"/>
+      <c r="AB33" s="298"/>
+      <c r="AC33" s="298"/>
+      <c r="AD33" s="298"/>
       <c r="AE33" s="79"/>
       <c r="AF33" s="5"/>
       <c r="AG33" s="5"/>
@@ -22710,12 +22709,12 @@
         <v>28</v>
       </c>
       <c r="O34" s="54"/>
-      <c r="AA34" s="295" t="s">
+      <c r="AA34" s="298" t="s">
         <v>45</v>
       </c>
-      <c r="AB34" s="295"/>
-      <c r="AC34" s="295"/>
-      <c r="AD34" s="295"/>
+      <c r="AB34" s="298"/>
+      <c r="AC34" s="298"/>
+      <c r="AD34" s="298"/>
       <c r="AE34" s="79"/>
       <c r="AF34" s="5"/>
       <c r="AG34" s="5"/>
@@ -22788,13 +22787,13 @@
         <v>24</v>
       </c>
       <c r="O35" s="54"/>
-      <c r="AA35" s="295"/>
-      <c r="AB35" s="295"/>
-      <c r="AC35" s="295"/>
-      <c r="AD35" s="295"/>
+      <c r="AA35" s="298"/>
+      <c r="AB35" s="298"/>
+      <c r="AC35" s="298"/>
+      <c r="AD35" s="298"/>
       <c r="AE35" s="79"/>
-      <c r="AF35" s="289"/>
-      <c r="AG35" s="289"/>
+      <c r="AF35" s="287"/>
+      <c r="AG35" s="287"/>
       <c r="AI35" s="6"/>
       <c r="AJ35" s="79"/>
       <c r="AK35" s="164" t="s">
@@ -22865,10 +22864,10 @@
       <c r="AC36" s="79"/>
       <c r="AD36" s="79"/>
       <c r="AE36" s="79"/>
-      <c r="AF36" s="287"/>
-      <c r="AG36" s="287"/>
-      <c r="AH36" s="287"/>
-      <c r="AI36" s="287"/>
+      <c r="AF36" s="288"/>
+      <c r="AG36" s="288"/>
+      <c r="AH36" s="288"/>
+      <c r="AI36" s="288"/>
       <c r="AJ36" s="79"/>
       <c r="AK36" s="166" t="s">
         <v>13</v>
@@ -22940,10 +22939,10 @@
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
-      <c r="AF37" s="287"/>
-      <c r="AG37" s="287"/>
-      <c r="AH37" s="287"/>
-      <c r="AI37" s="287"/>
+      <c r="AF37" s="288"/>
+      <c r="AG37" s="288"/>
+      <c r="AH37" s="288"/>
+      <c r="AI37" s="288"/>
       <c r="AJ37" s="79"/>
       <c r="AK37" s="169" t="s">
         <v>13</v>
@@ -23011,10 +23010,10 @@
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
-      <c r="AF38" s="287"/>
-      <c r="AG38" s="287"/>
-      <c r="AH38" s="287"/>
-      <c r="AI38" s="287"/>
+      <c r="AF38" s="288"/>
+      <c r="AG38" s="288"/>
+      <c r="AH38" s="288"/>
+      <c r="AI38" s="288"/>
       <c r="AJ38" s="79"/>
       <c r="AK38" s="172" t="s">
         <v>13</v>
@@ -23084,17 +23083,17 @@
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
-      <c r="AF39" s="287"/>
-      <c r="AG39" s="287"/>
-      <c r="AH39" s="287"/>
-      <c r="AI39" s="287"/>
-      <c r="AJ39" s="287"/>
-      <c r="AK39" s="287"/>
-      <c r="AL39" s="287"/>
-      <c r="AM39" s="287"/>
-      <c r="AN39" s="287"/>
-      <c r="AO39" s="287"/>
-      <c r="AP39" s="287"/>
+      <c r="AF39" s="288"/>
+      <c r="AG39" s="288"/>
+      <c r="AH39" s="288"/>
+      <c r="AI39" s="288"/>
+      <c r="AJ39" s="288"/>
+      <c r="AK39" s="288"/>
+      <c r="AL39" s="288"/>
+      <c r="AM39" s="288"/>
+      <c r="AN39" s="288"/>
+      <c r="AO39" s="288"/>
+      <c r="AP39" s="288"/>
       <c r="AQ39" s="5"/>
       <c r="AR39" s="5"/>
       <c r="AS39" s="5"/>
@@ -23135,10 +23134,10 @@
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
-      <c r="AF40" s="287"/>
-      <c r="AG40" s="287"/>
-      <c r="AH40" s="287"/>
-      <c r="AI40" s="287"/>
+      <c r="AF40" s="288"/>
+      <c r="AG40" s="288"/>
+      <c r="AH40" s="288"/>
+      <c r="AI40" s="288"/>
       <c r="AJ40" s="5"/>
       <c r="AK40" s="5"/>
       <c r="AL40" s="5"/>
@@ -23171,31 +23170,31 @@
     </row>
     <row r="41" spans="2:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
-      <c r="C41" s="285" t="s">
+      <c r="C41" s="289" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="285"/>
-      <c r="E41" s="285"/>
-      <c r="F41" s="285"/>
-      <c r="G41" s="285"/>
-      <c r="H41" s="286" t="s">
+      <c r="D41" s="289"/>
+      <c r="E41" s="289"/>
+      <c r="F41" s="289"/>
+      <c r="G41" s="289"/>
+      <c r="H41" s="290" t="s">
         <v>149</v>
       </c>
-      <c r="I41" s="286"/>
-      <c r="J41" s="286"/>
-      <c r="K41" s="286"/>
-      <c r="L41" s="286"/>
-      <c r="M41" s="286"/>
-      <c r="N41" s="286"/>
-      <c r="O41" s="286"/>
-      <c r="P41" s="286"/>
-      <c r="Q41" s="286"/>
-      <c r="R41" s="286"/>
-      <c r="S41" s="286"/>
-      <c r="T41" s="286"/>
-      <c r="U41" s="286"/>
-      <c r="V41" s="286"/>
-      <c r="W41" s="286"/>
+      <c r="I41" s="290"/>
+      <c r="J41" s="290"/>
+      <c r="K41" s="290"/>
+      <c r="L41" s="290"/>
+      <c r="M41" s="290"/>
+      <c r="N41" s="290"/>
+      <c r="O41" s="290"/>
+      <c r="P41" s="290"/>
+      <c r="Q41" s="290"/>
+      <c r="R41" s="290"/>
+      <c r="S41" s="290"/>
+      <c r="T41" s="290"/>
+      <c r="U41" s="290"/>
+      <c r="V41" s="290"/>
+      <c r="W41" s="290"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
@@ -23204,28 +23203,28 @@
       <c r="AI41" s="6"/>
       <c r="AJ41" s="5"/>
       <c r="AK41" s="5"/>
-      <c r="AL41" s="285" t="s">
+      <c r="AL41" s="289" t="s">
         <v>131</v>
       </c>
-      <c r="AM41" s="285"/>
-      <c r="AN41" s="285"/>
-      <c r="AO41" s="285"/>
-      <c r="AP41" s="286" t="s">
+      <c r="AM41" s="289"/>
+      <c r="AN41" s="289"/>
+      <c r="AO41" s="289"/>
+      <c r="AP41" s="290" t="s">
         <v>150</v>
       </c>
-      <c r="AQ41" s="286"/>
-      <c r="AR41" s="286"/>
-      <c r="AS41" s="286"/>
-      <c r="AT41" s="286"/>
-      <c r="AU41" s="286"/>
-      <c r="AV41" s="286"/>
-      <c r="AW41" s="286"/>
-      <c r="AX41" s="286"/>
-      <c r="AY41" s="286"/>
-      <c r="AZ41" s="286"/>
-      <c r="BA41" s="286"/>
-      <c r="BB41" s="286"/>
-      <c r="BC41" s="286"/>
+      <c r="AQ41" s="290"/>
+      <c r="AR41" s="290"/>
+      <c r="AS41" s="290"/>
+      <c r="AT41" s="290"/>
+      <c r="AU41" s="290"/>
+      <c r="AV41" s="290"/>
+      <c r="AW41" s="290"/>
+      <c r="AX41" s="290"/>
+      <c r="AY41" s="290"/>
+      <c r="AZ41" s="290"/>
+      <c r="BA41" s="290"/>
+      <c r="BB41" s="290"/>
+      <c r="BC41" s="290"/>
       <c r="BD41" s="5"/>
       <c r="BE41" s="10"/>
       <c r="BL41" s="5"/>
@@ -23238,32 +23237,32 @@
     </row>
     <row r="42" spans="2:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
-      <c r="C42" s="285" t="s">
+      <c r="C42" s="289" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="285"/>
-      <c r="E42" s="285"/>
-      <c r="F42" s="285"/>
-      <c r="G42" s="285"/>
-      <c r="H42" s="286" t="s">
+      <c r="D42" s="289"/>
+      <c r="E42" s="289"/>
+      <c r="F42" s="289"/>
+      <c r="G42" s="289"/>
+      <c r="H42" s="290" t="s">
         <v>151</v>
       </c>
-      <c r="I42" s="286"/>
-      <c r="J42" s="286"/>
-      <c r="K42" s="286"/>
-      <c r="L42" s="286"/>
-      <c r="M42" s="286"/>
-      <c r="N42" s="286"/>
-      <c r="O42" s="286"/>
-      <c r="P42" s="286"/>
-      <c r="Q42" s="286"/>
-      <c r="R42" s="286"/>
-      <c r="S42" s="286"/>
-      <c r="T42" s="286"/>
-      <c r="U42" s="286"/>
-      <c r="V42" s="286"/>
-      <c r="W42" s="286"/>
-      <c r="X42" s="286"/>
+      <c r="I42" s="290"/>
+      <c r="J42" s="290"/>
+      <c r="K42" s="290"/>
+      <c r="L42" s="290"/>
+      <c r="M42" s="290"/>
+      <c r="N42" s="290"/>
+      <c r="O42" s="290"/>
+      <c r="P42" s="290"/>
+      <c r="Q42" s="290"/>
+      <c r="R42" s="290"/>
+      <c r="S42" s="290"/>
+      <c r="T42" s="290"/>
+      <c r="U42" s="290"/>
+      <c r="V42" s="290"/>
+      <c r="W42" s="290"/>
+      <c r="X42" s="290"/>
       <c r="AA42" s="10"/>
       <c r="AB42" s="10"/>
       <c r="AC42" s="10"/>
@@ -23275,28 +23274,28 @@
       <c r="AI42" s="6"/>
       <c r="AJ42" s="5"/>
       <c r="AK42" s="5"/>
-      <c r="AL42" s="285" t="s">
+      <c r="AL42" s="289" t="s">
         <v>133</v>
       </c>
-      <c r="AM42" s="285"/>
-      <c r="AN42" s="285"/>
-      <c r="AO42" s="285"/>
-      <c r="AP42" s="286" t="s">
+      <c r="AM42" s="289"/>
+      <c r="AN42" s="289"/>
+      <c r="AO42" s="289"/>
+      <c r="AP42" s="290" t="s">
         <v>152</v>
       </c>
-      <c r="AQ42" s="286"/>
-      <c r="AR42" s="286"/>
-      <c r="AS42" s="286"/>
-      <c r="AT42" s="286"/>
-      <c r="AU42" s="286"/>
-      <c r="AV42" s="286"/>
-      <c r="AW42" s="286"/>
-      <c r="AX42" s="286"/>
-      <c r="AY42" s="286"/>
-      <c r="AZ42" s="286"/>
-      <c r="BA42" s="286"/>
-      <c r="BB42" s="286"/>
-      <c r="BC42" s="286"/>
+      <c r="AQ42" s="290"/>
+      <c r="AR42" s="290"/>
+      <c r="AS42" s="290"/>
+      <c r="AT42" s="290"/>
+      <c r="AU42" s="290"/>
+      <c r="AV42" s="290"/>
+      <c r="AW42" s="290"/>
+      <c r="AX42" s="290"/>
+      <c r="AY42" s="290"/>
+      <c r="AZ42" s="290"/>
+      <c r="BA42" s="290"/>
+      <c r="BB42" s="290"/>
+      <c r="BC42" s="290"/>
       <c r="BD42" s="5"/>
       <c r="BE42" s="10"/>
       <c r="BF42" s="10"/>
@@ -23315,32 +23314,32 @@
     </row>
     <row r="43" spans="2:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
-      <c r="C43" s="285" t="s">
+      <c r="C43" s="289" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="285"/>
-      <c r="E43" s="285"/>
-      <c r="F43" s="285"/>
-      <c r="G43" s="285"/>
-      <c r="H43" s="286" t="s">
+      <c r="D43" s="289"/>
+      <c r="E43" s="289"/>
+      <c r="F43" s="289"/>
+      <c r="G43" s="289"/>
+      <c r="H43" s="290" t="s">
         <v>153</v>
       </c>
-      <c r="I43" s="286"/>
-      <c r="J43" s="286"/>
-      <c r="K43" s="286"/>
-      <c r="L43" s="286"/>
-      <c r="M43" s="286"/>
-      <c r="N43" s="286"/>
-      <c r="O43" s="286"/>
-      <c r="P43" s="286"/>
-      <c r="Q43" s="286"/>
-      <c r="R43" s="286"/>
-      <c r="S43" s="286"/>
-      <c r="T43" s="286"/>
-      <c r="U43" s="286"/>
-      <c r="V43" s="286"/>
-      <c r="W43" s="286"/>
-      <c r="X43" s="286"/>
+      <c r="I43" s="290"/>
+      <c r="J43" s="290"/>
+      <c r="K43" s="290"/>
+      <c r="L43" s="290"/>
+      <c r="M43" s="290"/>
+      <c r="N43" s="290"/>
+      <c r="O43" s="290"/>
+      <c r="P43" s="290"/>
+      <c r="Q43" s="290"/>
+      <c r="R43" s="290"/>
+      <c r="S43" s="290"/>
+      <c r="T43" s="290"/>
+      <c r="U43" s="290"/>
+      <c r="V43" s="290"/>
+      <c r="W43" s="290"/>
+      <c r="X43" s="290"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
@@ -23352,28 +23351,28 @@
       <c r="AI43" s="6"/>
       <c r="AJ43" s="5"/>
       <c r="AK43" s="5"/>
-      <c r="AL43" s="285" t="s">
+      <c r="AL43" s="289" t="s">
         <v>135</v>
       </c>
-      <c r="AM43" s="285"/>
-      <c r="AN43" s="285"/>
-      <c r="AO43" s="285"/>
-      <c r="AP43" s="286" t="s">
+      <c r="AM43" s="289"/>
+      <c r="AN43" s="289"/>
+      <c r="AO43" s="289"/>
+      <c r="AP43" s="290" t="s">
         <v>154</v>
       </c>
-      <c r="AQ43" s="286"/>
-      <c r="AR43" s="286"/>
-      <c r="AS43" s="286"/>
-      <c r="AT43" s="286"/>
-      <c r="AU43" s="286"/>
-      <c r="AV43" s="286"/>
-      <c r="AW43" s="286"/>
-      <c r="AX43" s="286"/>
-      <c r="AY43" s="286"/>
-      <c r="AZ43" s="286"/>
-      <c r="BA43" s="286"/>
-      <c r="BB43" s="286"/>
-      <c r="BC43" s="286"/>
+      <c r="AQ43" s="290"/>
+      <c r="AR43" s="290"/>
+      <c r="AS43" s="290"/>
+      <c r="AT43" s="290"/>
+      <c r="AU43" s="290"/>
+      <c r="AV43" s="290"/>
+      <c r="AW43" s="290"/>
+      <c r="AX43" s="290"/>
+      <c r="AY43" s="290"/>
+      <c r="AZ43" s="290"/>
+      <c r="BA43" s="290"/>
+      <c r="BB43" s="290"/>
+      <c r="BC43" s="290"/>
       <c r="BD43" s="5"/>
       <c r="BE43" s="10"/>
       <c r="BF43" s="10"/>
@@ -23392,32 +23391,32 @@
     </row>
     <row r="44" spans="2:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
-      <c r="C44" s="285" t="s">
+      <c r="C44" s="289" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="285"/>
-      <c r="E44" s="285"/>
-      <c r="F44" s="285"/>
-      <c r="G44" s="285"/>
-      <c r="H44" s="286" t="s">
+      <c r="D44" s="289"/>
+      <c r="E44" s="289"/>
+      <c r="F44" s="289"/>
+      <c r="G44" s="289"/>
+      <c r="H44" s="290" t="s">
         <v>105</v>
       </c>
-      <c r="I44" s="286"/>
-      <c r="J44" s="286"/>
-      <c r="K44" s="286"/>
-      <c r="L44" s="286"/>
-      <c r="M44" s="286"/>
-      <c r="N44" s="286"/>
-      <c r="O44" s="286"/>
-      <c r="P44" s="286"/>
-      <c r="Q44" s="286"/>
-      <c r="R44" s="286"/>
-      <c r="S44" s="286"/>
-      <c r="T44" s="286"/>
-      <c r="U44" s="286"/>
-      <c r="V44" s="286"/>
-      <c r="W44" s="286"/>
-      <c r="X44" s="286"/>
+      <c r="I44" s="290"/>
+      <c r="J44" s="290"/>
+      <c r="K44" s="290"/>
+      <c r="L44" s="290"/>
+      <c r="M44" s="290"/>
+      <c r="N44" s="290"/>
+      <c r="O44" s="290"/>
+      <c r="P44" s="290"/>
+      <c r="Q44" s="290"/>
+      <c r="R44" s="290"/>
+      <c r="S44" s="290"/>
+      <c r="T44" s="290"/>
+      <c r="U44" s="290"/>
+      <c r="V44" s="290"/>
+      <c r="W44" s="290"/>
+      <c r="X44" s="290"/>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
@@ -23429,28 +23428,28 @@
       <c r="AI44" s="6"/>
       <c r="AJ44" s="5"/>
       <c r="AK44" s="5"/>
-      <c r="AL44" s="285" t="s">
+      <c r="AL44" s="289" t="s">
         <v>137</v>
       </c>
-      <c r="AM44" s="285"/>
-      <c r="AN44" s="285"/>
-      <c r="AO44" s="285"/>
-      <c r="AP44" s="286" t="s">
+      <c r="AM44" s="289"/>
+      <c r="AN44" s="289"/>
+      <c r="AO44" s="289"/>
+      <c r="AP44" s="290" t="s">
         <v>109</v>
       </c>
-      <c r="AQ44" s="286"/>
-      <c r="AR44" s="286"/>
-      <c r="AS44" s="286"/>
-      <c r="AT44" s="286"/>
-      <c r="AU44" s="286"/>
-      <c r="AV44" s="286"/>
-      <c r="AW44" s="286"/>
-      <c r="AX44" s="286"/>
-      <c r="AY44" s="286"/>
-      <c r="AZ44" s="286"/>
-      <c r="BA44" s="286"/>
-      <c r="BB44" s="286"/>
-      <c r="BC44" s="286"/>
+      <c r="AQ44" s="290"/>
+      <c r="AR44" s="290"/>
+      <c r="AS44" s="290"/>
+      <c r="AT44" s="290"/>
+      <c r="AU44" s="290"/>
+      <c r="AV44" s="290"/>
+      <c r="AW44" s="290"/>
+      <c r="AX44" s="290"/>
+      <c r="AY44" s="290"/>
+      <c r="AZ44" s="290"/>
+      <c r="BA44" s="290"/>
+      <c r="BB44" s="290"/>
+      <c r="BC44" s="290"/>
       <c r="BD44" s="5"/>
       <c r="BE44" s="10"/>
       <c r="BF44" s="10"/>
@@ -23469,32 +23468,32 @@
     </row>
     <row r="45" spans="2:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
-      <c r="C45" s="285" t="s">
+      <c r="C45" s="289" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="285"/>
-      <c r="E45" s="285"/>
-      <c r="F45" s="285"/>
-      <c r="G45" s="285"/>
-      <c r="H45" s="286" t="s">
+      <c r="D45" s="289"/>
+      <c r="E45" s="289"/>
+      <c r="F45" s="289"/>
+      <c r="G45" s="289"/>
+      <c r="H45" s="290" t="s">
         <v>155</v>
       </c>
-      <c r="I45" s="286"/>
-      <c r="J45" s="286"/>
-      <c r="K45" s="286"/>
-      <c r="L45" s="286"/>
-      <c r="M45" s="286"/>
-      <c r="N45" s="286"/>
-      <c r="O45" s="286"/>
-      <c r="P45" s="286"/>
-      <c r="Q45" s="286"/>
-      <c r="R45" s="286"/>
-      <c r="S45" s="286"/>
-      <c r="T45" s="286"/>
-      <c r="U45" s="286"/>
-      <c r="V45" s="286"/>
-      <c r="W45" s="286"/>
-      <c r="X45" s="286"/>
+      <c r="I45" s="290"/>
+      <c r="J45" s="290"/>
+      <c r="K45" s="290"/>
+      <c r="L45" s="290"/>
+      <c r="M45" s="290"/>
+      <c r="N45" s="290"/>
+      <c r="O45" s="290"/>
+      <c r="P45" s="290"/>
+      <c r="Q45" s="290"/>
+      <c r="R45" s="290"/>
+      <c r="S45" s="290"/>
+      <c r="T45" s="290"/>
+      <c r="U45" s="290"/>
+      <c r="V45" s="290"/>
+      <c r="W45" s="290"/>
+      <c r="X45" s="290"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
@@ -23506,28 +23505,28 @@
       <c r="AI45" s="6"/>
       <c r="AJ45" s="5"/>
       <c r="AK45" s="5"/>
-      <c r="AL45" s="285" t="s">
+      <c r="AL45" s="289" t="s">
         <v>139</v>
       </c>
-      <c r="AM45" s="285"/>
-      <c r="AN45" s="285"/>
-      <c r="AO45" s="285"/>
-      <c r="AP45" s="286" t="s">
+      <c r="AM45" s="289"/>
+      <c r="AN45" s="289"/>
+      <c r="AO45" s="289"/>
+      <c r="AP45" s="290" t="s">
         <v>156</v>
       </c>
-      <c r="AQ45" s="286"/>
-      <c r="AR45" s="286"/>
-      <c r="AS45" s="286"/>
-      <c r="AT45" s="286"/>
-      <c r="AU45" s="286"/>
-      <c r="AV45" s="286"/>
-      <c r="AW45" s="286"/>
-      <c r="AX45" s="286"/>
-      <c r="AY45" s="286"/>
-      <c r="AZ45" s="286"/>
-      <c r="BA45" s="286"/>
-      <c r="BB45" s="286"/>
-      <c r="BC45" s="286"/>
+      <c r="AQ45" s="290"/>
+      <c r="AR45" s="290"/>
+      <c r="AS45" s="290"/>
+      <c r="AT45" s="290"/>
+      <c r="AU45" s="290"/>
+      <c r="AV45" s="290"/>
+      <c r="AW45" s="290"/>
+      <c r="AX45" s="290"/>
+      <c r="AY45" s="290"/>
+      <c r="AZ45" s="290"/>
+      <c r="BA45" s="290"/>
+      <c r="BB45" s="290"/>
+      <c r="BC45" s="290"/>
       <c r="BD45" s="5"/>
       <c r="BE45" s="10"/>
       <c r="BF45" s="10"/>
@@ -23546,32 +23545,32 @@
     </row>
     <row r="46" spans="2:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
-      <c r="C46" s="285" t="s">
+      <c r="C46" s="289" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="285"/>
-      <c r="E46" s="285"/>
-      <c r="F46" s="285"/>
-      <c r="G46" s="285"/>
-      <c r="H46" s="286" t="s">
+      <c r="D46" s="289"/>
+      <c r="E46" s="289"/>
+      <c r="F46" s="289"/>
+      <c r="G46" s="289"/>
+      <c r="H46" s="290" t="s">
         <v>157</v>
       </c>
-      <c r="I46" s="286"/>
-      <c r="J46" s="286"/>
-      <c r="K46" s="286"/>
-      <c r="L46" s="286"/>
-      <c r="M46" s="286"/>
-      <c r="N46" s="286"/>
-      <c r="O46" s="286"/>
-      <c r="P46" s="286"/>
-      <c r="Q46" s="286"/>
-      <c r="R46" s="286"/>
-      <c r="S46" s="286"/>
-      <c r="T46" s="286"/>
-      <c r="U46" s="286"/>
-      <c r="V46" s="286"/>
-      <c r="W46" s="286"/>
-      <c r="X46" s="286"/>
+      <c r="I46" s="290"/>
+      <c r="J46" s="290"/>
+      <c r="K46" s="290"/>
+      <c r="L46" s="290"/>
+      <c r="M46" s="290"/>
+      <c r="N46" s="290"/>
+      <c r="O46" s="290"/>
+      <c r="P46" s="290"/>
+      <c r="Q46" s="290"/>
+      <c r="R46" s="290"/>
+      <c r="S46" s="290"/>
+      <c r="T46" s="290"/>
+      <c r="U46" s="290"/>
+      <c r="V46" s="290"/>
+      <c r="W46" s="290"/>
+      <c r="X46" s="290"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
@@ -23583,28 +23582,28 @@
       <c r="AI46" s="6"/>
       <c r="AJ46" s="5"/>
       <c r="AK46" s="5"/>
-      <c r="AL46" s="285" t="s">
+      <c r="AL46" s="289" t="s">
         <v>142</v>
       </c>
-      <c r="AM46" s="285"/>
-      <c r="AN46" s="285"/>
-      <c r="AO46" s="285"/>
-      <c r="AP46" s="286" t="s">
+      <c r="AM46" s="289"/>
+      <c r="AN46" s="289"/>
+      <c r="AO46" s="289"/>
+      <c r="AP46" s="290" t="s">
         <v>158</v>
       </c>
-      <c r="AQ46" s="286"/>
-      <c r="AR46" s="286"/>
-      <c r="AS46" s="286"/>
-      <c r="AT46" s="286"/>
-      <c r="AU46" s="286"/>
-      <c r="AV46" s="286"/>
-      <c r="AW46" s="286"/>
-      <c r="AX46" s="286"/>
-      <c r="AY46" s="286"/>
-      <c r="AZ46" s="286"/>
-      <c r="BA46" s="286"/>
-      <c r="BB46" s="286"/>
-      <c r="BC46" s="286"/>
+      <c r="AQ46" s="290"/>
+      <c r="AR46" s="290"/>
+      <c r="AS46" s="290"/>
+      <c r="AT46" s="290"/>
+      <c r="AU46" s="290"/>
+      <c r="AV46" s="290"/>
+      <c r="AW46" s="290"/>
+      <c r="AX46" s="290"/>
+      <c r="AY46" s="290"/>
+      <c r="AZ46" s="290"/>
+      <c r="BA46" s="290"/>
+      <c r="BB46" s="290"/>
+      <c r="BC46" s="290"/>
       <c r="BD46" s="5"/>
       <c r="BE46" s="10"/>
       <c r="BF46" s="10"/>
@@ -23623,32 +23622,32 @@
     </row>
     <row r="47" spans="2:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
-      <c r="C47" s="285" t="s">
+      <c r="C47" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="285"/>
-      <c r="E47" s="285"/>
-      <c r="F47" s="285"/>
-      <c r="G47" s="285"/>
-      <c r="H47" s="286" t="s">
+      <c r="D47" s="289"/>
+      <c r="E47" s="289"/>
+      <c r="F47" s="289"/>
+      <c r="G47" s="289"/>
+      <c r="H47" s="290" t="s">
         <v>159</v>
       </c>
-      <c r="I47" s="286"/>
-      <c r="J47" s="286"/>
-      <c r="K47" s="286"/>
-      <c r="L47" s="286"/>
-      <c r="M47" s="286"/>
-      <c r="N47" s="286"/>
-      <c r="O47" s="286"/>
-      <c r="P47" s="286"/>
-      <c r="Q47" s="286"/>
-      <c r="R47" s="286"/>
-      <c r="S47" s="286"/>
-      <c r="T47" s="286"/>
-      <c r="U47" s="286"/>
-      <c r="V47" s="286"/>
-      <c r="W47" s="286"/>
-      <c r="X47" s="286"/>
+      <c r="I47" s="290"/>
+      <c r="J47" s="290"/>
+      <c r="K47" s="290"/>
+      <c r="L47" s="290"/>
+      <c r="M47" s="290"/>
+      <c r="N47" s="290"/>
+      <c r="O47" s="290"/>
+      <c r="P47" s="290"/>
+      <c r="Q47" s="290"/>
+      <c r="R47" s="290"/>
+      <c r="S47" s="290"/>
+      <c r="T47" s="290"/>
+      <c r="U47" s="290"/>
+      <c r="V47" s="290"/>
+      <c r="W47" s="290"/>
+      <c r="X47" s="290"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
@@ -23660,28 +23659,28 @@
       <c r="AI47" s="6"/>
       <c r="AJ47" s="5"/>
       <c r="AK47" s="5"/>
-      <c r="AL47" s="285" t="s">
+      <c r="AL47" s="289" t="s">
         <v>145</v>
       </c>
-      <c r="AM47" s="285"/>
-      <c r="AN47" s="285"/>
-      <c r="AO47" s="285"/>
-      <c r="AP47" s="286" t="s">
+      <c r="AM47" s="289"/>
+      <c r="AN47" s="289"/>
+      <c r="AO47" s="289"/>
+      <c r="AP47" s="290" t="s">
         <v>61</v>
       </c>
-      <c r="AQ47" s="286"/>
-      <c r="AR47" s="286"/>
-      <c r="AS47" s="286"/>
-      <c r="AT47" s="286"/>
-      <c r="AU47" s="286"/>
-      <c r="AV47" s="286"/>
-      <c r="AW47" s="286"/>
-      <c r="AX47" s="286"/>
-      <c r="AY47" s="286"/>
-      <c r="AZ47" s="286"/>
-      <c r="BA47" s="286"/>
-      <c r="BB47" s="286"/>
-      <c r="BC47" s="286"/>
+      <c r="AQ47" s="290"/>
+      <c r="AR47" s="290"/>
+      <c r="AS47" s="290"/>
+      <c r="AT47" s="290"/>
+      <c r="AU47" s="290"/>
+      <c r="AV47" s="290"/>
+      <c r="AW47" s="290"/>
+      <c r="AX47" s="290"/>
+      <c r="AY47" s="290"/>
+      <c r="AZ47" s="290"/>
+      <c r="BA47" s="290"/>
+      <c r="BB47" s="290"/>
+      <c r="BC47" s="290"/>
       <c r="BD47" s="10"/>
       <c r="BE47" s="10"/>
       <c r="BF47" s="10"/>
@@ -23699,55 +23698,55 @@
       <c r="BR47" s="10"/>
     </row>
     <row r="48" spans="2:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="285" t="s">
+      <c r="C48" s="289" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="285"/>
-      <c r="E48" s="285"/>
-      <c r="F48" s="285"/>
-      <c r="G48" s="285"/>
-      <c r="H48" s="286" t="s">
+      <c r="D48" s="289"/>
+      <c r="E48" s="289"/>
+      <c r="F48" s="289"/>
+      <c r="G48" s="289"/>
+      <c r="H48" s="290" t="s">
         <v>160</v>
       </c>
-      <c r="I48" s="286"/>
-      <c r="J48" s="286"/>
-      <c r="K48" s="286"/>
-      <c r="L48" s="286"/>
-      <c r="M48" s="286"/>
-      <c r="N48" s="286"/>
-      <c r="O48" s="286"/>
-      <c r="P48" s="286"/>
-      <c r="Q48" s="286"/>
-      <c r="R48" s="286"/>
-      <c r="S48" s="286"/>
-      <c r="T48" s="286"/>
-      <c r="U48" s="286"/>
-      <c r="V48" s="286"/>
-      <c r="W48" s="286"/>
-      <c r="X48" s="286"/>
+      <c r="I48" s="290"/>
+      <c r="J48" s="290"/>
+      <c r="K48" s="290"/>
+      <c r="L48" s="290"/>
+      <c r="M48" s="290"/>
+      <c r="N48" s="290"/>
+      <c r="O48" s="290"/>
+      <c r="P48" s="290"/>
+      <c r="Q48" s="290"/>
+      <c r="R48" s="290"/>
+      <c r="S48" s="290"/>
+      <c r="T48" s="290"/>
+      <c r="U48" s="290"/>
+      <c r="V48" s="290"/>
+      <c r="W48" s="290"/>
+      <c r="X48" s="290"/>
       <c r="AI48" s="4"/>
-      <c r="AL48" s="285" t="s">
+      <c r="AL48" s="289" t="s">
         <v>147</v>
       </c>
-      <c r="AM48" s="285"/>
-      <c r="AN48" s="285"/>
-      <c r="AO48" s="285"/>
-      <c r="AP48" s="286" t="s">
+      <c r="AM48" s="289"/>
+      <c r="AN48" s="289"/>
+      <c r="AO48" s="289"/>
+      <c r="AP48" s="290" t="s">
         <v>161</v>
       </c>
-      <c r="AQ48" s="286"/>
-      <c r="AR48" s="286"/>
-      <c r="AS48" s="286"/>
-      <c r="AT48" s="286"/>
-      <c r="AU48" s="286"/>
-      <c r="AV48" s="286"/>
-      <c r="AW48" s="286"/>
-      <c r="AX48" s="286"/>
-      <c r="AY48" s="286"/>
-      <c r="AZ48" s="286"/>
-      <c r="BA48" s="286"/>
-      <c r="BB48" s="286"/>
-      <c r="BC48" s="286"/>
+      <c r="AQ48" s="290"/>
+      <c r="AR48" s="290"/>
+      <c r="AS48" s="290"/>
+      <c r="AT48" s="290"/>
+      <c r="AU48" s="290"/>
+      <c r="AV48" s="290"/>
+      <c r="AW48" s="290"/>
+      <c r="AX48" s="290"/>
+      <c r="AY48" s="290"/>
+      <c r="AZ48" s="290"/>
+      <c r="BA48" s="290"/>
+      <c r="BB48" s="290"/>
+      <c r="BC48" s="290"/>
     </row>
     <row r="49" spans="35:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AI49" s="4"/>
@@ -26608,49 +26607,6 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="P1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AA33:AD33"/>
-    <mergeCell ref="AA34:AD34"/>
-    <mergeCell ref="AA35:AD35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF36:AI36"/>
-    <mergeCell ref="AF37:AI37"/>
-    <mergeCell ref="AF38:AI38"/>
-    <mergeCell ref="AF39:AP39"/>
-    <mergeCell ref="AF40:AI40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:W41"/>
-    <mergeCell ref="AL41:AO41"/>
-    <mergeCell ref="AP41:BC41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:X42"/>
-    <mergeCell ref="AL42:AO42"/>
-    <mergeCell ref="AP42:BC42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:X43"/>
-    <mergeCell ref="AL43:AO43"/>
-    <mergeCell ref="AP43:BC43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:X44"/>
-    <mergeCell ref="AL44:AO44"/>
-    <mergeCell ref="AP44:BC44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:X45"/>
-    <mergeCell ref="AL45:AO45"/>
-    <mergeCell ref="AP45:BC45"/>
     <mergeCell ref="C48:G48"/>
     <mergeCell ref="H48:X48"/>
     <mergeCell ref="AL48:AO48"/>
@@ -26663,6 +26619,49 @@
     <mergeCell ref="H47:X47"/>
     <mergeCell ref="AL47:AO47"/>
     <mergeCell ref="AP47:BC47"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:X44"/>
+    <mergeCell ref="AL44:AO44"/>
+    <mergeCell ref="AP44:BC44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:X45"/>
+    <mergeCell ref="AL45:AO45"/>
+    <mergeCell ref="AP45:BC45"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:X42"/>
+    <mergeCell ref="AL42:AO42"/>
+    <mergeCell ref="AP42:BC42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:X43"/>
+    <mergeCell ref="AL43:AO43"/>
+    <mergeCell ref="AP43:BC43"/>
+    <mergeCell ref="AF38:AI38"/>
+    <mergeCell ref="AF39:AP39"/>
+    <mergeCell ref="AF40:AI40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:W41"/>
+    <mergeCell ref="AL41:AO41"/>
+    <mergeCell ref="AP41:BC41"/>
+    <mergeCell ref="AA34:AD34"/>
+    <mergeCell ref="AA35:AD35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AF36:AI36"/>
+    <mergeCell ref="AF37:AI37"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AA33:AD33"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="AB1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -26674,8 +26673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BT1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW20" sqref="AW20"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -26703,50 +26702,50 @@
   <sheetData>
     <row r="1" spans="1:68" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
-      <c r="C1" s="288" t="s">
+      <c r="C1" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="288" t="s">
+      <c r="H1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
-      <c r="N1" s="288"/>
-      <c r="O1" s="288"/>
-      <c r="P1" s="288"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
+      <c r="P1" s="285"/>
       <c r="Q1" s="8"/>
-      <c r="R1" s="288" t="s">
+      <c r="R1" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="288"/>
-      <c r="T1" s="288"/>
-      <c r="U1" s="288"/>
-      <c r="V1" s="288"/>
-      <c r="W1" s="288"/>
-      <c r="X1" s="288"/>
-      <c r="Y1" s="288"/>
+      <c r="S1" s="285"/>
+      <c r="T1" s="285"/>
+      <c r="U1" s="285"/>
+      <c r="V1" s="285"/>
+      <c r="W1" s="285"/>
+      <c r="X1" s="285"/>
+      <c r="Y1" s="285"/>
       <c r="Z1" s="8"/>
-      <c r="AA1" s="288" t="s">
+      <c r="AA1" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="288"/>
+      <c r="AB1" s="285"/>
       <c r="AC1" s="6"/>
       <c r="AD1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" s="290" t="s">
+      <c r="AE1" s="286" t="s">
         <v>5</v>
       </c>
-      <c r="AF1" s="290"/>
-      <c r="AG1" s="290"/>
-      <c r="AH1" s="290"/>
+      <c r="AF1" s="286"/>
+      <c r="AG1" s="286"/>
+      <c r="AH1" s="286"/>
       <c r="AI1" s="9" t="s">
         <v>6</v>
       </c>
@@ -26762,32 +26761,32 @@
       <c r="AM1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AN1" s="288" t="s">
+      <c r="AN1" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="AO1" s="288"/>
-      <c r="AP1" s="288"/>
-      <c r="AQ1" s="288"/>
+      <c r="AO1" s="285"/>
+      <c r="AP1" s="285"/>
+      <c r="AQ1" s="285"/>
       <c r="AR1" s="8"/>
-      <c r="AS1" s="288" t="s">
+      <c r="AS1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="AT1" s="288"/>
-      <c r="AU1" s="288"/>
-      <c r="AV1" s="288"/>
-      <c r="AW1" s="288"/>
+      <c r="AT1" s="285"/>
+      <c r="AU1" s="285"/>
+      <c r="AV1" s="285"/>
+      <c r="AW1" s="285"/>
       <c r="AX1" s="8"/>
-      <c r="AY1" s="288" t="s">
+      <c r="AY1" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="AZ1" s="288"/>
-      <c r="BA1" s="288"/>
-      <c r="BB1" s="288"/>
+      <c r="AZ1" s="285"/>
+      <c r="BA1" s="285"/>
+      <c r="BB1" s="285"/>
       <c r="BC1" s="8"/>
-      <c r="BD1" s="288" t="s">
+      <c r="BD1" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BE1" s="288"/>
+      <c r="BE1" s="285"/>
       <c r="BF1" s="7"/>
       <c r="BH1" s="10"/>
       <c r="BI1" s="10"/>
@@ -26877,7 +26876,7 @@
       <c r="BP2" s="10"/>
     </row>
     <row r="3" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="299" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="247"/>
@@ -27002,7 +27001,7 @@
       <c r="BP3" s="10"/>
     </row>
     <row r="4" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="300"/>
+      <c r="A4" s="299"/>
       <c r="B4" s="247"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -27117,7 +27116,7 @@
       <c r="BP4" s="10"/>
     </row>
     <row r="5" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="300"/>
+      <c r="A5" s="299"/>
       <c r="B5" s="247"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -27322,7 +27321,7 @@
       <c r="BP6" s="10"/>
     </row>
     <row r="7" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="299" t="s">
+      <c r="A7" s="300" t="s">
         <v>126</v>
       </c>
       <c r="B7" s="247"/>
@@ -27429,7 +27428,7 @@
       <c r="BM7" s="10"/>
     </row>
     <row r="8" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="299"/>
+      <c r="A8" s="300"/>
       <c r="B8" s="247"/>
       <c r="C8" s="257" t="s">
         <v>13</v>
@@ -27531,7 +27530,7 @@
       <c r="BM8" s="10"/>
     </row>
     <row r="9" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="299"/>
+      <c r="A9" s="300"/>
       <c r="B9" s="247"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -27620,7 +27619,7 @@
       <c r="BM9" s="10"/>
     </row>
     <row r="10" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="299"/>
+      <c r="A10" s="300"/>
       <c r="B10" s="247"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -27804,7 +27803,7 @@
       <c r="BP11" s="10"/>
     </row>
     <row r="12" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="300" t="s">
+      <c r="A12" s="299" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="247"/>
@@ -27916,7 +27915,7 @@
       <c r="BM12" s="10"/>
     </row>
     <row r="13" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="300"/>
+      <c r="A13" s="299"/>
       <c r="B13" s="247"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -28025,7 +28024,7 @@
       <c r="BM13" s="10"/>
     </row>
     <row r="14" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="300"/>
+      <c r="A14" s="299"/>
       <c r="B14" s="247"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -28141,7 +28140,7 @@
       <c r="BL14" s="10"/>
     </row>
     <row r="15" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="300"/>
+      <c r="A15" s="299"/>
       <c r="B15" s="247"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -32081,6 +32080,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="BD1:BE1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="C1:F1"/>
@@ -32088,11 +32092,6 @@
     <mergeCell ref="R1:Y1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="AY1:BB1"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -32137,50 +32136,50 @@
   <sheetData>
     <row r="1" spans="1:68" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
-      <c r="C1" s="288" t="s">
+      <c r="C1" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="288" t="s">
+      <c r="H1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
-      <c r="N1" s="288"/>
-      <c r="O1" s="288"/>
-      <c r="P1" s="288"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
+      <c r="P1" s="285"/>
       <c r="Q1" s="8"/>
-      <c r="R1" s="288" t="s">
+      <c r="R1" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="288"/>
-      <c r="T1" s="288"/>
-      <c r="U1" s="288"/>
-      <c r="V1" s="288"/>
-      <c r="W1" s="288"/>
-      <c r="X1" s="288"/>
-      <c r="Y1" s="288"/>
+      <c r="S1" s="285"/>
+      <c r="T1" s="285"/>
+      <c r="U1" s="285"/>
+      <c r="V1" s="285"/>
+      <c r="W1" s="285"/>
+      <c r="X1" s="285"/>
+      <c r="Y1" s="285"/>
       <c r="Z1" s="8"/>
-      <c r="AA1" s="288" t="s">
+      <c r="AA1" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="288"/>
+      <c r="AB1" s="285"/>
       <c r="AC1" s="6"/>
       <c r="AD1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" s="290" t="s">
+      <c r="AE1" s="286" t="s">
         <v>5</v>
       </c>
-      <c r="AF1" s="290"/>
-      <c r="AG1" s="290"/>
-      <c r="AH1" s="290"/>
+      <c r="AF1" s="286"/>
+      <c r="AG1" s="286"/>
+      <c r="AH1" s="286"/>
       <c r="AI1" s="9" t="s">
         <v>6</v>
       </c>
@@ -32196,32 +32195,32 @@
       <c r="AM1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AN1" s="288" t="s">
+      <c r="AN1" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="AO1" s="288"/>
-      <c r="AP1" s="288"/>
-      <c r="AQ1" s="288"/>
+      <c r="AO1" s="285"/>
+      <c r="AP1" s="285"/>
+      <c r="AQ1" s="285"/>
       <c r="AR1" s="8"/>
-      <c r="AS1" s="288" t="s">
+      <c r="AS1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="AT1" s="288"/>
-      <c r="AU1" s="288"/>
-      <c r="AV1" s="288"/>
-      <c r="AW1" s="288"/>
+      <c r="AT1" s="285"/>
+      <c r="AU1" s="285"/>
+      <c r="AV1" s="285"/>
+      <c r="AW1" s="285"/>
       <c r="AX1" s="8"/>
-      <c r="AY1" s="288" t="s">
+      <c r="AY1" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="AZ1" s="288"/>
-      <c r="BA1" s="288"/>
-      <c r="BB1" s="288"/>
+      <c r="AZ1" s="285"/>
+      <c r="BA1" s="285"/>
+      <c r="BB1" s="285"/>
       <c r="BC1" s="8"/>
-      <c r="BD1" s="288" t="s">
+      <c r="BD1" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BE1" s="288"/>
+      <c r="BE1" s="285"/>
       <c r="BF1" s="7"/>
       <c r="BH1" s="10"/>
       <c r="BI1" s="10"/>
@@ -32311,7 +32310,7 @@
       <c r="BP2" s="10"/>
     </row>
     <row r="3" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="299" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="247"/>
@@ -32431,7 +32430,7 @@
       <c r="BP3" s="10"/>
     </row>
     <row r="4" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="300"/>
+      <c r="A4" s="299"/>
       <c r="B4" s="247"/>
       <c r="C4" s="254" t="s">
         <v>12</v>
@@ -32547,7 +32546,7 @@
       <c r="BP4" s="10"/>
     </row>
     <row r="5" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="300"/>
+      <c r="A5" s="299"/>
       <c r="B5" s="247"/>
       <c r="C5" s="254" t="s">
         <v>12</v>
@@ -32752,7 +32751,7 @@
       <c r="BP6" s="10"/>
     </row>
     <row r="7" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="299" t="s">
+      <c r="A7" s="300" t="s">
         <v>126</v>
       </c>
       <c r="B7" s="247"/>
@@ -32861,7 +32860,7 @@
       <c r="BM7" s="10"/>
     </row>
     <row r="8" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="299"/>
+      <c r="A8" s="300"/>
       <c r="B8" s="247"/>
       <c r="C8" s="257" t="s">
         <v>13</v>
@@ -32964,7 +32963,7 @@
       <c r="BM8" s="10"/>
     </row>
     <row r="9" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="299"/>
+      <c r="A9" s="300"/>
       <c r="B9" s="247"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -33053,7 +33052,7 @@
       <c r="BM9" s="10"/>
     </row>
     <row r="10" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="299"/>
+      <c r="A10" s="300"/>
       <c r="B10" s="247"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -33237,7 +33236,7 @@
       <c r="BP11" s="10"/>
     </row>
     <row r="12" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="300" t="s">
+      <c r="A12" s="299" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="247"/>
@@ -33360,7 +33359,7 @@
       <c r="BM12" s="10"/>
     </row>
     <row r="13" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="300"/>
+      <c r="A13" s="299"/>
       <c r="B13" s="247"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
@@ -33473,7 +33472,7 @@
       <c r="BM13" s="10"/>
     </row>
     <row r="14" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="300"/>
+      <c r="A14" s="299"/>
       <c r="B14" s="247"/>
       <c r="D14" s="21"/>
       <c r="E14" s="20"/>
@@ -33593,7 +33592,7 @@
       <c r="BL14" s="10"/>
     </row>
     <row r="15" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="300"/>
+      <c r="A15" s="299"/>
       <c r="B15" s="247"/>
       <c r="D15" s="21"/>
       <c r="E15" s="20"/>
@@ -37580,6 +37579,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="BD1:BE1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="C1:F1"/>
@@ -37587,11 +37591,6 @@
     <mergeCell ref="R1:Y1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="AY1:BB1"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -37640,47 +37639,47 @@
   <sheetData>
     <row r="1" spans="1:63" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
-      <c r="C1" s="288" t="s">
+      <c r="C1" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="288" t="s">
+      <c r="H1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
-      <c r="N1" s="288"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
       <c r="O1" s="79"/>
       <c r="P1" s="8"/>
-      <c r="Q1" s="288" t="s">
+      <c r="Q1" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="288"/>
-      <c r="S1" s="288"/>
-      <c r="T1" s="288"/>
-      <c r="U1" s="288"/>
-      <c r="V1" s="288"/>
+      <c r="R1" s="285"/>
+      <c r="S1" s="285"/>
+      <c r="T1" s="285"/>
+      <c r="U1" s="285"/>
+      <c r="V1" s="285"/>
       <c r="W1" s="8"/>
-      <c r="X1" s="288" t="s">
+      <c r="X1" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="288"/>
+      <c r="Y1" s="285"/>
       <c r="Z1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="290" t="s">
+      <c r="AA1" s="286" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="290"/>
-      <c r="AC1" s="290"/>
-      <c r="AD1" s="290"/>
-      <c r="AE1" s="290"/>
+      <c r="AB1" s="286"/>
+      <c r="AC1" s="286"/>
+      <c r="AD1" s="286"/>
+      <c r="AE1" s="286"/>
       <c r="AF1" s="9" t="s">
         <v>6</v>
       </c>
@@ -37702,24 +37701,24 @@
       <c r="AL1" s="8"/>
       <c r="AM1" s="176"/>
       <c r="AN1" s="176"/>
-      <c r="AO1" s="288" t="s">
+      <c r="AO1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="AP1" s="288"/>
-      <c r="AQ1" s="288"/>
-      <c r="AR1" s="288"/>
-      <c r="AS1" s="288"/>
+      <c r="AP1" s="285"/>
+      <c r="AQ1" s="285"/>
+      <c r="AR1" s="285"/>
+      <c r="AS1" s="285"/>
       <c r="AT1" s="176"/>
       <c r="AU1" s="8"/>
-      <c r="AV1" s="288" t="s">
+      <c r="AV1" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="AW1" s="288"/>
+      <c r="AW1" s="285"/>
       <c r="AX1" s="8"/>
-      <c r="AY1" s="288" t="s">
+      <c r="AY1" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AZ1" s="288"/>
+      <c r="AZ1" s="285"/>
       <c r="BA1" s="7"/>
       <c r="BC1" s="10"/>
       <c r="BD1" s="10"/>
@@ -40520,8 +40519,8 @@
       <c r="AB34" s="79"/>
       <c r="AC34" s="79"/>
       <c r="AD34" s="79"/>
-      <c r="AE34" s="289"/>
-      <c r="AF34" s="289"/>
+      <c r="AE34" s="287"/>
+      <c r="AF34" s="287"/>
       <c r="AH34" s="6"/>
       <c r="AI34" s="79"/>
       <c r="AJ34" s="91" t="s">
@@ -40593,10 +40592,10 @@
       <c r="AB35" s="79"/>
       <c r="AC35" s="79"/>
       <c r="AD35" s="79"/>
-      <c r="AE35" s="287"/>
-      <c r="AF35" s="287"/>
-      <c r="AG35" s="287"/>
-      <c r="AH35" s="287"/>
+      <c r="AE35" s="288"/>
+      <c r="AF35" s="288"/>
+      <c r="AG35" s="288"/>
+      <c r="AH35" s="288"/>
       <c r="AI35" s="79"/>
       <c r="AJ35" s="99" t="s">
         <v>13</v>
@@ -40663,10 +40662,10 @@
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
-      <c r="AE36" s="287"/>
-      <c r="AF36" s="287"/>
-      <c r="AG36" s="287"/>
-      <c r="AH36" s="287"/>
+      <c r="AE36" s="288"/>
+      <c r="AF36" s="288"/>
+      <c r="AG36" s="288"/>
+      <c r="AH36" s="288"/>
       <c r="AI36" s="79"/>
       <c r="AJ36" s="103" t="s">
         <v>13</v>
@@ -40730,10 +40729,10 @@
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
-      <c r="AE37" s="287"/>
-      <c r="AF37" s="287"/>
-      <c r="AG37" s="287"/>
-      <c r="AH37" s="287"/>
+      <c r="AE37" s="288"/>
+      <c r="AF37" s="288"/>
+      <c r="AG37" s="288"/>
+      <c r="AH37" s="288"/>
       <c r="AI37" s="79"/>
       <c r="AJ37" s="188"/>
       <c r="AK37" s="6"/>
@@ -40790,17 +40789,17 @@
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
-      <c r="AE38" s="287"/>
-      <c r="AF38" s="287"/>
-      <c r="AG38" s="287"/>
-      <c r="AH38" s="287"/>
-      <c r="AI38" s="287"/>
-      <c r="AJ38" s="287"/>
-      <c r="AK38" s="287"/>
-      <c r="AL38" s="287"/>
-      <c r="AM38" s="287"/>
-      <c r="AN38" s="287"/>
-      <c r="AO38" s="287"/>
+      <c r="AE38" s="288"/>
+      <c r="AF38" s="288"/>
+      <c r="AG38" s="288"/>
+      <c r="AH38" s="288"/>
+      <c r="AI38" s="288"/>
+      <c r="AJ38" s="288"/>
+      <c r="AK38" s="288"/>
+      <c r="AL38" s="288"/>
+      <c r="AM38" s="288"/>
+      <c r="AN38" s="288"/>
+      <c r="AO38" s="288"/>
       <c r="AP38" s="10"/>
       <c r="AQ38" s="54"/>
       <c r="AR38" s="10"/>
@@ -40839,10 +40838,10 @@
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
-      <c r="AE39" s="287"/>
-      <c r="AF39" s="287"/>
-      <c r="AG39" s="287"/>
-      <c r="AH39" s="287"/>
+      <c r="AE39" s="288"/>
+      <c r="AF39" s="288"/>
+      <c r="AG39" s="288"/>
+      <c r="AH39" s="288"/>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
       <c r="AK39" s="5"/>
@@ -40872,57 +40871,57 @@
     </row>
     <row r="40" spans="2:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
-      <c r="C40" s="285" t="s">
+      <c r="C40" s="289" t="s">
         <v>209</v>
       </c>
-      <c r="D40" s="285"/>
-      <c r="E40" s="285"/>
-      <c r="F40" s="285"/>
-      <c r="G40" s="285"/>
-      <c r="H40" s="286" t="s">
+      <c r="D40" s="289"/>
+      <c r="E40" s="289"/>
+      <c r="F40" s="289"/>
+      <c r="G40" s="289"/>
+      <c r="H40" s="290" t="s">
         <v>224</v>
       </c>
-      <c r="I40" s="286"/>
-      <c r="J40" s="286"/>
-      <c r="K40" s="286"/>
-      <c r="L40" s="286"/>
-      <c r="M40" s="286"/>
-      <c r="N40" s="286"/>
-      <c r="O40" s="286"/>
-      <c r="P40" s="286"/>
-      <c r="Q40" s="286"/>
-      <c r="R40" s="286"/>
-      <c r="S40" s="286"/>
-      <c r="T40" s="286"/>
-      <c r="U40" s="286"/>
-      <c r="V40" s="286"/>
-      <c r="W40" s="286"/>
-      <c r="X40" s="286"/>
+      <c r="I40" s="290"/>
+      <c r="J40" s="290"/>
+      <c r="K40" s="290"/>
+      <c r="L40" s="290"/>
+      <c r="M40" s="290"/>
+      <c r="N40" s="290"/>
+      <c r="O40" s="290"/>
+      <c r="P40" s="290"/>
+      <c r="Q40" s="290"/>
+      <c r="R40" s="290"/>
+      <c r="S40" s="290"/>
+      <c r="T40" s="290"/>
+      <c r="U40" s="290"/>
+      <c r="V40" s="290"/>
+      <c r="W40" s="290"/>
+      <c r="X40" s="290"/>
       <c r="Y40" s="5"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="5"/>
       <c r="AH40" s="6"/>
       <c r="AI40" s="40"/>
       <c r="AJ40" s="5"/>
-      <c r="AK40" s="285" t="s">
+      <c r="AK40" s="289" t="s">
         <v>210</v>
       </c>
-      <c r="AL40" s="285"/>
-      <c r="AM40" s="285"/>
-      <c r="AN40" s="285"/>
-      <c r="AO40" s="286" t="s">
+      <c r="AL40" s="289"/>
+      <c r="AM40" s="289"/>
+      <c r="AN40" s="289"/>
+      <c r="AO40" s="290" t="s">
         <v>225</v>
       </c>
-      <c r="AP40" s="286"/>
-      <c r="AQ40" s="286"/>
-      <c r="AR40" s="286"/>
-      <c r="AS40" s="286"/>
-      <c r="AT40" s="286"/>
-      <c r="AU40" s="286"/>
-      <c r="AV40" s="286"/>
-      <c r="AW40" s="286"/>
-      <c r="AX40" s="286"/>
-      <c r="AY40" s="286"/>
+      <c r="AP40" s="290"/>
+      <c r="AQ40" s="290"/>
+      <c r="AR40" s="290"/>
+      <c r="AS40" s="290"/>
+      <c r="AT40" s="290"/>
+      <c r="AU40" s="290"/>
+      <c r="AV40" s="290"/>
+      <c r="AW40" s="290"/>
+      <c r="AX40" s="290"/>
+      <c r="AY40" s="290"/>
       <c r="AZ40" s="5"/>
       <c r="BA40" s="10"/>
       <c r="BH40" s="5"/>
@@ -40935,33 +40934,33 @@
     </row>
     <row r="41" spans="2:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
-      <c r="C41" s="285" t="s">
+      <c r="C41" s="289" t="s">
         <v>211</v>
       </c>
-      <c r="D41" s="285"/>
-      <c r="E41" s="285"/>
-      <c r="F41" s="285"/>
-      <c r="G41" s="285"/>
-      <c r="H41" s="286" t="s">
+      <c r="D41" s="289"/>
+      <c r="E41" s="289"/>
+      <c r="F41" s="289"/>
+      <c r="G41" s="289"/>
+      <c r="H41" s="290" t="s">
         <v>226</v>
       </c>
-      <c r="I41" s="286"/>
-      <c r="J41" s="286"/>
-      <c r="K41" s="286"/>
-      <c r="L41" s="286"/>
-      <c r="M41" s="286"/>
-      <c r="N41" s="286"/>
-      <c r="O41" s="286"/>
-      <c r="P41" s="286"/>
-      <c r="Q41" s="286"/>
-      <c r="R41" s="286"/>
-      <c r="S41" s="286"/>
-      <c r="T41" s="286"/>
-      <c r="U41" s="286"/>
-      <c r="V41" s="286"/>
-      <c r="W41" s="286"/>
-      <c r="X41" s="286"/>
-      <c r="Y41" s="286"/>
+      <c r="I41" s="290"/>
+      <c r="J41" s="290"/>
+      <c r="K41" s="290"/>
+      <c r="L41" s="290"/>
+      <c r="M41" s="290"/>
+      <c r="N41" s="290"/>
+      <c r="O41" s="290"/>
+      <c r="P41" s="290"/>
+      <c r="Q41" s="290"/>
+      <c r="R41" s="290"/>
+      <c r="S41" s="290"/>
+      <c r="T41" s="290"/>
+      <c r="U41" s="290"/>
+      <c r="V41" s="290"/>
+      <c r="W41" s="290"/>
+      <c r="X41" s="290"/>
+      <c r="Y41" s="290"/>
       <c r="Z41" s="10"/>
       <c r="AA41" s="10"/>
       <c r="AB41" s="10"/>
@@ -40973,25 +40972,25 @@
       <c r="AH41" s="6"/>
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
-      <c r="AK41" s="285" t="s">
+      <c r="AK41" s="289" t="s">
         <v>212</v>
       </c>
-      <c r="AL41" s="285"/>
-      <c r="AM41" s="285"/>
-      <c r="AN41" s="285"/>
-      <c r="AO41" s="286" t="s">
+      <c r="AL41" s="289"/>
+      <c r="AM41" s="289"/>
+      <c r="AN41" s="289"/>
+      <c r="AO41" s="290" t="s">
         <v>227</v>
       </c>
-      <c r="AP41" s="286"/>
-      <c r="AQ41" s="286"/>
-      <c r="AR41" s="286"/>
-      <c r="AS41" s="286"/>
-      <c r="AT41" s="286"/>
-      <c r="AU41" s="286"/>
-      <c r="AV41" s="286"/>
-      <c r="AW41" s="286"/>
-      <c r="AX41" s="286"/>
-      <c r="AY41" s="286"/>
+      <c r="AP41" s="290"/>
+      <c r="AQ41" s="290"/>
+      <c r="AR41" s="290"/>
+      <c r="AS41" s="290"/>
+      <c r="AT41" s="290"/>
+      <c r="AU41" s="290"/>
+      <c r="AV41" s="290"/>
+      <c r="AW41" s="290"/>
+      <c r="AX41" s="290"/>
+      <c r="AY41" s="290"/>
       <c r="AZ41" s="5"/>
       <c r="BA41" s="10"/>
       <c r="BB41" s="10"/>
@@ -41010,33 +41009,33 @@
     </row>
     <row r="42" spans="2:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
-      <c r="C42" s="285" t="s">
+      <c r="C42" s="289" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="285"/>
-      <c r="E42" s="285"/>
-      <c r="F42" s="285"/>
-      <c r="G42" s="285"/>
-      <c r="H42" s="286" t="s">
+      <c r="D42" s="289"/>
+      <c r="E42" s="289"/>
+      <c r="F42" s="289"/>
+      <c r="G42" s="289"/>
+      <c r="H42" s="290" t="s">
         <v>228</v>
       </c>
-      <c r="I42" s="286"/>
-      <c r="J42" s="286"/>
-      <c r="K42" s="286"/>
-      <c r="L42" s="286"/>
-      <c r="M42" s="286"/>
-      <c r="N42" s="286"/>
-      <c r="O42" s="286"/>
-      <c r="P42" s="286"/>
-      <c r="Q42" s="286"/>
-      <c r="R42" s="286"/>
-      <c r="S42" s="286"/>
-      <c r="T42" s="286"/>
-      <c r="U42" s="286"/>
-      <c r="V42" s="286"/>
-      <c r="W42" s="286"/>
-      <c r="X42" s="286"/>
-      <c r="Y42" s="286"/>
+      <c r="I42" s="290"/>
+      <c r="J42" s="290"/>
+      <c r="K42" s="290"/>
+      <c r="L42" s="290"/>
+      <c r="M42" s="290"/>
+      <c r="N42" s="290"/>
+      <c r="O42" s="290"/>
+      <c r="P42" s="290"/>
+      <c r="Q42" s="290"/>
+      <c r="R42" s="290"/>
+      <c r="S42" s="290"/>
+      <c r="T42" s="290"/>
+      <c r="U42" s="290"/>
+      <c r="V42" s="290"/>
+      <c r="W42" s="290"/>
+      <c r="X42" s="290"/>
+      <c r="Y42" s="290"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
@@ -41048,25 +41047,25 @@
       <c r="AH42" s="6"/>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
-      <c r="AK42" s="285" t="s">
+      <c r="AK42" s="289" t="s">
         <v>214</v>
       </c>
-      <c r="AL42" s="285"/>
-      <c r="AM42" s="285"/>
-      <c r="AN42" s="285"/>
-      <c r="AO42" s="286" t="s">
+      <c r="AL42" s="289"/>
+      <c r="AM42" s="289"/>
+      <c r="AN42" s="289"/>
+      <c r="AO42" s="290" t="s">
         <v>229</v>
       </c>
-      <c r="AP42" s="286"/>
-      <c r="AQ42" s="286"/>
-      <c r="AR42" s="286"/>
-      <c r="AS42" s="286"/>
-      <c r="AT42" s="286"/>
-      <c r="AU42" s="286"/>
-      <c r="AV42" s="286"/>
-      <c r="AW42" s="286"/>
-      <c r="AX42" s="286"/>
-      <c r="AY42" s="286"/>
+      <c r="AP42" s="290"/>
+      <c r="AQ42" s="290"/>
+      <c r="AR42" s="290"/>
+      <c r="AS42" s="290"/>
+      <c r="AT42" s="290"/>
+      <c r="AU42" s="290"/>
+      <c r="AV42" s="290"/>
+      <c r="AW42" s="290"/>
+      <c r="AX42" s="290"/>
+      <c r="AY42" s="290"/>
       <c r="AZ42" s="5"/>
       <c r="BA42" s="10"/>
       <c r="BB42" s="10"/>
@@ -41085,33 +41084,33 @@
     </row>
     <row r="43" spans="2:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
-      <c r="C43" s="285" t="s">
+      <c r="C43" s="289" t="s">
         <v>215</v>
       </c>
-      <c r="D43" s="285"/>
-      <c r="E43" s="285"/>
-      <c r="F43" s="285"/>
-      <c r="G43" s="285"/>
-      <c r="H43" s="286" t="s">
+      <c r="D43" s="289"/>
+      <c r="E43" s="289"/>
+      <c r="F43" s="289"/>
+      <c r="G43" s="289"/>
+      <c r="H43" s="290" t="s">
         <v>230</v>
       </c>
-      <c r="I43" s="286"/>
-      <c r="J43" s="286"/>
-      <c r="K43" s="286"/>
-      <c r="L43" s="286"/>
-      <c r="M43" s="286"/>
-      <c r="N43" s="286"/>
-      <c r="O43" s="286"/>
-      <c r="P43" s="286"/>
-      <c r="Q43" s="286"/>
-      <c r="R43" s="286"/>
-      <c r="S43" s="286"/>
-      <c r="T43" s="286"/>
-      <c r="U43" s="286"/>
-      <c r="V43" s="286"/>
-      <c r="W43" s="286"/>
-      <c r="X43" s="286"/>
-      <c r="Y43" s="286"/>
+      <c r="I43" s="290"/>
+      <c r="J43" s="290"/>
+      <c r="K43" s="290"/>
+      <c r="L43" s="290"/>
+      <c r="M43" s="290"/>
+      <c r="N43" s="290"/>
+      <c r="O43" s="290"/>
+      <c r="P43" s="290"/>
+      <c r="Q43" s="290"/>
+      <c r="R43" s="290"/>
+      <c r="S43" s="290"/>
+      <c r="T43" s="290"/>
+      <c r="U43" s="290"/>
+      <c r="V43" s="290"/>
+      <c r="W43" s="290"/>
+      <c r="X43" s="290"/>
+      <c r="Y43" s="290"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
@@ -41123,25 +41122,25 @@
       <c r="AH43" s="6"/>
       <c r="AI43" s="5"/>
       <c r="AJ43" s="5"/>
-      <c r="AK43" s="285" t="s">
+      <c r="AK43" s="289" t="s">
         <v>216</v>
       </c>
-      <c r="AL43" s="285"/>
-      <c r="AM43" s="285"/>
-      <c r="AN43" s="285"/>
-      <c r="AO43" s="286" t="s">
+      <c r="AL43" s="289"/>
+      <c r="AM43" s="289"/>
+      <c r="AN43" s="289"/>
+      <c r="AO43" s="290" t="s">
         <v>231</v>
       </c>
-      <c r="AP43" s="286"/>
-      <c r="AQ43" s="286"/>
-      <c r="AR43" s="286"/>
-      <c r="AS43" s="286"/>
-      <c r="AT43" s="286"/>
-      <c r="AU43" s="286"/>
-      <c r="AV43" s="286"/>
-      <c r="AW43" s="286"/>
-      <c r="AX43" s="286"/>
-      <c r="AY43" s="286"/>
+      <c r="AP43" s="290"/>
+      <c r="AQ43" s="290"/>
+      <c r="AR43" s="290"/>
+      <c r="AS43" s="290"/>
+      <c r="AT43" s="290"/>
+      <c r="AU43" s="290"/>
+      <c r="AV43" s="290"/>
+      <c r="AW43" s="290"/>
+      <c r="AX43" s="290"/>
+      <c r="AY43" s="290"/>
       <c r="AZ43" s="5"/>
       <c r="BA43" s="10"/>
       <c r="BB43" s="10"/>
@@ -41160,33 +41159,33 @@
     </row>
     <row r="44" spans="2:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
-      <c r="C44" s="285" t="s">
+      <c r="C44" s="289" t="s">
         <v>217</v>
       </c>
-      <c r="D44" s="285"/>
-      <c r="E44" s="285"/>
-      <c r="F44" s="285"/>
-      <c r="G44" s="285"/>
-      <c r="H44" s="286" t="s">
+      <c r="D44" s="289"/>
+      <c r="E44" s="289"/>
+      <c r="F44" s="289"/>
+      <c r="G44" s="289"/>
+      <c r="H44" s="290" t="s">
         <v>232</v>
       </c>
-      <c r="I44" s="286"/>
-      <c r="J44" s="286"/>
-      <c r="K44" s="286"/>
-      <c r="L44" s="286"/>
-      <c r="M44" s="286"/>
-      <c r="N44" s="286"/>
-      <c r="O44" s="286"/>
-      <c r="P44" s="286"/>
-      <c r="Q44" s="286"/>
-      <c r="R44" s="286"/>
-      <c r="S44" s="286"/>
-      <c r="T44" s="286"/>
-      <c r="U44" s="286"/>
-      <c r="V44" s="286"/>
-      <c r="W44" s="286"/>
-      <c r="X44" s="286"/>
-      <c r="Y44" s="286"/>
+      <c r="I44" s="290"/>
+      <c r="J44" s="290"/>
+      <c r="K44" s="290"/>
+      <c r="L44" s="290"/>
+      <c r="M44" s="290"/>
+      <c r="N44" s="290"/>
+      <c r="O44" s="290"/>
+      <c r="P44" s="290"/>
+      <c r="Q44" s="290"/>
+      <c r="R44" s="290"/>
+      <c r="S44" s="290"/>
+      <c r="T44" s="290"/>
+      <c r="U44" s="290"/>
+      <c r="V44" s="290"/>
+      <c r="W44" s="290"/>
+      <c r="X44" s="290"/>
+      <c r="Y44" s="290"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
@@ -41198,25 +41197,25 @@
       <c r="AH44" s="6"/>
       <c r="AI44" s="5"/>
       <c r="AJ44" s="5"/>
-      <c r="AK44" s="285" t="s">
+      <c r="AK44" s="289" t="s">
         <v>218</v>
       </c>
-      <c r="AL44" s="285"/>
-      <c r="AM44" s="285"/>
-      <c r="AN44" s="285"/>
-      <c r="AO44" s="286" t="s">
+      <c r="AL44" s="289"/>
+      <c r="AM44" s="289"/>
+      <c r="AN44" s="289"/>
+      <c r="AO44" s="290" t="s">
         <v>233</v>
       </c>
-      <c r="AP44" s="286"/>
-      <c r="AQ44" s="286"/>
-      <c r="AR44" s="286"/>
-      <c r="AS44" s="286"/>
-      <c r="AT44" s="286"/>
-      <c r="AU44" s="286"/>
-      <c r="AV44" s="286"/>
-      <c r="AW44" s="286"/>
-      <c r="AX44" s="286"/>
-      <c r="AY44" s="286"/>
+      <c r="AP44" s="290"/>
+      <c r="AQ44" s="290"/>
+      <c r="AR44" s="290"/>
+      <c r="AS44" s="290"/>
+      <c r="AT44" s="290"/>
+      <c r="AU44" s="290"/>
+      <c r="AV44" s="290"/>
+      <c r="AW44" s="290"/>
+      <c r="AX44" s="290"/>
+      <c r="AY44" s="290"/>
       <c r="AZ44" s="5"/>
       <c r="BA44" s="10"/>
       <c r="BB44" s="10"/>
@@ -41235,33 +41234,33 @@
     </row>
     <row r="45" spans="2:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
-      <c r="C45" s="285" t="s">
+      <c r="C45" s="289" t="s">
         <v>219</v>
       </c>
-      <c r="D45" s="285"/>
-      <c r="E45" s="285"/>
-      <c r="F45" s="285"/>
-      <c r="G45" s="285"/>
-      <c r="H45" s="286" t="s">
+      <c r="D45" s="289"/>
+      <c r="E45" s="289"/>
+      <c r="F45" s="289"/>
+      <c r="G45" s="289"/>
+      <c r="H45" s="290" t="s">
         <v>234</v>
       </c>
-      <c r="I45" s="286"/>
-      <c r="J45" s="286"/>
-      <c r="K45" s="286"/>
-      <c r="L45" s="286"/>
-      <c r="M45" s="286"/>
-      <c r="N45" s="286"/>
-      <c r="O45" s="286"/>
-      <c r="P45" s="286"/>
-      <c r="Q45" s="286"/>
-      <c r="R45" s="286"/>
-      <c r="S45" s="286"/>
-      <c r="T45" s="286"/>
-      <c r="U45" s="286"/>
-      <c r="V45" s="286"/>
-      <c r="W45" s="286"/>
-      <c r="X45" s="286"/>
-      <c r="Y45" s="286"/>
+      <c r="I45" s="290"/>
+      <c r="J45" s="290"/>
+      <c r="K45" s="290"/>
+      <c r="L45" s="290"/>
+      <c r="M45" s="290"/>
+      <c r="N45" s="290"/>
+      <c r="O45" s="290"/>
+      <c r="P45" s="290"/>
+      <c r="Q45" s="290"/>
+      <c r="R45" s="290"/>
+      <c r="S45" s="290"/>
+      <c r="T45" s="290"/>
+      <c r="U45" s="290"/>
+      <c r="V45" s="290"/>
+      <c r="W45" s="290"/>
+      <c r="X45" s="290"/>
+      <c r="Y45" s="290"/>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
@@ -41273,25 +41272,25 @@
       <c r="AH45" s="6"/>
       <c r="AI45" s="5"/>
       <c r="AJ45" s="5"/>
-      <c r="AK45" s="285" t="s">
+      <c r="AK45" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="AL45" s="285"/>
-      <c r="AM45" s="285"/>
-      <c r="AN45" s="285"/>
-      <c r="AO45" s="286" t="s">
+      <c r="AL45" s="289"/>
+      <c r="AM45" s="289"/>
+      <c r="AN45" s="289"/>
+      <c r="AO45" s="290" t="s">
         <v>235</v>
       </c>
-      <c r="AP45" s="286"/>
-      <c r="AQ45" s="286"/>
-      <c r="AR45" s="286"/>
-      <c r="AS45" s="286"/>
-      <c r="AT45" s="286"/>
-      <c r="AU45" s="286"/>
-      <c r="AV45" s="286"/>
-      <c r="AW45" s="286"/>
-      <c r="AX45" s="286"/>
-      <c r="AY45" s="286"/>
+      <c r="AP45" s="290"/>
+      <c r="AQ45" s="290"/>
+      <c r="AR45" s="290"/>
+      <c r="AS45" s="290"/>
+      <c r="AT45" s="290"/>
+      <c r="AU45" s="290"/>
+      <c r="AV45" s="290"/>
+      <c r="AW45" s="290"/>
+      <c r="AX45" s="290"/>
+      <c r="AY45" s="290"/>
       <c r="AZ45" s="5"/>
       <c r="BA45" s="10"/>
       <c r="BB45" s="10"/>
@@ -41310,33 +41309,33 @@
     </row>
     <row r="46" spans="2:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
-      <c r="C46" s="285" t="s">
+      <c r="C46" s="289" t="s">
         <v>221</v>
       </c>
-      <c r="D46" s="285"/>
-      <c r="E46" s="285"/>
-      <c r="F46" s="285"/>
-      <c r="G46" s="285"/>
-      <c r="H46" s="286" t="s">
+      <c r="D46" s="289"/>
+      <c r="E46" s="289"/>
+      <c r="F46" s="289"/>
+      <c r="G46" s="289"/>
+      <c r="H46" s="290" t="s">
         <v>236</v>
       </c>
-      <c r="I46" s="286"/>
-      <c r="J46" s="286"/>
-      <c r="K46" s="286"/>
-      <c r="L46" s="286"/>
-      <c r="M46" s="286"/>
-      <c r="N46" s="286"/>
-      <c r="O46" s="286"/>
-      <c r="P46" s="286"/>
-      <c r="Q46" s="286"/>
-      <c r="R46" s="286"/>
-      <c r="S46" s="286"/>
-      <c r="T46" s="286"/>
-      <c r="U46" s="286"/>
-      <c r="V46" s="286"/>
-      <c r="W46" s="286"/>
-      <c r="X46" s="286"/>
-      <c r="Y46" s="286"/>
+      <c r="I46" s="290"/>
+      <c r="J46" s="290"/>
+      <c r="K46" s="290"/>
+      <c r="L46" s="290"/>
+      <c r="M46" s="290"/>
+      <c r="N46" s="290"/>
+      <c r="O46" s="290"/>
+      <c r="P46" s="290"/>
+      <c r="Q46" s="290"/>
+      <c r="R46" s="290"/>
+      <c r="S46" s="290"/>
+      <c r="T46" s="290"/>
+      <c r="U46" s="290"/>
+      <c r="V46" s="290"/>
+      <c r="W46" s="290"/>
+      <c r="X46" s="290"/>
+      <c r="Y46" s="290"/>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
@@ -41348,25 +41347,25 @@
       <c r="AH46" s="6"/>
       <c r="AI46" s="5"/>
       <c r="AJ46" s="5"/>
-      <c r="AK46" s="285" t="s">
+      <c r="AK46" s="289" t="s">
         <v>222</v>
       </c>
-      <c r="AL46" s="285"/>
-      <c r="AM46" s="285"/>
-      <c r="AN46" s="285"/>
-      <c r="AO46" s="286" t="s">
+      <c r="AL46" s="289"/>
+      <c r="AM46" s="289"/>
+      <c r="AN46" s="289"/>
+      <c r="AO46" s="290" t="s">
         <v>156</v>
       </c>
-      <c r="AP46" s="286"/>
-      <c r="AQ46" s="286"/>
-      <c r="AR46" s="286"/>
-      <c r="AS46" s="286"/>
-      <c r="AT46" s="286"/>
-      <c r="AU46" s="286"/>
-      <c r="AV46" s="286"/>
-      <c r="AW46" s="286"/>
-      <c r="AX46" s="286"/>
-      <c r="AY46" s="286"/>
+      <c r="AP46" s="290"/>
+      <c r="AQ46" s="290"/>
+      <c r="AR46" s="290"/>
+      <c r="AS46" s="290"/>
+      <c r="AT46" s="290"/>
+      <c r="AU46" s="290"/>
+      <c r="AV46" s="290"/>
+      <c r="AW46" s="290"/>
+      <c r="AX46" s="290"/>
+      <c r="AY46" s="290"/>
       <c r="AZ46" s="10"/>
       <c r="BA46" s="10"/>
       <c r="BB46" s="10"/>
@@ -41384,33 +41383,33 @@
       <c r="BN46" s="10"/>
     </row>
     <row r="47" spans="2:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="285" t="s">
+      <c r="C47" s="289" t="s">
         <v>223</v>
       </c>
-      <c r="D47" s="285"/>
-      <c r="E47" s="285"/>
-      <c r="F47" s="285"/>
-      <c r="G47" s="285"/>
-      <c r="H47" s="286" t="s">
+      <c r="D47" s="289"/>
+      <c r="E47" s="289"/>
+      <c r="F47" s="289"/>
+      <c r="G47" s="289"/>
+      <c r="H47" s="290" t="s">
         <v>237</v>
       </c>
-      <c r="I47" s="286"/>
-      <c r="J47" s="286"/>
-      <c r="K47" s="286"/>
-      <c r="L47" s="286"/>
-      <c r="M47" s="286"/>
-      <c r="N47" s="286"/>
-      <c r="O47" s="286"/>
-      <c r="P47" s="286"/>
-      <c r="Q47" s="286"/>
-      <c r="R47" s="286"/>
-      <c r="S47" s="286"/>
-      <c r="T47" s="286"/>
-      <c r="U47" s="286"/>
-      <c r="V47" s="286"/>
-      <c r="W47" s="286"/>
-      <c r="X47" s="286"/>
-      <c r="Y47" s="286"/>
+      <c r="I47" s="290"/>
+      <c r="J47" s="290"/>
+      <c r="K47" s="290"/>
+      <c r="L47" s="290"/>
+      <c r="M47" s="290"/>
+      <c r="N47" s="290"/>
+      <c r="O47" s="290"/>
+      <c r="P47" s="290"/>
+      <c r="Q47" s="290"/>
+      <c r="R47" s="290"/>
+      <c r="S47" s="290"/>
+      <c r="T47" s="290"/>
+      <c r="U47" s="290"/>
+      <c r="V47" s="290"/>
+      <c r="W47" s="290"/>
+      <c r="X47" s="290"/>
+      <c r="Y47" s="290"/>
       <c r="AH47" s="4"/>
     </row>
     <row r="48" spans="2:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -44275,6 +44274,45 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:Y47"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:Y45"/>
+    <mergeCell ref="AK45:AN45"/>
+    <mergeCell ref="AO45:AY45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:Y46"/>
+    <mergeCell ref="AK46:AN46"/>
+    <mergeCell ref="AO46:AY46"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:Y43"/>
+    <mergeCell ref="AK43:AN43"/>
+    <mergeCell ref="AO43:AY43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:Y44"/>
+    <mergeCell ref="AK44:AN44"/>
+    <mergeCell ref="AO44:AY44"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:Y41"/>
+    <mergeCell ref="AK41:AN41"/>
+    <mergeCell ref="AO41:AY41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:Y42"/>
+    <mergeCell ref="AK42:AN42"/>
+    <mergeCell ref="AO42:AY42"/>
+    <mergeCell ref="AE36:AH36"/>
+    <mergeCell ref="AE37:AH37"/>
+    <mergeCell ref="AE38:AO38"/>
+    <mergeCell ref="AE39:AH39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:X40"/>
+    <mergeCell ref="AK40:AN40"/>
+    <mergeCell ref="AO40:AY40"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AE35:AH35"/>
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="AY1:AZ1"/>
@@ -44285,45 +44323,6 @@
     <mergeCell ref="Q1:V1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AE35:AH35"/>
-    <mergeCell ref="AE36:AH36"/>
-    <mergeCell ref="AE37:AH37"/>
-    <mergeCell ref="AE38:AO38"/>
-    <mergeCell ref="AE39:AH39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:X40"/>
-    <mergeCell ref="AK40:AN40"/>
-    <mergeCell ref="AO40:AY40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:Y41"/>
-    <mergeCell ref="AK41:AN41"/>
-    <mergeCell ref="AO41:AY41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:Y42"/>
-    <mergeCell ref="AK42:AN42"/>
-    <mergeCell ref="AO42:AY42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:Y43"/>
-    <mergeCell ref="AK43:AN43"/>
-    <mergeCell ref="AO43:AY43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:Y44"/>
-    <mergeCell ref="AK44:AN44"/>
-    <mergeCell ref="AO44:AY44"/>
-    <mergeCell ref="AO45:AY45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:Y46"/>
-    <mergeCell ref="AK46:AN46"/>
-    <mergeCell ref="AO46:AY46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:Y47"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:Y45"/>
-    <mergeCell ref="AK45:AN45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -44368,46 +44367,46 @@
   <sheetData>
     <row r="1" spans="1:62" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
-      <c r="C1" s="288" t="s">
+      <c r="C1" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="288" t="s">
+      <c r="H1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
       <c r="N1" s="79"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="288" t="s">
+      <c r="P1" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="288"/>
-      <c r="R1" s="288"/>
-      <c r="S1" s="288"/>
-      <c r="T1" s="288"/>
-      <c r="U1" s="288"/>
+      <c r="Q1" s="285"/>
+      <c r="R1" s="285"/>
+      <c r="S1" s="285"/>
+      <c r="T1" s="285"/>
+      <c r="U1" s="285"/>
       <c r="V1" s="8"/>
-      <c r="W1" s="288" t="s">
+      <c r="W1" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="288"/>
+      <c r="X1" s="285"/>
       <c r="Y1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="290" t="s">
+      <c r="Z1" s="286" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="290"/>
-      <c r="AB1" s="290"/>
-      <c r="AC1" s="290"/>
-      <c r="AD1" s="290"/>
+      <c r="AA1" s="286"/>
+      <c r="AB1" s="286"/>
+      <c r="AC1" s="286"/>
+      <c r="AD1" s="286"/>
       <c r="AE1" s="9" t="s">
         <v>6</v>
       </c>
@@ -44423,29 +44422,29 @@
       <c r="AI1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AJ1" s="288" t="s">
+      <c r="AJ1" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="288"/>
+      <c r="AK1" s="285"/>
       <c r="AL1" s="8"/>
-      <c r="AN1" s="288" t="s">
+      <c r="AN1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="AO1" s="288"/>
-      <c r="AP1" s="288"/>
-      <c r="AQ1" s="288"/>
-      <c r="AR1" s="288"/>
+      <c r="AO1" s="285"/>
+      <c r="AP1" s="285"/>
+      <c r="AQ1" s="285"/>
+      <c r="AR1" s="285"/>
       <c r="AS1" s="8"/>
-      <c r="AT1" s="288" t="s">
+      <c r="AT1" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="288"/>
-      <c r="AV1" s="288"/>
+      <c r="AU1" s="285"/>
+      <c r="AV1" s="285"/>
       <c r="AW1" s="8"/>
-      <c r="AX1" s="288" t="s">
+      <c r="AX1" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AY1" s="288"/>
+      <c r="AY1" s="285"/>
       <c r="AZ1" s="7"/>
       <c r="BB1" s="10"/>
       <c r="BC1" s="10"/>
@@ -47303,8 +47302,8 @@
       <c r="AA34" s="79"/>
       <c r="AB34" s="79"/>
       <c r="AC34" s="79"/>
-      <c r="AD34" s="289"/>
-      <c r="AE34" s="289"/>
+      <c r="AD34" s="287"/>
+      <c r="AE34" s="287"/>
       <c r="AG34" s="6"/>
       <c r="AH34" s="79"/>
       <c r="AI34" s="91" t="s">
@@ -47372,10 +47371,10 @@
       <c r="AA35" s="79"/>
       <c r="AB35" s="79"/>
       <c r="AC35" s="79"/>
-      <c r="AD35" s="287"/>
-      <c r="AE35" s="287"/>
-      <c r="AF35" s="287"/>
-      <c r="AG35" s="287"/>
+      <c r="AD35" s="288"/>
+      <c r="AE35" s="288"/>
+      <c r="AF35" s="288"/>
+      <c r="AG35" s="288"/>
       <c r="AH35" s="79"/>
       <c r="AI35" s="99" t="s">
         <v>13</v>
@@ -47430,10 +47429,10 @@
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
-      <c r="AD36" s="287"/>
-      <c r="AE36" s="287"/>
-      <c r="AF36" s="287"/>
-      <c r="AG36" s="287"/>
+      <c r="AD36" s="288"/>
+      <c r="AE36" s="288"/>
+      <c r="AF36" s="288"/>
+      <c r="AG36" s="288"/>
       <c r="AH36" s="79"/>
       <c r="AI36" s="103" t="s">
         <v>13</v>
@@ -47494,10 +47493,10 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
-      <c r="AD37" s="287"/>
-      <c r="AE37" s="287"/>
-      <c r="AF37" s="287"/>
-      <c r="AG37" s="287"/>
+      <c r="AD37" s="288"/>
+      <c r="AE37" s="288"/>
+      <c r="AF37" s="288"/>
+      <c r="AG37" s="288"/>
       <c r="AH37" s="79"/>
       <c r="AI37" s="191" t="s">
         <v>13</v>
@@ -47554,17 +47553,17 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
-      <c r="AD38" s="287"/>
-      <c r="AE38" s="287"/>
-      <c r="AF38" s="287"/>
-      <c r="AG38" s="287"/>
-      <c r="AH38" s="287"/>
-      <c r="AI38" s="287"/>
-      <c r="AJ38" s="287"/>
-      <c r="AK38" s="287"/>
-      <c r="AL38" s="287"/>
-      <c r="AM38" s="287"/>
-      <c r="AN38" s="287"/>
+      <c r="AD38" s="288"/>
+      <c r="AE38" s="288"/>
+      <c r="AF38" s="288"/>
+      <c r="AG38" s="288"/>
+      <c r="AH38" s="288"/>
+      <c r="AI38" s="288"/>
+      <c r="AJ38" s="288"/>
+      <c r="AK38" s="288"/>
+      <c r="AL38" s="288"/>
+      <c r="AM38" s="288"/>
+      <c r="AN38" s="288"/>
       <c r="AO38" s="10"/>
       <c r="AP38" s="54"/>
       <c r="AQ38" s="10"/>
@@ -47608,10 +47607,10 @@
         <v>250</v>
       </c>
       <c r="AC39" s="5"/>
-      <c r="AD39" s="287"/>
-      <c r="AE39" s="287"/>
-      <c r="AF39" s="287"/>
-      <c r="AG39" s="287"/>
+      <c r="AD39" s="288"/>
+      <c r="AE39" s="288"/>
+      <c r="AF39" s="288"/>
+      <c r="AG39" s="288"/>
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
@@ -47641,56 +47640,56 @@
     </row>
     <row r="40" spans="2:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
-      <c r="C40" s="285" t="s">
+      <c r="C40" s="289" t="s">
         <v>239</v>
       </c>
-      <c r="D40" s="285"/>
-      <c r="E40" s="285"/>
-      <c r="F40" s="285"/>
-      <c r="G40" s="285"/>
-      <c r="H40" s="286" t="s">
+      <c r="D40" s="289"/>
+      <c r="E40" s="289"/>
+      <c r="F40" s="289"/>
+      <c r="G40" s="289"/>
+      <c r="H40" s="290" t="s">
         <v>251</v>
       </c>
-      <c r="I40" s="286"/>
-      <c r="J40" s="286"/>
-      <c r="K40" s="286"/>
-      <c r="L40" s="286"/>
-      <c r="M40" s="286"/>
-      <c r="N40" s="286"/>
-      <c r="O40" s="286"/>
-      <c r="P40" s="286"/>
-      <c r="Q40" s="286"/>
-      <c r="R40" s="286"/>
-      <c r="S40" s="286"/>
-      <c r="T40" s="286"/>
-      <c r="U40" s="286"/>
-      <c r="V40" s="286"/>
-      <c r="W40" s="286"/>
-      <c r="X40" s="286"/>
+      <c r="I40" s="290"/>
+      <c r="J40" s="290"/>
+      <c r="K40" s="290"/>
+      <c r="L40" s="290"/>
+      <c r="M40" s="290"/>
+      <c r="N40" s="290"/>
+      <c r="O40" s="290"/>
+      <c r="P40" s="290"/>
+      <c r="Q40" s="290"/>
+      <c r="R40" s="290"/>
+      <c r="S40" s="290"/>
+      <c r="T40" s="290"/>
+      <c r="U40" s="290"/>
+      <c r="V40" s="290"/>
+      <c r="W40" s="290"/>
+      <c r="X40" s="290"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="6"/>
       <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
-      <c r="AJ40" s="285" t="s">
+      <c r="AJ40" s="289" t="s">
         <v>210</v>
       </c>
-      <c r="AK40" s="285"/>
-      <c r="AL40" s="285"/>
-      <c r="AM40" s="285"/>
-      <c r="AN40" s="286" t="s">
+      <c r="AK40" s="289"/>
+      <c r="AL40" s="289"/>
+      <c r="AM40" s="289"/>
+      <c r="AN40" s="290" t="s">
         <v>225</v>
       </c>
-      <c r="AO40" s="286"/>
-      <c r="AP40" s="286"/>
-      <c r="AQ40" s="286"/>
-      <c r="AR40" s="286"/>
-      <c r="AS40" s="286"/>
-      <c r="AT40" s="286"/>
-      <c r="AU40" s="286"/>
-      <c r="AV40" s="286"/>
-      <c r="AW40" s="286"/>
-      <c r="AX40" s="286"/>
+      <c r="AO40" s="290"/>
+      <c r="AP40" s="290"/>
+      <c r="AQ40" s="290"/>
+      <c r="AR40" s="290"/>
+      <c r="AS40" s="290"/>
+      <c r="AT40" s="290"/>
+      <c r="AU40" s="290"/>
+      <c r="AV40" s="290"/>
+      <c r="AW40" s="290"/>
+      <c r="AX40" s="290"/>
       <c r="AY40" s="5"/>
       <c r="AZ40" s="10"/>
       <c r="BG40" s="5"/>
@@ -47705,32 +47704,32 @@
       <c r="B41" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C41" s="285" t="s">
+      <c r="C41" s="289" t="s">
         <v>241</v>
       </c>
-      <c r="D41" s="285"/>
-      <c r="E41" s="285"/>
-      <c r="F41" s="285"/>
-      <c r="G41" s="285"/>
-      <c r="H41" s="286" t="s">
+      <c r="D41" s="289"/>
+      <c r="E41" s="289"/>
+      <c r="F41" s="289"/>
+      <c r="G41" s="289"/>
+      <c r="H41" s="290" t="s">
         <v>230</v>
       </c>
-      <c r="I41" s="286"/>
-      <c r="J41" s="286"/>
-      <c r="K41" s="286"/>
-      <c r="L41" s="286"/>
-      <c r="M41" s="286"/>
-      <c r="N41" s="286"/>
-      <c r="O41" s="286"/>
-      <c r="P41" s="286"/>
-      <c r="Q41" s="286"/>
-      <c r="R41" s="286"/>
-      <c r="S41" s="286"/>
-      <c r="T41" s="286"/>
-      <c r="U41" s="286"/>
-      <c r="V41" s="286"/>
-      <c r="W41" s="286"/>
-      <c r="X41" s="286"/>
+      <c r="I41" s="290"/>
+      <c r="J41" s="290"/>
+      <c r="K41" s="290"/>
+      <c r="L41" s="290"/>
+      <c r="M41" s="290"/>
+      <c r="N41" s="290"/>
+      <c r="O41" s="290"/>
+      <c r="P41" s="290"/>
+      <c r="Q41" s="290"/>
+      <c r="R41" s="290"/>
+      <c r="S41" s="290"/>
+      <c r="T41" s="290"/>
+      <c r="U41" s="290"/>
+      <c r="V41" s="290"/>
+      <c r="W41" s="290"/>
+      <c r="X41" s="290"/>
       <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
       <c r="AA41" s="10"/>
@@ -47742,25 +47741,25 @@
       <c r="AG41" s="6"/>
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
-      <c r="AJ41" s="285" t="s">
+      <c r="AJ41" s="289" t="s">
         <v>212</v>
       </c>
-      <c r="AK41" s="285"/>
-      <c r="AL41" s="285"/>
-      <c r="AM41" s="285"/>
-      <c r="AN41" s="286" t="s">
+      <c r="AK41" s="289"/>
+      <c r="AL41" s="289"/>
+      <c r="AM41" s="289"/>
+      <c r="AN41" s="290" t="s">
         <v>227</v>
       </c>
-      <c r="AO41" s="286"/>
-      <c r="AP41" s="286"/>
-      <c r="AQ41" s="286"/>
-      <c r="AR41" s="286"/>
-      <c r="AS41" s="286"/>
-      <c r="AT41" s="286"/>
-      <c r="AU41" s="286"/>
-      <c r="AV41" s="286"/>
-      <c r="AW41" s="286"/>
-      <c r="AX41" s="286"/>
+      <c r="AO41" s="290"/>
+      <c r="AP41" s="290"/>
+      <c r="AQ41" s="290"/>
+      <c r="AR41" s="290"/>
+      <c r="AS41" s="290"/>
+      <c r="AT41" s="290"/>
+      <c r="AU41" s="290"/>
+      <c r="AV41" s="290"/>
+      <c r="AW41" s="290"/>
+      <c r="AX41" s="290"/>
       <c r="AY41" s="5"/>
       <c r="AZ41" s="10"/>
       <c r="BA41" s="10"/>
@@ -47781,32 +47780,32 @@
       <c r="B42" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C42" s="285" t="s">
+      <c r="C42" s="289" t="s">
         <v>238</v>
       </c>
-      <c r="D42" s="285"/>
-      <c r="E42" s="285"/>
-      <c r="F42" s="285"/>
-      <c r="G42" s="285"/>
-      <c r="H42" s="286" t="s">
+      <c r="D42" s="289"/>
+      <c r="E42" s="289"/>
+      <c r="F42" s="289"/>
+      <c r="G42" s="289"/>
+      <c r="H42" s="290" t="s">
         <v>253</v>
       </c>
-      <c r="I42" s="286"/>
-      <c r="J42" s="286"/>
-      <c r="K42" s="286"/>
-      <c r="L42" s="286"/>
-      <c r="M42" s="286"/>
-      <c r="N42" s="286"/>
-      <c r="O42" s="286"/>
-      <c r="P42" s="286"/>
-      <c r="Q42" s="286"/>
-      <c r="R42" s="286"/>
-      <c r="S42" s="286"/>
-      <c r="T42" s="286"/>
-      <c r="U42" s="286"/>
-      <c r="V42" s="286"/>
-      <c r="W42" s="286"/>
-      <c r="X42" s="286"/>
+      <c r="I42" s="290"/>
+      <c r="J42" s="290"/>
+      <c r="K42" s="290"/>
+      <c r="L42" s="290"/>
+      <c r="M42" s="290"/>
+      <c r="N42" s="290"/>
+      <c r="O42" s="290"/>
+      <c r="P42" s="290"/>
+      <c r="Q42" s="290"/>
+      <c r="R42" s="290"/>
+      <c r="S42" s="290"/>
+      <c r="T42" s="290"/>
+      <c r="U42" s="290"/>
+      <c r="V42" s="290"/>
+      <c r="W42" s="290"/>
+      <c r="X42" s="290"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
@@ -47818,25 +47817,25 @@
       <c r="AG42" s="6"/>
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
-      <c r="AJ42" s="285" t="s">
+      <c r="AJ42" s="289" t="s">
         <v>214</v>
       </c>
-      <c r="AK42" s="285"/>
-      <c r="AL42" s="285"/>
-      <c r="AM42" s="285"/>
-      <c r="AN42" s="286" t="s">
+      <c r="AK42" s="289"/>
+      <c r="AL42" s="289"/>
+      <c r="AM42" s="289"/>
+      <c r="AN42" s="290" t="s">
         <v>229</v>
       </c>
-      <c r="AO42" s="286"/>
-      <c r="AP42" s="286"/>
-      <c r="AQ42" s="286"/>
-      <c r="AR42" s="286"/>
-      <c r="AS42" s="286"/>
-      <c r="AT42" s="286"/>
-      <c r="AU42" s="286"/>
-      <c r="AV42" s="286"/>
-      <c r="AW42" s="286"/>
-      <c r="AX42" s="286"/>
+      <c r="AO42" s="290"/>
+      <c r="AP42" s="290"/>
+      <c r="AQ42" s="290"/>
+      <c r="AR42" s="290"/>
+      <c r="AS42" s="290"/>
+      <c r="AT42" s="290"/>
+      <c r="AU42" s="290"/>
+      <c r="AV42" s="290"/>
+      <c r="AW42" s="290"/>
+      <c r="AX42" s="290"/>
       <c r="AY42" s="5"/>
       <c r="AZ42" s="10"/>
       <c r="BA42" s="10"/>
@@ -47857,32 +47856,32 @@
       <c r="B43" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="285" t="s">
+      <c r="C43" s="289" t="s">
         <v>244</v>
       </c>
-      <c r="D43" s="285"/>
-      <c r="E43" s="285"/>
-      <c r="F43" s="285"/>
-      <c r="G43" s="285"/>
-      <c r="H43" s="286" t="s">
+      <c r="D43" s="289"/>
+      <c r="E43" s="289"/>
+      <c r="F43" s="289"/>
+      <c r="G43" s="289"/>
+      <c r="H43" s="290" t="s">
         <v>234</v>
       </c>
-      <c r="I43" s="286"/>
-      <c r="J43" s="286"/>
-      <c r="K43" s="286"/>
-      <c r="L43" s="286"/>
-      <c r="M43" s="286"/>
-      <c r="N43" s="286"/>
-      <c r="O43" s="286"/>
-      <c r="P43" s="286"/>
-      <c r="Q43" s="286"/>
-      <c r="R43" s="286"/>
-      <c r="S43" s="286"/>
-      <c r="T43" s="286"/>
-      <c r="U43" s="286"/>
-      <c r="V43" s="286"/>
-      <c r="W43" s="286"/>
-      <c r="X43" s="286"/>
+      <c r="I43" s="290"/>
+      <c r="J43" s="290"/>
+      <c r="K43" s="290"/>
+      <c r="L43" s="290"/>
+      <c r="M43" s="290"/>
+      <c r="N43" s="290"/>
+      <c r="O43" s="290"/>
+      <c r="P43" s="290"/>
+      <c r="Q43" s="290"/>
+      <c r="R43" s="290"/>
+      <c r="S43" s="290"/>
+      <c r="T43" s="290"/>
+      <c r="U43" s="290"/>
+      <c r="V43" s="290"/>
+      <c r="W43" s="290"/>
+      <c r="X43" s="290"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="192"/>
       <c r="AA43" s="192"/>
@@ -47894,25 +47893,25 @@
       <c r="AG43" s="6"/>
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
-      <c r="AJ43" s="285" t="s">
+      <c r="AJ43" s="289" t="s">
         <v>243</v>
       </c>
-      <c r="AK43" s="285"/>
-      <c r="AL43" s="285"/>
-      <c r="AM43" s="285"/>
-      <c r="AN43" s="286" t="s">
+      <c r="AK43" s="289"/>
+      <c r="AL43" s="289"/>
+      <c r="AM43" s="289"/>
+      <c r="AN43" s="290" t="s">
         <v>233</v>
       </c>
-      <c r="AO43" s="286"/>
-      <c r="AP43" s="286"/>
-      <c r="AQ43" s="286"/>
-      <c r="AR43" s="286"/>
-      <c r="AS43" s="286"/>
-      <c r="AT43" s="286"/>
-      <c r="AU43" s="286"/>
-      <c r="AV43" s="286"/>
-      <c r="AW43" s="286"/>
-      <c r="AX43" s="286"/>
+      <c r="AO43" s="290"/>
+      <c r="AP43" s="290"/>
+      <c r="AQ43" s="290"/>
+      <c r="AR43" s="290"/>
+      <c r="AS43" s="290"/>
+      <c r="AT43" s="290"/>
+      <c r="AU43" s="290"/>
+      <c r="AV43" s="290"/>
+      <c r="AW43" s="290"/>
+      <c r="AX43" s="290"/>
       <c r="AY43" s="5"/>
       <c r="AZ43" s="10"/>
       <c r="BA43" s="10"/>
@@ -47933,32 +47932,32 @@
       <c r="B44" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C44" s="285" t="s">
+      <c r="C44" s="289" t="s">
         <v>240</v>
       </c>
-      <c r="D44" s="285"/>
-      <c r="E44" s="285"/>
-      <c r="F44" s="285"/>
-      <c r="G44" s="285"/>
-      <c r="H44" s="286" t="s">
+      <c r="D44" s="289"/>
+      <c r="E44" s="289"/>
+      <c r="F44" s="289"/>
+      <c r="G44" s="289"/>
+      <c r="H44" s="290" t="s">
         <v>254</v>
       </c>
-      <c r="I44" s="286"/>
-      <c r="J44" s="286"/>
-      <c r="K44" s="286"/>
-      <c r="L44" s="286"/>
-      <c r="M44" s="286"/>
-      <c r="N44" s="286"/>
-      <c r="O44" s="286"/>
-      <c r="P44" s="286"/>
-      <c r="Q44" s="286"/>
-      <c r="R44" s="286"/>
-      <c r="S44" s="286"/>
-      <c r="T44" s="286"/>
-      <c r="U44" s="286"/>
-      <c r="V44" s="286"/>
-      <c r="W44" s="286"/>
-      <c r="X44" s="286"/>
+      <c r="I44" s="290"/>
+      <c r="J44" s="290"/>
+      <c r="K44" s="290"/>
+      <c r="L44" s="290"/>
+      <c r="M44" s="290"/>
+      <c r="N44" s="290"/>
+      <c r="O44" s="290"/>
+      <c r="P44" s="290"/>
+      <c r="Q44" s="290"/>
+      <c r="R44" s="290"/>
+      <c r="S44" s="290"/>
+      <c r="T44" s="290"/>
+      <c r="U44" s="290"/>
+      <c r="V44" s="290"/>
+      <c r="W44" s="290"/>
+      <c r="X44" s="290"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="193"/>
       <c r="AA44" s="193"/>
@@ -47970,25 +47969,25 @@
       <c r="AG44" s="6"/>
       <c r="AH44" s="5"/>
       <c r="AI44" s="5"/>
-      <c r="AJ44" s="285" t="s">
+      <c r="AJ44" s="289" t="s">
         <v>245</v>
       </c>
-      <c r="AK44" s="285"/>
-      <c r="AL44" s="285"/>
-      <c r="AM44" s="285"/>
-      <c r="AN44" s="286" t="s">
+      <c r="AK44" s="289"/>
+      <c r="AL44" s="289"/>
+      <c r="AM44" s="289"/>
+      <c r="AN44" s="290" t="s">
         <v>235</v>
       </c>
-      <c r="AO44" s="286"/>
-      <c r="AP44" s="286"/>
-      <c r="AQ44" s="286"/>
-      <c r="AR44" s="286"/>
-      <c r="AS44" s="286"/>
-      <c r="AT44" s="286"/>
-      <c r="AU44" s="286"/>
-      <c r="AV44" s="286"/>
-      <c r="AW44" s="286"/>
-      <c r="AX44" s="286"/>
+      <c r="AO44" s="290"/>
+      <c r="AP44" s="290"/>
+      <c r="AQ44" s="290"/>
+      <c r="AR44" s="290"/>
+      <c r="AS44" s="290"/>
+      <c r="AT44" s="290"/>
+      <c r="AU44" s="290"/>
+      <c r="AV44" s="290"/>
+      <c r="AW44" s="290"/>
+      <c r="AX44" s="290"/>
       <c r="AY44" s="5"/>
       <c r="AZ44" s="10"/>
       <c r="BA44" s="10"/>
@@ -48009,32 +48008,32 @@
       <c r="B45" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C45" s="285" t="s">
+      <c r="C45" s="289" t="s">
         <v>242</v>
       </c>
-      <c r="D45" s="285"/>
-      <c r="E45" s="285"/>
-      <c r="F45" s="285"/>
-      <c r="G45" s="285"/>
-      <c r="H45" s="286" t="s">
+      <c r="D45" s="289"/>
+      <c r="E45" s="289"/>
+      <c r="F45" s="289"/>
+      <c r="G45" s="289"/>
+      <c r="H45" s="290" t="s">
         <v>255</v>
       </c>
-      <c r="I45" s="286"/>
-      <c r="J45" s="286"/>
-      <c r="K45" s="286"/>
-      <c r="L45" s="286"/>
-      <c r="M45" s="286"/>
-      <c r="N45" s="286"/>
-      <c r="O45" s="286"/>
-      <c r="P45" s="286"/>
-      <c r="Q45" s="286"/>
-      <c r="R45" s="286"/>
-      <c r="S45" s="286"/>
-      <c r="T45" s="286"/>
-      <c r="U45" s="286"/>
-      <c r="V45" s="286"/>
-      <c r="W45" s="286"/>
-      <c r="X45" s="286"/>
+      <c r="I45" s="290"/>
+      <c r="J45" s="290"/>
+      <c r="K45" s="290"/>
+      <c r="L45" s="290"/>
+      <c r="M45" s="290"/>
+      <c r="N45" s="290"/>
+      <c r="O45" s="290"/>
+      <c r="P45" s="290"/>
+      <c r="Q45" s="290"/>
+      <c r="R45" s="290"/>
+      <c r="S45" s="290"/>
+      <c r="T45" s="290"/>
+      <c r="U45" s="290"/>
+      <c r="V45" s="290"/>
+      <c r="W45" s="290"/>
+      <c r="X45" s="290"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="194"/>
       <c r="AA45" s="194"/>
@@ -48046,25 +48045,25 @@
       <c r="AG45" s="6"/>
       <c r="AH45" s="5"/>
       <c r="AI45" s="5"/>
-      <c r="AJ45" s="285" t="s">
+      <c r="AJ45" s="289" t="s">
         <v>246</v>
       </c>
-      <c r="AK45" s="285"/>
-      <c r="AL45" s="285"/>
-      <c r="AM45" s="285"/>
-      <c r="AN45" s="286" t="s">
+      <c r="AK45" s="289"/>
+      <c r="AL45" s="289"/>
+      <c r="AM45" s="289"/>
+      <c r="AN45" s="290" t="s">
         <v>156</v>
       </c>
-      <c r="AO45" s="286"/>
-      <c r="AP45" s="286"/>
-      <c r="AQ45" s="286"/>
-      <c r="AR45" s="286"/>
-      <c r="AS45" s="286"/>
-      <c r="AT45" s="286"/>
-      <c r="AU45" s="286"/>
-      <c r="AV45" s="286"/>
-      <c r="AW45" s="286"/>
-      <c r="AX45" s="286"/>
+      <c r="AO45" s="290"/>
+      <c r="AP45" s="290"/>
+      <c r="AQ45" s="290"/>
+      <c r="AR45" s="290"/>
+      <c r="AS45" s="290"/>
+      <c r="AT45" s="290"/>
+      <c r="AU45" s="290"/>
+      <c r="AV45" s="290"/>
+      <c r="AW45" s="290"/>
+      <c r="AX45" s="290"/>
       <c r="AY45" s="5"/>
       <c r="AZ45" s="10"/>
       <c r="BA45" s="10"/>
@@ -48083,28 +48082,28 @@
     </row>
     <row r="46" spans="2:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
-      <c r="C46" s="285"/>
-      <c r="D46" s="285"/>
-      <c r="E46" s="285"/>
-      <c r="F46" s="285"/>
-      <c r="G46" s="285"/>
-      <c r="H46" s="286"/>
-      <c r="I46" s="286"/>
-      <c r="J46" s="286"/>
-      <c r="K46" s="286"/>
-      <c r="L46" s="286"/>
-      <c r="M46" s="286"/>
-      <c r="N46" s="286"/>
-      <c r="O46" s="286"/>
-      <c r="P46" s="286"/>
-      <c r="Q46" s="286"/>
-      <c r="R46" s="286"/>
-      <c r="S46" s="286"/>
-      <c r="T46" s="286"/>
-      <c r="U46" s="286"/>
-      <c r="V46" s="286"/>
-      <c r="W46" s="286"/>
-      <c r="X46" s="286"/>
+      <c r="C46" s="289"/>
+      <c r="D46" s="289"/>
+      <c r="E46" s="289"/>
+      <c r="F46" s="289"/>
+      <c r="G46" s="289"/>
+      <c r="H46" s="290"/>
+      <c r="I46" s="290"/>
+      <c r="J46" s="290"/>
+      <c r="K46" s="290"/>
+      <c r="L46" s="290"/>
+      <c r="M46" s="290"/>
+      <c r="N46" s="290"/>
+      <c r="O46" s="290"/>
+      <c r="P46" s="290"/>
+      <c r="Q46" s="290"/>
+      <c r="R46" s="290"/>
+      <c r="S46" s="290"/>
+      <c r="T46" s="290"/>
+      <c r="U46" s="290"/>
+      <c r="V46" s="290"/>
+      <c r="W46" s="290"/>
+      <c r="X46" s="290"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
@@ -48116,25 +48115,25 @@
       <c r="AG46" s="6"/>
       <c r="AH46" s="5"/>
       <c r="AI46" s="5"/>
-      <c r="AJ46" s="285" t="s">
+      <c r="AJ46" s="289" t="s">
         <v>247</v>
       </c>
-      <c r="AK46" s="285"/>
-      <c r="AL46" s="285"/>
-      <c r="AM46" s="285"/>
-      <c r="AN46" s="286" t="s">
+      <c r="AK46" s="289"/>
+      <c r="AL46" s="289"/>
+      <c r="AM46" s="289"/>
+      <c r="AN46" s="290" t="s">
         <v>256</v>
       </c>
-      <c r="AO46" s="286"/>
-      <c r="AP46" s="286"/>
-      <c r="AQ46" s="286"/>
-      <c r="AR46" s="286"/>
-      <c r="AS46" s="286"/>
-      <c r="AT46" s="286"/>
-      <c r="AU46" s="286"/>
-      <c r="AV46" s="286"/>
-      <c r="AW46" s="286"/>
-      <c r="AX46" s="286"/>
+      <c r="AO46" s="290"/>
+      <c r="AP46" s="290"/>
+      <c r="AQ46" s="290"/>
+      <c r="AR46" s="290"/>
+      <c r="AS46" s="290"/>
+      <c r="AT46" s="290"/>
+      <c r="AU46" s="290"/>
+      <c r="AV46" s="290"/>
+      <c r="AW46" s="290"/>
+      <c r="AX46" s="290"/>
       <c r="AY46" s="10"/>
       <c r="AZ46" s="10"/>
       <c r="BA46" s="10"/>
@@ -48152,28 +48151,28 @@
       <c r="BM46" s="10"/>
     </row>
     <row r="47" spans="2:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="285"/>
-      <c r="D47" s="285"/>
-      <c r="E47" s="285"/>
-      <c r="F47" s="285"/>
-      <c r="G47" s="285"/>
-      <c r="H47" s="286"/>
-      <c r="I47" s="286"/>
-      <c r="J47" s="286"/>
-      <c r="K47" s="286"/>
-      <c r="L47" s="286"/>
-      <c r="M47" s="286"/>
-      <c r="N47" s="286"/>
-      <c r="O47" s="286"/>
-      <c r="P47" s="286"/>
-      <c r="Q47" s="286"/>
-      <c r="R47" s="286"/>
-      <c r="S47" s="286"/>
-      <c r="T47" s="286"/>
-      <c r="U47" s="286"/>
-      <c r="V47" s="286"/>
-      <c r="W47" s="286"/>
-      <c r="X47" s="286"/>
+      <c r="C47" s="289"/>
+      <c r="D47" s="289"/>
+      <c r="E47" s="289"/>
+      <c r="F47" s="289"/>
+      <c r="G47" s="289"/>
+      <c r="H47" s="290"/>
+      <c r="I47" s="290"/>
+      <c r="J47" s="290"/>
+      <c r="K47" s="290"/>
+      <c r="L47" s="290"/>
+      <c r="M47" s="290"/>
+      <c r="N47" s="290"/>
+      <c r="O47" s="290"/>
+      <c r="P47" s="290"/>
+      <c r="Q47" s="290"/>
+      <c r="R47" s="290"/>
+      <c r="S47" s="290"/>
+      <c r="T47" s="290"/>
+      <c r="U47" s="290"/>
+      <c r="V47" s="290"/>
+      <c r="W47" s="290"/>
+      <c r="X47" s="290"/>
       <c r="AG47" s="4"/>
     </row>
     <row r="48" spans="2:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -51038,6 +51037,46 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:X46"/>
+    <mergeCell ref="AJ46:AM46"/>
+    <mergeCell ref="AN46:AX46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:X47"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:X44"/>
+    <mergeCell ref="AJ44:AM44"/>
+    <mergeCell ref="AN44:AX44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:X45"/>
+    <mergeCell ref="AJ45:AM45"/>
+    <mergeCell ref="AN45:AX45"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:X42"/>
+    <mergeCell ref="AJ42:AM42"/>
+    <mergeCell ref="AN42:AX42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:X43"/>
+    <mergeCell ref="AJ43:AM43"/>
+    <mergeCell ref="AN43:AX43"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:X40"/>
+    <mergeCell ref="AJ40:AM40"/>
+    <mergeCell ref="AN40:AX40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:X41"/>
+    <mergeCell ref="AJ41:AM41"/>
+    <mergeCell ref="AN41:AX41"/>
+    <mergeCell ref="AD35:AG35"/>
+    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="AD37:AG37"/>
+    <mergeCell ref="AD38:AN38"/>
+    <mergeCell ref="AD39:AG39"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="AD34:AE34"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AN1:AR1"/>
     <mergeCell ref="AT1:AV1"/>
@@ -51048,46 +51087,6 @@
     <mergeCell ref="P1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AD35:AG35"/>
-    <mergeCell ref="AD36:AG36"/>
-    <mergeCell ref="AD37:AG37"/>
-    <mergeCell ref="AD38:AN38"/>
-    <mergeCell ref="AD39:AG39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:X40"/>
-    <mergeCell ref="AJ40:AM40"/>
-    <mergeCell ref="AN40:AX40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:X41"/>
-    <mergeCell ref="AJ41:AM41"/>
-    <mergeCell ref="AN41:AX41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:X42"/>
-    <mergeCell ref="AJ42:AM42"/>
-    <mergeCell ref="AN42:AX42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:X43"/>
-    <mergeCell ref="AJ43:AM43"/>
-    <mergeCell ref="AN43:AX43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:X44"/>
-    <mergeCell ref="AJ44:AM44"/>
-    <mergeCell ref="AN44:AX44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:X45"/>
-    <mergeCell ref="AJ45:AM45"/>
-    <mergeCell ref="AN45:AX45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:X46"/>
-    <mergeCell ref="AJ46:AM46"/>
-    <mergeCell ref="AN46:AX46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:X47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -51128,50 +51127,50 @@
   <sheetData>
     <row r="1" spans="1:76" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
-      <c r="C1" s="288" t="s">
+      <c r="C1" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="288" t="s">
+      <c r="H1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
-      <c r="N1" s="288"/>
-      <c r="O1" s="288"/>
-      <c r="P1" s="288"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
+      <c r="P1" s="285"/>
       <c r="Q1" s="8"/>
-      <c r="R1" s="288" t="s">
+      <c r="R1" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="288"/>
-      <c r="T1" s="288"/>
-      <c r="U1" s="288"/>
-      <c r="V1" s="288"/>
-      <c r="W1" s="288"/>
-      <c r="X1" s="288"/>
-      <c r="Y1" s="288"/>
+      <c r="S1" s="285"/>
+      <c r="T1" s="285"/>
+      <c r="U1" s="285"/>
+      <c r="V1" s="285"/>
+      <c r="W1" s="285"/>
+      <c r="X1" s="285"/>
+      <c r="Y1" s="285"/>
       <c r="Z1" s="8"/>
-      <c r="AA1" s="288" t="s">
+      <c r="AA1" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="288"/>
+      <c r="AB1" s="285"/>
       <c r="AC1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="290" t="s">
+      <c r="AD1" s="286" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="290"/>
-      <c r="AF1" s="290"/>
-      <c r="AG1" s="290"/>
-      <c r="AH1" s="290"/>
+      <c r="AE1" s="286"/>
+      <c r="AF1" s="286"/>
+      <c r="AG1" s="286"/>
+      <c r="AH1" s="286"/>
       <c r="AI1" s="9" t="s">
         <v>6</v>
       </c>
@@ -51187,30 +51186,30 @@
       <c r="AM1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AN1" s="288" t="s">
+      <c r="AN1" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="AO1" s="288"/>
-      <c r="AP1" s="288"/>
-      <c r="AQ1" s="288"/>
+      <c r="AO1" s="285"/>
+      <c r="AP1" s="285"/>
+      <c r="AQ1" s="285"/>
       <c r="AR1" s="8"/>
-      <c r="AS1" s="288" t="s">
+      <c r="AS1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="AT1" s="288"/>
-      <c r="AU1" s="288"/>
-      <c r="AV1" s="288"/>
-      <c r="AW1" s="288"/>
-      <c r="AX1" s="288"/>
-      <c r="AY1" s="288"/>
-      <c r="AZ1" s="288"/>
-      <c r="BA1" s="288"/>
-      <c r="BB1" s="288"/>
+      <c r="AT1" s="285"/>
+      <c r="AU1" s="285"/>
+      <c r="AV1" s="285"/>
+      <c r="AW1" s="285"/>
+      <c r="AX1" s="285"/>
+      <c r="AY1" s="285"/>
+      <c r="AZ1" s="285"/>
+      <c r="BA1" s="285"/>
+      <c r="BB1" s="285"/>
       <c r="BC1" s="8"/>
-      <c r="BD1" s="288" t="s">
+      <c r="BD1" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BE1" s="288"/>
+      <c r="BE1" s="285"/>
       <c r="BF1" s="7"/>
       <c r="BH1" s="10"/>
       <c r="BI1" s="10"/>
@@ -52304,23 +52303,23 @@
       <c r="T15" s="4"/>
       <c r="U15" s="83"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="286" t="s">
+      <c r="W15" s="290" t="s">
         <v>261</v>
       </c>
-      <c r="X15" s="286"/>
-      <c r="Y15" s="286"/>
-      <c r="Z15" s="286"/>
-      <c r="AA15" s="286"/>
-      <c r="AB15" s="286"/>
-      <c r="AC15" s="286"/>
-      <c r="AD15" s="286"/>
-      <c r="AE15" s="286"/>
-      <c r="AF15" s="286"/>
-      <c r="AG15" s="286"/>
-      <c r="AH15" s="286"/>
-      <c r="AI15" s="286"/>
-      <c r="AJ15" s="286"/>
-      <c r="AK15" s="286"/>
+      <c r="X15" s="290"/>
+      <c r="Y15" s="290"/>
+      <c r="Z15" s="290"/>
+      <c r="AA15" s="290"/>
+      <c r="AB15" s="290"/>
+      <c r="AC15" s="290"/>
+      <c r="AD15" s="290"/>
+      <c r="AE15" s="290"/>
+      <c r="AF15" s="290"/>
+      <c r="AG15" s="290"/>
+      <c r="AH15" s="290"/>
+      <c r="AI15" s="290"/>
+      <c r="AJ15" s="290"/>
+      <c r="AK15" s="290"/>
       <c r="AL15" s="149"/>
       <c r="AM15" s="260" t="s">
         <v>13</v>
@@ -52383,23 +52382,23 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="286" t="s">
+      <c r="W16" s="290" t="s">
         <v>263</v>
       </c>
-      <c r="X16" s="286"/>
-      <c r="Y16" s="286"/>
-      <c r="Z16" s="286"/>
-      <c r="AA16" s="286"/>
-      <c r="AB16" s="286"/>
-      <c r="AC16" s="286"/>
-      <c r="AD16" s="286"/>
-      <c r="AE16" s="286"/>
-      <c r="AF16" s="286"/>
-      <c r="AG16" s="286"/>
-      <c r="AH16" s="286"/>
-      <c r="AI16" s="286"/>
-      <c r="AJ16" s="286"/>
-      <c r="AK16" s="286"/>
+      <c r="X16" s="290"/>
+      <c r="Y16" s="290"/>
+      <c r="Z16" s="290"/>
+      <c r="AA16" s="290"/>
+      <c r="AB16" s="290"/>
+      <c r="AC16" s="290"/>
+      <c r="AD16" s="290"/>
+      <c r="AE16" s="290"/>
+      <c r="AF16" s="290"/>
+      <c r="AG16" s="290"/>
+      <c r="AH16" s="290"/>
+      <c r="AI16" s="290"/>
+      <c r="AJ16" s="290"/>
+      <c r="AK16" s="290"/>
       <c r="AL16" s="149"/>
       <c r="AM16" s="264" t="s">
         <v>13</v>
@@ -52472,23 +52471,23 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
-      <c r="W17" s="286" t="s">
+      <c r="W17" s="290" t="s">
         <v>265</v>
       </c>
-      <c r="X17" s="286"/>
-      <c r="Y17" s="286"/>
-      <c r="Z17" s="286"/>
-      <c r="AA17" s="286"/>
-      <c r="AB17" s="286"/>
-      <c r="AC17" s="286"/>
-      <c r="AD17" s="286"/>
-      <c r="AE17" s="286"/>
-      <c r="AF17" s="286"/>
-      <c r="AG17" s="286"/>
-      <c r="AH17" s="286"/>
-      <c r="AI17" s="286"/>
-      <c r="AJ17" s="286"/>
-      <c r="AK17" s="286"/>
+      <c r="X17" s="290"/>
+      <c r="Y17" s="290"/>
+      <c r="Z17" s="290"/>
+      <c r="AA17" s="290"/>
+      <c r="AB17" s="290"/>
+      <c r="AC17" s="290"/>
+      <c r="AD17" s="290"/>
+      <c r="AE17" s="290"/>
+      <c r="AF17" s="290"/>
+      <c r="AG17" s="290"/>
+      <c r="AH17" s="290"/>
+      <c r="AI17" s="290"/>
+      <c r="AJ17" s="290"/>
+      <c r="AK17" s="290"/>
       <c r="AL17" s="149"/>
       <c r="AM17" s="266" t="s">
         <v>13</v>
@@ -52536,23 +52535,23 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
-      <c r="W18" s="286" t="s">
+      <c r="W18" s="290" t="s">
         <v>267</v>
       </c>
-      <c r="X18" s="286"/>
-      <c r="Y18" s="286"/>
-      <c r="Z18" s="286"/>
-      <c r="AA18" s="286"/>
-      <c r="AB18" s="286"/>
-      <c r="AC18" s="286"/>
-      <c r="AD18" s="286"/>
-      <c r="AE18" s="286"/>
-      <c r="AF18" s="286"/>
-      <c r="AG18" s="286"/>
-      <c r="AH18" s="286"/>
-      <c r="AI18" s="286"/>
-      <c r="AJ18" s="286"/>
-      <c r="AK18" s="286"/>
+      <c r="X18" s="290"/>
+      <c r="Y18" s="290"/>
+      <c r="Z18" s="290"/>
+      <c r="AA18" s="290"/>
+      <c r="AB18" s="290"/>
+      <c r="AC18" s="290"/>
+      <c r="AD18" s="290"/>
+      <c r="AE18" s="290"/>
+      <c r="AF18" s="290"/>
+      <c r="AG18" s="290"/>
+      <c r="AH18" s="290"/>
+      <c r="AI18" s="290"/>
+      <c r="AJ18" s="290"/>
+      <c r="AK18" s="290"/>
       <c r="AL18" s="4"/>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
@@ -52589,23 +52588,23 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="286" t="s">
+      <c r="W19" s="290" t="s">
         <v>268</v>
       </c>
-      <c r="X19" s="286"/>
-      <c r="Y19" s="286"/>
-      <c r="Z19" s="286"/>
-      <c r="AA19" s="286"/>
-      <c r="AB19" s="286"/>
-      <c r="AC19" s="286"/>
-      <c r="AD19" s="286"/>
-      <c r="AE19" s="286"/>
-      <c r="AF19" s="286"/>
-      <c r="AG19" s="286"/>
-      <c r="AH19" s="286"/>
-      <c r="AI19" s="286"/>
-      <c r="AJ19" s="286"/>
-      <c r="AK19" s="286"/>
+      <c r="X19" s="290"/>
+      <c r="Y19" s="290"/>
+      <c r="Z19" s="290"/>
+      <c r="AA19" s="290"/>
+      <c r="AB19" s="290"/>
+      <c r="AC19" s="290"/>
+      <c r="AD19" s="290"/>
+      <c r="AE19" s="290"/>
+      <c r="AF19" s="290"/>
+      <c r="AG19" s="290"/>
+      <c r="AH19" s="290"/>
+      <c r="AI19" s="290"/>
+      <c r="AJ19" s="290"/>
+      <c r="AK19" s="290"/>
       <c r="AL19" s="4"/>
       <c r="AM19" s="21"/>
       <c r="AN19" s="4"/>
@@ -52635,23 +52634,23 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="286" t="s">
+      <c r="W20" s="290" t="s">
         <v>269</v>
       </c>
-      <c r="X20" s="286"/>
-      <c r="Y20" s="286"/>
-      <c r="Z20" s="286"/>
-      <c r="AA20" s="286"/>
-      <c r="AB20" s="286"/>
-      <c r="AC20" s="286"/>
-      <c r="AD20" s="286"/>
-      <c r="AE20" s="286"/>
-      <c r="AF20" s="286"/>
-      <c r="AG20" s="286"/>
-      <c r="AH20" s="286"/>
-      <c r="AI20" s="286"/>
-      <c r="AJ20" s="286"/>
-      <c r="AK20" s="286"/>
+      <c r="X20" s="290"/>
+      <c r="Y20" s="290"/>
+      <c r="Z20" s="290"/>
+      <c r="AA20" s="290"/>
+      <c r="AB20" s="290"/>
+      <c r="AC20" s="290"/>
+      <c r="AD20" s="290"/>
+      <c r="AE20" s="290"/>
+      <c r="AF20" s="290"/>
+      <c r="AG20" s="290"/>
+      <c r="AH20" s="290"/>
+      <c r="AI20" s="290"/>
+      <c r="AJ20" s="290"/>
+      <c r="AK20" s="290"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="21"/>
       <c r="AN20" s="4"/>
@@ -55792,6 +55791,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="W20:AK20"/>
+    <mergeCell ref="W15:AK15"/>
+    <mergeCell ref="W16:AK16"/>
+    <mergeCell ref="W17:AK17"/>
+    <mergeCell ref="W18:AK18"/>
+    <mergeCell ref="W19:AK19"/>
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="AS1:BB1"/>
     <mergeCell ref="BD1:BE1"/>
@@ -55802,12 +55807,6 @@
     <mergeCell ref="R1:Y1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="W20:AK20"/>
-    <mergeCell ref="W15:AK15"/>
-    <mergeCell ref="W16:AK16"/>
-    <mergeCell ref="W17:AK17"/>
-    <mergeCell ref="W18:AK18"/>
-    <mergeCell ref="W19:AK19"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -55823,7 +55822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:BX1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AW19" sqref="AW19"/>
     </sheetView>
   </sheetViews>
@@ -55852,50 +55851,50 @@
   <sheetData>
     <row r="1" spans="1:76" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
-      <c r="C1" s="288" t="s">
+      <c r="C1" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="288" t="s">
+      <c r="H1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
-      <c r="N1" s="288"/>
-      <c r="O1" s="288"/>
-      <c r="P1" s="288"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
+      <c r="P1" s="285"/>
       <c r="Q1" s="8"/>
-      <c r="R1" s="288" t="s">
+      <c r="R1" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="288"/>
-      <c r="T1" s="288"/>
-      <c r="U1" s="288"/>
-      <c r="V1" s="288"/>
-      <c r="W1" s="288"/>
-      <c r="X1" s="288"/>
-      <c r="Y1" s="288"/>
+      <c r="S1" s="285"/>
+      <c r="T1" s="285"/>
+      <c r="U1" s="285"/>
+      <c r="V1" s="285"/>
+      <c r="W1" s="285"/>
+      <c r="X1" s="285"/>
+      <c r="Y1" s="285"/>
       <c r="Z1" s="8"/>
-      <c r="AA1" s="288" t="s">
+      <c r="AA1" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="288"/>
+      <c r="AB1" s="285"/>
       <c r="AC1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="290" t="s">
+      <c r="AD1" s="286" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="290"/>
-      <c r="AF1" s="290"/>
-      <c r="AG1" s="290"/>
-      <c r="AH1" s="290"/>
+      <c r="AE1" s="286"/>
+      <c r="AF1" s="286"/>
+      <c r="AG1" s="286"/>
+      <c r="AH1" s="286"/>
       <c r="AI1" s="9" t="s">
         <v>6</v>
       </c>
@@ -55911,30 +55910,30 @@
       <c r="AM1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AN1" s="288" t="s">
+      <c r="AN1" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="AO1" s="288"/>
-      <c r="AP1" s="288"/>
-      <c r="AQ1" s="288"/>
+      <c r="AO1" s="285"/>
+      <c r="AP1" s="285"/>
+      <c r="AQ1" s="285"/>
       <c r="AR1" s="8"/>
-      <c r="AS1" s="288" t="s">
+      <c r="AS1" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="AT1" s="288"/>
-      <c r="AU1" s="288"/>
-      <c r="AV1" s="288"/>
-      <c r="AW1" s="288"/>
-      <c r="AX1" s="288"/>
-      <c r="AY1" s="288"/>
-      <c r="AZ1" s="288"/>
-      <c r="BA1" s="288"/>
-      <c r="BB1" s="288"/>
+      <c r="AT1" s="285"/>
+      <c r="AU1" s="285"/>
+      <c r="AV1" s="285"/>
+      <c r="AW1" s="285"/>
+      <c r="AX1" s="285"/>
+      <c r="AY1" s="285"/>
+      <c r="AZ1" s="285"/>
+      <c r="BA1" s="285"/>
+      <c r="BB1" s="285"/>
       <c r="BC1" s="8"/>
-      <c r="BD1" s="288" t="s">
+      <c r="BD1" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BE1" s="288"/>
+      <c r="BE1" s="285"/>
       <c r="BF1" s="7"/>
       <c r="BH1" s="10"/>
       <c r="BI1" s="10"/>
@@ -57029,23 +57028,23 @@
       <c r="T15" s="4"/>
       <c r="U15" s="83"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="286" t="s">
+      <c r="W15" s="290" t="s">
         <v>272</v>
       </c>
-      <c r="X15" s="286"/>
-      <c r="Y15" s="286"/>
-      <c r="Z15" s="286"/>
-      <c r="AA15" s="286"/>
-      <c r="AB15" s="286"/>
-      <c r="AC15" s="286"/>
-      <c r="AD15" s="286"/>
-      <c r="AE15" s="286"/>
-      <c r="AF15" s="286"/>
-      <c r="AG15" s="286"/>
-      <c r="AH15" s="286"/>
-      <c r="AI15" s="286"/>
-      <c r="AJ15" s="286"/>
-      <c r="AK15" s="286"/>
+      <c r="X15" s="290"/>
+      <c r="Y15" s="290"/>
+      <c r="Z15" s="290"/>
+      <c r="AA15" s="290"/>
+      <c r="AB15" s="290"/>
+      <c r="AC15" s="290"/>
+      <c r="AD15" s="290"/>
+      <c r="AE15" s="290"/>
+      <c r="AF15" s="290"/>
+      <c r="AG15" s="290"/>
+      <c r="AH15" s="290"/>
+      <c r="AI15" s="290"/>
+      <c r="AJ15" s="290"/>
+      <c r="AK15" s="290"/>
       <c r="AL15" s="149"/>
       <c r="AM15" s="260" t="s">
         <v>13</v>
@@ -57108,23 +57107,23 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="286" t="s">
+      <c r="W16" s="290" t="s">
         <v>263</v>
       </c>
-      <c r="X16" s="286"/>
-      <c r="Y16" s="286"/>
-      <c r="Z16" s="286"/>
-      <c r="AA16" s="286"/>
-      <c r="AB16" s="286"/>
-      <c r="AC16" s="286"/>
-      <c r="AD16" s="286"/>
-      <c r="AE16" s="286"/>
-      <c r="AF16" s="286"/>
-      <c r="AG16" s="286"/>
-      <c r="AH16" s="286"/>
-      <c r="AI16" s="286"/>
-      <c r="AJ16" s="286"/>
-      <c r="AK16" s="286"/>
+      <c r="X16" s="290"/>
+      <c r="Y16" s="290"/>
+      <c r="Z16" s="290"/>
+      <c r="AA16" s="290"/>
+      <c r="AB16" s="290"/>
+      <c r="AC16" s="290"/>
+      <c r="AD16" s="290"/>
+      <c r="AE16" s="290"/>
+      <c r="AF16" s="290"/>
+      <c r="AG16" s="290"/>
+      <c r="AH16" s="290"/>
+      <c r="AI16" s="290"/>
+      <c r="AJ16" s="290"/>
+      <c r="AK16" s="290"/>
       <c r="AL16" s="149"/>
       <c r="AM16" s="264" t="s">
         <v>13</v>
@@ -57196,23 +57195,23 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
-      <c r="W17" s="286" t="s">
+      <c r="W17" s="290" t="s">
         <v>265</v>
       </c>
-      <c r="X17" s="286"/>
-      <c r="Y17" s="286"/>
-      <c r="Z17" s="286"/>
-      <c r="AA17" s="286"/>
-      <c r="AB17" s="286"/>
-      <c r="AC17" s="286"/>
-      <c r="AD17" s="286"/>
-      <c r="AE17" s="286"/>
-      <c r="AF17" s="286"/>
-      <c r="AG17" s="286"/>
-      <c r="AH17" s="286"/>
-      <c r="AI17" s="286"/>
-      <c r="AJ17" s="286"/>
-      <c r="AK17" s="286"/>
+      <c r="X17" s="290"/>
+      <c r="Y17" s="290"/>
+      <c r="Z17" s="290"/>
+      <c r="AA17" s="290"/>
+      <c r="AB17" s="290"/>
+      <c r="AC17" s="290"/>
+      <c r="AD17" s="290"/>
+      <c r="AE17" s="290"/>
+      <c r="AF17" s="290"/>
+      <c r="AG17" s="290"/>
+      <c r="AH17" s="290"/>
+      <c r="AI17" s="290"/>
+      <c r="AJ17" s="290"/>
+      <c r="AK17" s="290"/>
       <c r="AL17" s="149"/>
       <c r="AM17" s="266" t="s">
         <v>13</v>
@@ -57260,23 +57259,23 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
-      <c r="W18" s="286" t="s">
+      <c r="W18" s="290" t="s">
         <v>267</v>
       </c>
-      <c r="X18" s="286"/>
-      <c r="Y18" s="286"/>
-      <c r="Z18" s="286"/>
-      <c r="AA18" s="286"/>
-      <c r="AB18" s="286"/>
-      <c r="AC18" s="286"/>
-      <c r="AD18" s="286"/>
-      <c r="AE18" s="286"/>
-      <c r="AF18" s="286"/>
-      <c r="AG18" s="286"/>
-      <c r="AH18" s="286"/>
-      <c r="AI18" s="286"/>
-      <c r="AJ18" s="286"/>
-      <c r="AK18" s="286"/>
+      <c r="X18" s="290"/>
+      <c r="Y18" s="290"/>
+      <c r="Z18" s="290"/>
+      <c r="AA18" s="290"/>
+      <c r="AB18" s="290"/>
+      <c r="AC18" s="290"/>
+      <c r="AD18" s="290"/>
+      <c r="AE18" s="290"/>
+      <c r="AF18" s="290"/>
+      <c r="AG18" s="290"/>
+      <c r="AH18" s="290"/>
+      <c r="AI18" s="290"/>
+      <c r="AJ18" s="290"/>
+      <c r="AK18" s="290"/>
       <c r="AL18" s="4"/>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
@@ -57313,23 +57312,23 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="286" t="s">
+      <c r="W19" s="290" t="s">
         <v>273</v>
       </c>
-      <c r="X19" s="286"/>
-      <c r="Y19" s="286"/>
-      <c r="Z19" s="286"/>
-      <c r="AA19" s="286"/>
-      <c r="AB19" s="286"/>
-      <c r="AC19" s="286"/>
-      <c r="AD19" s="286"/>
-      <c r="AE19" s="286"/>
-      <c r="AF19" s="286"/>
-      <c r="AG19" s="286"/>
-      <c r="AH19" s="286"/>
-      <c r="AI19" s="286"/>
-      <c r="AJ19" s="286"/>
-      <c r="AK19" s="286"/>
+      <c r="X19" s="290"/>
+      <c r="Y19" s="290"/>
+      <c r="Z19" s="290"/>
+      <c r="AA19" s="290"/>
+      <c r="AB19" s="290"/>
+      <c r="AC19" s="290"/>
+      <c r="AD19" s="290"/>
+      <c r="AE19" s="290"/>
+      <c r="AF19" s="290"/>
+      <c r="AG19" s="290"/>
+      <c r="AH19" s="290"/>
+      <c r="AI19" s="290"/>
+      <c r="AJ19" s="290"/>
+      <c r="AK19" s="290"/>
       <c r="AL19" s="4"/>
       <c r="AM19" s="21"/>
       <c r="AN19" s="4"/>
@@ -57359,23 +57358,23 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="286" t="s">
+      <c r="W20" s="290" t="s">
         <v>274</v>
       </c>
-      <c r="X20" s="286"/>
-      <c r="Y20" s="286"/>
-      <c r="Z20" s="286"/>
-      <c r="AA20" s="286"/>
-      <c r="AB20" s="286"/>
-      <c r="AC20" s="286"/>
-      <c r="AD20" s="286"/>
-      <c r="AE20" s="286"/>
-      <c r="AF20" s="286"/>
-      <c r="AG20" s="286"/>
-      <c r="AH20" s="286"/>
-      <c r="AI20" s="286"/>
-      <c r="AJ20" s="286"/>
-      <c r="AK20" s="286"/>
+      <c r="X20" s="290"/>
+      <c r="Y20" s="290"/>
+      <c r="Z20" s="290"/>
+      <c r="AA20" s="290"/>
+      <c r="AB20" s="290"/>
+      <c r="AC20" s="290"/>
+      <c r="AD20" s="290"/>
+      <c r="AE20" s="290"/>
+      <c r="AF20" s="290"/>
+      <c r="AG20" s="290"/>
+      <c r="AH20" s="290"/>
+      <c r="AI20" s="290"/>
+      <c r="AJ20" s="290"/>
+      <c r="AK20" s="290"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="21"/>
       <c r="AO20" s="4"/>
@@ -60524,6 +60523,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="W20:AK20"/>
+    <mergeCell ref="W15:AK15"/>
+    <mergeCell ref="W16:AK16"/>
+    <mergeCell ref="W17:AK17"/>
+    <mergeCell ref="W18:AK18"/>
+    <mergeCell ref="W19:AK19"/>
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="AS1:BB1"/>
     <mergeCell ref="BD1:BE1"/>
@@ -60534,12 +60539,6 @@
     <mergeCell ref="R1:Y1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="W20:AK20"/>
-    <mergeCell ref="W15:AK15"/>
-    <mergeCell ref="W16:AK16"/>
-    <mergeCell ref="W17:AK17"/>
-    <mergeCell ref="W18:AK18"/>
-    <mergeCell ref="W19:AK19"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -60560,6 +60559,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5541cf8a-f169-4687-b6d1-a9ea006e1c1e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100227FF285B37DE24A94A2EA9FDBCA4400" ma:contentTypeVersion="7" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="588abf8fd5e6b50ffcdec6efd5599331">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5541cf8a-f169-4687-b6d1-a9ea006e1c1e" xmlns:ns4="076e3b32-d499-47af-a53e-859a1f4777b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c290f94be8c523c0896f800f0a5c5ca5" ns3:_="" ns4:_="">
     <xsd:import namespace="5541cf8a-f169-4687-b6d1-a9ea006e1c1e"/>
@@ -60742,14 +60749,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5541cf8a-f169-4687-b6d1-a9ea006e1c1e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A4F9246-6CCD-49F2-B4EC-9BB1C78FBF75}">
   <ds:schemaRefs>
@@ -60759,6 +60758,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC27F887-39F3-4EF2-9913-A40B47588824}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5541cf8a-f169-4687-b6d1-a9ea006e1c1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{578B5964-8BD5-4593-9F6B-A8DAE9A0051D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -60775,14 +60784,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC27F887-39F3-4EF2-9913-A40B47588824}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5541cf8a-f169-4687-b6d1-a9ea006e1c1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>